--- a/data_raw/medgemma.xlsx
+++ b/data_raw/medgemma.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tahafaisal/Desktop/virtual_assistant/clinical-benchmarks-rubric/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BBC54B-622E-E444-9945-523D499BB18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2551714-79D2-2D4D-ABD4-494799FEFF5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="639">
   <si>
     <t>id</t>
   </si>
@@ -796,6 +796,1806 @@
   <si>
     <t>Comparison</t>
   </si>
+  <si>
+    <t>[doctor] good morning julie how are you doing this morning</t>
+  </si>
+  <si>
+    <t>[patient] i've been better my primary care doctor wanted me to see you because of this this knee pain that i've been having for about six months now</t>
+  </si>
+  <si>
+    <t>[doctor] okay and do you remember what caused the pain initially</t>
+  </si>
+  <si>
+    <t>[patient] honestly i do n't i ca n't think of anytime if i fell or like i i've really been trying to think and i ca n't really think of any specific event</t>
+  </si>
+  <si>
+    <t>[doctor] okay now it it says here that it's in both knees is that correct</t>
+  </si>
+  <si>
+    <t>[patient] yes both my knees</t>
+  </si>
+  <si>
+    <t>[doctor] okay it kinda try let's let's try describing the pain for me please</t>
+  </si>
+  <si>
+    <t>[patient] yeah it's kind of feels like it's like right behind my kneecaps</t>
+  </si>
+  <si>
+    <t>[doctor] okay</t>
+  </si>
+  <si>
+    <t>[patient] and it's like a deep achy pain</t>
+  </si>
+  <si>
+    <t>[doctor] a deep achy pain okay what kind of activities makes the pain feel worse</t>
+  </si>
+  <si>
+    <t>[patient] let's see so anytime so if i'm sitting at my desk and i get up i have a lot of pain so anytime from like standing up from sitting for a while or even going up and down the stairs</t>
+  </si>
+  <si>
+    <t>[doctor] okay so you work from home</t>
+  </si>
+  <si>
+    <t>[patient] i do</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay so there is a lot of desk setting at home is your office upstairs or is it i mean do you have to go up or downstairs to get to it</t>
+  </si>
+  <si>
+    <t>[patient] no well first thing in the morning but otherwise it's downstairs</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay how do you like working from home</t>
+  </si>
+  <si>
+    <t>[patient] you know it has it's plus and minuses</t>
+  </si>
+  <si>
+    <t>[patient] i like it though my i like my commute</t>
+  </si>
+  <si>
+    <t>[doctor] yeah</t>
+  </si>
+  <si>
+    <t>[patient] i love it</t>
+  </si>
+  <si>
+    <t>[doctor] and the parking i'm sure the parking is</t>
+  </si>
+  <si>
+    <t>[patient] and the parking is great</t>
+  </si>
+  <si>
+    <t>[doctor] yeah i you know if i could do telehealth visits all day long i would be totally happy with that yeah and just set it home and do those so you mentioned is there anything that makes that pain feel better</t>
+  </si>
+  <si>
+    <t>[patient] usually after like if i feel that pain and then i just it does get better</t>
+  </si>
+  <si>
+    <t>[doctor] okay now you mentioned earlier that you tried some things in the past what have what are they and did they work at all</t>
+  </si>
+  <si>
+    <t>[patient] yeah i've done some ibuprofen or aleve sometimes some tylenol and that does help</t>
+  </si>
+  <si>
+    <t>[patient] it takes the edge off</t>
+  </si>
+  <si>
+    <t>[doctor] okay but you're never really pain free is that what i hear you saying</t>
+  </si>
+  <si>
+    <t>[patient] not really unless i'm like really just resting which i hate to do but otherwise any type of movement especially from sitting it causes pain</t>
+  </si>
+  <si>
+    <t>[doctor] okay so are you active other than going up and down the steps to your office</t>
+  </si>
+  <si>
+    <t>[patient] very i'm a big runner i love to run i run about five to six miles a day but with this knee with with these knee pain that i've been having it's i barely can even do half a mile</t>
+  </si>
+  <si>
+    <t>[doctor] yeah you know what that's that's i am a biker and i know that once you get that into your you know you have loved doing that activity it's so frustrating when you ca n't it's almost like a it's almost like a dry it almost becomes a drug when you get up</t>
+  </si>
+  <si>
+    <t>[patient] exactly</t>
+  </si>
+  <si>
+    <t>[patient] it's</t>
+  </si>
+  <si>
+    <t>[doctor] okay so have you noticed any redness or swelling in your knees</t>
+  </si>
+  <si>
+    <t>[patient] no</t>
+  </si>
+  <si>
+    <t>[doctor] okay and have you ever injured your knees before</t>
+  </si>
+  <si>
+    <t>[patient] you know despite how active i am i you know i've never</t>
+  </si>
+  <si>
+    <t>[patient] injured or broken a bone</t>
+  </si>
+  <si>
+    <t>[doctor] okay great so let's go ahead and do a i just wan na take a look here i reviewed your vitals and overall they look good your blood pressure is one twenty over seventy your your heart rate is sixty and your respiratory rate is fourteen those are all phenomenal numbers as i listened to your heart it is at a regular and a slower rate but i do n't hear any extra sounds so there is no murmurs as we go through that now on musculoskeletal exam you have a normal gait i watched you you know kinda walk in here this morning your strength i just wan na check it when i go ahead and i want you to move your leg okay your muscle strength is is good you do have a three out of five for abduction of your legs bilaterally and that's you know kinda bringing your legs in the remainder of your muscle strength for your lower extremities is a five out of five now let me focus specifically on your knee examination i do n't see any redness or ecchymosis or warmth of the skin and those are big words you know i do n't see any bruising or or that redness there is no effusion that's just like a fluid underneath the knee i do n't appreciate that any at all you do seem to have some tenderness when i palpate and you do have a positive patellar grind test when you stood up i could feel that as we went through there you did say you had that knee pain with squatting but your lachman your anterior and posterior drawer and mcmurray test are all negative bilaterally neurologically and your your your lower extremities your patella and your achilles reflex are symmetrical and that's good so i did review the x-rays of both your knees which shows no fractures or osteoarthritis so based on what you told me and reviewing the mri that you had done before you came in your symptoms are consistent with patellofemoral pain syndrome and this is a really common condition that we see that causes knee knee pain especially in really active young people that's probably why i do n't get it when i'm riding my bike forever and ever now this condition has to do with the way your kneecap moves across along the groove of your thigh bone your femur so for pain i want you to continue to take the ibuprofen or any other anti-inflammatories you know aleve or any of those as you need it to help with the pain now i am going to recommend physical therapy well they will show you a number of lower extremity exercises this is probably one of the best things that you can do and this will help increase your lower extremity strength your mobility and correct any incorrect running mechanics that you might have do you have any questions for me</t>
+  </si>
+  <si>
+    <t>[patient] so will i be able to run again</t>
+  </si>
+  <si>
+    <t>[doctor] absolutely my goal is to get you out there and maybe we can cross pads on the the bike trail some day you are gon na have to take it a little bit easy for now but we are gon na get you back and once we do that i think you will be really pleased is there anything else</t>
+  </si>
+  <si>
+    <t>[patient] no i think that's it</t>
+  </si>
+  <si>
+    <t>[doctor] okay have a great day</t>
+  </si>
+  <si>
+    <t>[patient] okay you too</t>
+  </si>
+  <si>
+    <t>[doctor] thank you</t>
+  </si>
+  <si>
+    <t>[patient] bye</t>
+  </si>
+  <si>
+    <t>CHIEF COMPLAINT</t>
+  </si>
+  <si>
+    <t>Bilateral knee pain.</t>
+  </si>
+  <si>
+    <t>SOCIAL HISTORY</t>
+  </si>
+  <si>
+    <t>The patient is an avid runner. She also works from home.</t>
+  </si>
+  <si>
+    <t>REVIEW OF SYSTEMS</t>
+  </si>
+  <si>
+    <t>Musculoskeletal: Reports bilateral knee pain. Denies knee swelling.</t>
+  </si>
+  <si>
+    <t>Skin: Denies redness.</t>
+  </si>
+  <si>
+    <t>VITALS</t>
+  </si>
+  <si>
+    <t>Blood pressure: 120/70 mmHg</t>
+  </si>
+  <si>
+    <t>Heart rate: 60 bpm</t>
+  </si>
+  <si>
+    <t>Respirations: 14</t>
+  </si>
+  <si>
+    <t>PHYSICAL EXAM</t>
+  </si>
+  <si>
+    <t>Neurological</t>
+  </si>
+  <si>
+    <t>- Orientation: Normal gait. Patellar and Achilles reflexes are symmetrical.</t>
+  </si>
+  <si>
+    <t>Cardiovascular</t>
+  </si>
+  <si>
+    <t>- Auscultation of Heart: Regular, slower rate. No murmurs.</t>
+  </si>
+  <si>
+    <t>Gastrointestinal</t>
+  </si>
+  <si>
+    <t>- Examination of Abdomen: No masses or tenderness.</t>
+  </si>
+  <si>
+    <t>- Auscultation: Bowel sounds normal in all 4 quadrants.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal</t>
+  </si>
+  <si>
+    <t>- Examination: No clubbing, cyanosis, or edema. Normal gait. 3/5 abduction strength of the bilateral lower extremities. Otherwise, 5/5 strength in the bilateral lower extremities.</t>
+  </si>
+  <si>
+    <t>- Bilateral knees: No erythema, ecchymosis, or warmth. No effusion. Tender to palpation. Positive patellar grind test. Lachman, anterior and posterior drawer, and McMurray test are all negative bilaterally.</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>X-ray of the bilateral knees are reviewed and reveal no fractures or osteoarthritis.</t>
+  </si>
+  <si>
+    <t>ASSESSMENT AND PLAN</t>
+  </si>
+  <si>
+    <t>1. Patellofemoral pain syndrome, bilateral.</t>
+  </si>
+  <si>
+    <t>- Medical Reasoning: After reviewing her x-ray, previous MRI, and exam findings, her symptoms are consistent with patellofemoral pain syndrome.</t>
+  </si>
+  <si>
+    <t>- Patient Education and Counseling: We discussed the nature of this condition in detail. I encouraged the patient to be conservative with her physical activity for now.</t>
+  </si>
+  <si>
+    <t>- Medical Treatment: Continue with over-the-counter NSAIDs for pain relief We are going to refer her to physical therapy to help strengthen her lower extremities, increase mobility, and demonstrate proper running mechanics.</t>
+  </si>
+  <si>
+    <t>Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] صبح بخیر جُولی، آج صبح آپ کیسی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] پہلے سے بہتر تو نہیں ہوں۔ میرے پرائمری کیئر ڈاکٹر نے مجھے آپ کے پاس بھیجا ہے، اس گھٹنے کے درد کی وجہ سے جو مجھے تقریباً چھ ماہ سے ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، اور کیا آپ کو یاد ہے کہ یہ درد سب سے پہلے کیسے شروع ہوا تھا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] سچ کہوں تو نہیں، مجھے ایسا کچھ یاد نہیں آتا کہ میں گری ہوں یا کچھ ہوا ہو۔ میں نے کافی سوچا ہے لیکن کوئی خاص واقعہ ذہن میں نہیں آتا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، یہاں لکھا ہے کہ دونوں گھٹنوں میں درد ہے، کیا یہ صحیح ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی، دونوں گھٹنوں میں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، تو ذرا اس درد کو بیان کرنے کی کوشش کریں، کیسا محسوس ہوتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی، یہ کچھ اس طرح ہے جیسے گھٹنے کی ہڈی کے پیچھے درد ہو۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] اور یہ ایک گہرا، بوجھل سا درد ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ایک گہرا، بوجھل درد۔ اچھا، کونسی ایسی سرگرمیاں ہیں جن سے درد بڑھ جاتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] دیکھیں، جب بھی میں اپنی ڈیسک پر بیٹھ کر اُٹھتی ہوں تو کافی درد ہوتا ہے۔ تو جب بھی میں کافی دیر بیٹھنے کے بعد کھڑی ہوتی ہوں، یا سیڑھیاں چڑھتی یا اُترتی ہوں، تو زیادہ درد ہوتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، تو آپ گھر سے کام کرتی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، تو کافی وقت ڈیسک پر بیٹھنا پڑتا ہے گھر میں۔ آپ کا آفس اُوپر ہے یا نیچے؟ سیڑھیاں چڑھنی اُترنی پڑتی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، بس صبح سب سے پہلے، ورنہ آفس نیچے ہی ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، گھر سے کام کرنا کیسا لگتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] پتہ ہے، اس کے بھی کچھ فائدے ہیں اور کچھ نقصانات بھی۔</t>
+  </si>
+  <si>
+    <t>\[مریض] مجھے یہ پسند ہے، خاص طور پر میرا آنا جانا بہت آسان ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہاں۔</t>
+  </si>
+  <si>
+    <t>\[مریض] مجھے یہ پسند ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اور پارکنگ؟ میرا خیال ہے پارکنگ بھی اچھی ہوگی۔</t>
+  </si>
+  <si>
+    <t>\[مریض] ہاں، پارکنگ تو بہت اچھی ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہاں، پتہ ہے اگر میں سارا دن ٹیلی ہیلتھ ویزٹ کر سکوں تو مجھے بھی بڑا اچھا لگے۔ گھر بیٹھ کر سب کچھ ہو جائے۔ تو آپ نے بتایا تھا، کیا کوئی ایسی چیز ہے جس سے درد میں آرام ملتا ہو؟</t>
+  </si>
+  <si>
+    <t>\[مریض] عموماً اگر درد ہوتا ہے تو پھر کچھ دیر بعد خود ہی بہتر ہو جاتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، آپ نے پہلے کچھ چیزیں آزما کر دیکھی ہیں، وہ کیا تھیں اور کیا فائدہ ہوا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی، میں نے آئبُوپروفین، ایلیو یا کبھی کبھار ٹائلینول لی ہے، اس سے کچھ فرق پڑتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] درد کچھ کم ہو جاتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] لیکن مکمل آرام کبھی نہیں آیا، صحیح کہہ رہی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، جب تک میں بالکل آرام نہ کروں۔ لیکن حرکت کروں، خاص طور پر بیٹھ کر اُٹھوں، تو درد ہو ہی جاتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، تو آپ کتنی سرگرم ہیں آفس کی سیڑھیوں کے علاوہ؟</t>
+  </si>
+  <si>
+    <t>\[مریض] بہت زیادہ، میں روزانہ دوڑتی ہوں، پانچ یا چھ میل روزانہ۔ لیکن اس گھٹنے کے درد کے ساتھ بمشکل آدھا میل ہی دوڑ پاتی ہوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہاں، پتہ ہے یہ کیسا ہے۔ میں خود سائیکلنگ کرتا ہوں اور جب آپ کو اپنی پسندیدہ سرگرمی سے رکنا پڑے تو بہت مایوسی ہوتی ہے، بالکل ایسے لگتا ہے جیسے آپ کو اس کی عادت پڑ گئی ہو۔</t>
+  </si>
+  <si>
+    <t>\[مریض] بالکل!</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، کیا آپ نے گھٹنوں میں سوجن یا سرخی دیکھی ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، اور کیا آپ نے کبھی گھٹنوں کو چوٹ لگوائی ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جتنا میں سرگرم رہی ہوں، پھر بھی کبھی چوٹ نہیں لگی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا۔</t>
+  </si>
+  <si>
+    <t>\[مریض] کبھی ہڈی نہیں ٹوٹی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] بہت اچھا۔ تو آئیے معائنہ کرتے ہیں۔ میں نے آپ کے وائیٹل سائنز دیکھے ہیں، وہ سب ٹھیک ہیں۔ آپ کا بلڈ پریشر 120/70 ہے، دل کی دھڑکن 60 اور سانس لینے کی رفتار 14 ہے۔ یہ سب بہت اچھی علامات ہیں۔ جب میں نے آپ کا دل سنا تو وہ نارمل اور آہستہ دھڑک رہا ہے، کوئی اضافی آوازیں نہیں ہیں، کوئی مرمر نہیں ہے۔</t>
+  </si>
+  <si>
+    <t>اب میں مسکولوسکیلیٹل معائنہ کرتا ہوں۔ آپ کی چال نارمل ہے، میں نے آپ کو یہاں آتے دیکھا۔ آپ کی طاقت بھی چیک کرتا ہوں، جب میں آپ کی ٹانگ ہلوا رہا ہوں، پٹھوں کی طاقت بھی ٹھیک ہے۔ دونوں ٹانگوں کو پھیلانے میں آپ کی طاقت تین میں سے پانچ ہے، باقی نیچے کی طاقت پانچ میں سے پانچ ہے۔</t>
+  </si>
+  <si>
+    <t>اب خاص طور پر گھٹنے کا معائنہ کرتا ہوں۔ مجھے نہ تو سرخی نظر آتی ہے، نہ خراش، نہ جلد کی گرمی، اور یہ سب اہم چیزیں ہیں، نہ سوجن ہے، نہ نیچے سیال جمع ہے، جب میں ہاتھ سے دباتا ہوں تو تھوڑا درد محسوس ہوتا ہے۔ آپ کا پٹیلا گرائنڈ ٹیسٹ مثبت آیا جب آپ کھڑی ہوئیں۔ آپ نے بتایا کہ اسکوئٹ کرنے میں گھٹنے میں درد ہوا۔ لیکن آپ کے لاکمن، اینٹیریئر اور پوسٹیریئر ڈرار اور مکمرے ٹیسٹ دونوں طرف منفی آئے ہیں۔ نیورولوجکلی، نیچے کی ریفلکسز یعنی پٹیلا اور ایکھیلیز برابر ہیں اور یہ اچھی بات ہے۔</t>
+  </si>
+  <si>
+    <t>میں نے دونوں گھٹنوں کی ایکس رے بھی دیکھی ہے، جس میں کوئی فریکچر یا آسٹیوآرتھرائٹس نہیں ہے۔ آپ کے بتائے ہوئے اور ایم آر آئی کی روشنی میں، آپ کی علامات پیٹیلا فیمورل پین سنڈروم سے مطابقت رکھتی ہیں۔ یہ ایک عام بیماری ہے جو گھٹنوں کے درد کا باعث بنتی ہے، خاص طور پر جوان اور سرگرم لوگوں میں۔</t>
+  </si>
+  <si>
+    <t>یہ بیماری گھٹنے کی ہڈی کے حرکت کرنے کے طریقے کی وجہ سے ہوتی ہے۔</t>
+  </si>
+  <si>
+    <t>اب درد کے لئے میں چاہوں گا کہ آپ آئبُوپروفین یا کوئی اور اینٹی انفلامیٹری جیسے ایلیو وغیرہ حسبِ ضرورت لیتی رہیں۔</t>
+  </si>
+  <si>
+    <t>میں آپ کو فزیکل تھراپی کا بھی مشورہ دوں گا، جہاں آپ کو نیچے کی طرف کی مشقیں سکھائی جائیں گی۔ یہ سب سے مؤثر چیزوں میں سے ایک ہے، اس سے آپ کی ٹانگوں کی طاقت اور حرکت بہتر ہوگی اور اگر دوڑنے کا انداز غلط ہے تو وہ بھی درست ہو جائے گا۔</t>
+  </si>
+  <si>
+    <t>کیا آپ کو مجھ سے کوئی اور سوال کرنا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] کیا میں دوبارہ دوڑ پاؤں گی؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] بالکل! میرا مقصد یہی ہے کہ آپ دوبارہ بھاگنا شروع کریں اور شاید کبھی سائیکلنگ ٹریک پر آپ سے ملاقات ہو جائے۔ ابھی کچھ دن آرام کرنا پڑے گا لیکن ہم آپ کو واپس دوڑانے کے قابل بنا دیں گے۔ مجھے یقین ہے آپ خوش ہوں گی۔ کوئی اور سوال؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، بس یہی سب تھا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، آپ کا دن اچھا گزرے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] آپ کا بھی شکریہ۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] شکریہ۔</t>
+  </si>
+  <si>
+    <t>\[مریض] خدا حافظ۔</t>
+  </si>
+  <si>
+    <t>چیف کمپلینٹ</t>
+  </si>
+  <si>
+    <t>دونوں گھٹنوں میں درد۔</t>
+  </si>
+  <si>
+    <t>سوشل ہسٹری</t>
+  </si>
+  <si>
+    <t>مریضہ ایک پرجوش رنر ہے۔ وہ گھر سے کام بھی کرتی ہیں۔</t>
+  </si>
+  <si>
+    <t>ریویو آف سسٹمز</t>
+  </si>
+  <si>
+    <t>مسکولوسکیلیٹل: دونوں گھٹنوں میں درد کی شکایت۔ گھٹنوں میں سوجن کی تردید کرتی ہیں۔</t>
+  </si>
+  <si>
+    <t>جلد: سرخی کی تردید کرتی ہیں۔</t>
+  </si>
+  <si>
+    <t>وائٹلز</t>
+  </si>
+  <si>
+    <t>بلڈ پریشر: 120/70 mmHg</t>
+  </si>
+  <si>
+    <t>ہارٹ ریٹ: 60 bpm</t>
+  </si>
+  <si>
+    <t>سانسیں: 14</t>
+  </si>
+  <si>
+    <t>فزیکل ایگزام</t>
+  </si>
+  <si>
+    <t>نیورولوجیکل</t>
+  </si>
+  <si>
+    <t>* اورینٹیشن: چال نارمل۔ پٹیلا اور ایکھیلیز ریفلکسز برابر ہیں۔</t>
+  </si>
+  <si>
+    <t>کارڈیووسکولر</t>
+  </si>
+  <si>
+    <t>* دل کی سننا: ریگولر، سست رفتار۔ کوئی مرمر نہیں۔</t>
+  </si>
+  <si>
+    <t>گیسٹرونٹیسٹینل</t>
+  </si>
+  <si>
+    <t>* پیٹ کا معائنہ: کوئی گلٹی یا حساسیت نہیں۔</t>
+  </si>
+  <si>
+    <t>* سننا: پیٹ کے تمام چاروں حصوں میں آنتوں کی آوازیں نارمل ہیں۔</t>
+  </si>
+  <si>
+    <t>مسکولوسکیلیٹل</t>
+  </si>
+  <si>
+    <t>* معائنہ: کوئی کلبنگ، سائیانوسس یا ایڈیما نہیں۔ چال نارمل۔ دونوں ٹانگوں کو پھیلانے کی طاقت 3/5۔ باقی دونوں ٹانگوں کی طاقت 5/5 ہے۔</t>
+  </si>
+  <si>
+    <t>* دونوں گھٹنے: کوئی ایری تھیما، ایکیموسس یا جلد کی گرمی نہیں۔ کوئی ایفیوژن نہیں۔ دبانے پر درد ہے۔ پٹیلا گرائنڈ ٹیسٹ مثبت ہے۔ لاکمن، اینٹیریئر و پوسٹیریئر ڈرار، اور مکمرے ٹیسٹ دونوں طرف منفی ہیں۔</t>
+  </si>
+  <si>
+    <t>ریزلٹس</t>
+  </si>
+  <si>
+    <t>دونوں گھٹنوں کے ایکس رے کا جائزہ لیا گیا، جس میں کوئی فریکچر یا اوسٹیوآرتھرائٹس نظر نہیں آیا۔</t>
+  </si>
+  <si>
+    <t>اسیسمنٹ اور پلان</t>
+  </si>
+  <si>
+    <t>1. پیٹیلا فیمورل پین سنڈروم، دونوں طرف۔</t>
+  </si>
+  <si>
+    <t>* میڈیکل ریزننگ: ایکس رے، پچھلا MRI اور معائنے کی روشنی میں، ان کی علامات پیٹیلا فیمورل پین سنڈروم سے مطابقت رکھتی ہیں۔</t>
+  </si>
+  <si>
+    <t>* پیشنٹ ایجوکیشن اور کونسلنگ: ہم نے اس بیماری کی نوعیت پر تفصیل سے بات کی۔ مریضہ کو فی الحال جسمانی سرگرمی میں احتیاط برتنے کی ہدایت دی۔</t>
+  </si>
+  <si>
+    <t>* میڈیکل ٹریٹمنٹ: درد میں آرام کے لیے اوور دی کاؤنٹر NSAIDs جاری رکھیں۔ ہم انہیں فزیکل تھراپی کے لیے ریفر کریں گے تاکہ ٹانگوں کی طاقت میں اضافہ ہو، حرکت بہتر ہو، اور دوڑنے کا درست طریقہ سکھایا جا سکے۔</t>
+  </si>
+  <si>
+    <t>مریضہ کی رضامندی: مریضہ تجویز کردہ میڈیکل ٹریٹمنٹ پلان کو سمجھتی اور اس سے متفق ہیں۔</t>
+  </si>
+  <si>
+    <t>[doctor] hey jean how're you doing today</t>
+  </si>
+  <si>
+    <t>[patient] i'm doing alright aside from this foot pain that i have</t>
+  </si>
+  <si>
+    <t>[doctor] so i see here that you looks like you hurt your left foot here where you were playing soccer can you tell me a little bit more about what happened</t>
+  </si>
+  <si>
+    <t>[patient] yeah so yeah i was playing in a soccer game yesterday and i was trying to steal the ball from another player and she ended up falling directly onto my right foot and i do n't know i i mean i was trying to get around her and my body ended up twisting around her and then i accidentally felt a pain in my foot</t>
+  </si>
+  <si>
+    <t>[doctor] okay so have you ever hurt your left foot before</t>
+  </si>
+  <si>
+    <t>[patient] no i've had a lot of injuries in soccer but never injured this foot</t>
+  </si>
+  <si>
+    <t>[doctor] okay and then so after the fall and the entanglement with the other player were you able to continue playing</t>
+  </si>
+  <si>
+    <t>[patient] no i had to stop playing right away and actually being helped off the field</t>
+  </si>
+  <si>
+    <t>[doctor] wow okay and what have you been doing for the the pain since then</t>
+  </si>
+  <si>
+    <t>[patient] so i've been keeping it elevated icing it the trainer wrapped it yesterday and taking ibuprofen as well</t>
+  </si>
+  <si>
+    <t>[doctor] okay alright so without any ibuprofen can you tell me what your pain level is</t>
+  </si>
+  <si>
+    <t>[patient] with ibuprofen i would say my pain is a three</t>
+  </si>
+  <si>
+    <t>[doctor] okay and then without your ibuprofen can you tell me what your pain level is</t>
+  </si>
+  <si>
+    <t>[patient] like a seven eight</t>
+  </si>
+  <si>
+    <t>[doctor] okay so how long have you been playing soccer</t>
+  </si>
+  <si>
+    <t>[patient] really since i was like four five i've been playing a long time</t>
+  </si>
+  <si>
+    <t>[doctor] well that's cool yeah we our our youngest daughter she is almost sixteen and she plays the inner marrial soccer league they are down at the rex center did is that where you started playing or did you guys did you start playing somewhere else</t>
+  </si>
+  <si>
+    <t>[patient] yeah just like this local town leak i started playing that way and then played all throughout school</t>
+  </si>
+  <si>
+    <t>[doctor] that's</t>
+  </si>
+  <si>
+    <t>[patient] high school teams</t>
+  </si>
+  <si>
+    <t>[doctor] that's awesome so just out of curiosity with the left foot have you experienced anything like numbness or tingling or or any strange sensation</t>
+  </si>
+  <si>
+    <t>[patient] no i have not</t>
+  </si>
+  <si>
+    <t>[doctor] okay now if it's okay with you i would like to do a quick physical exam i reviewed your vitals and everything looks good blood pressure was one eighteen over seventy two heart rate was fifty eight respiratory rate was fourteen you are afebrile and you had an o2 saturation of ninety nine percent on room air on your heart exam your regular of rate and rhythm do n't appreciate any clicks rubs or murmurs no ectopic beats noted there on auscultation listening to your lungs lungs are clear and equal bilaterally so you're moving good air i'd like to do a focused foot exam on your left foot so i do see some bruising on the bottom of your foot and on the top of your foot as well now there is associated swelling and i do appreciate tenderness to palpation of your midfoot and you are positive for the piano key test on a neurovascular exam of your left foot you have a brisk capillary refill of less than three seconds dorsalis pedis pulse is intact and strong and you do have motor and sensation that it's intact to light touch now i would like to do a review of the diagnostic imaging that you had before you came in so i do notice a subtle dorsal displacement of the base of the second metatarsal with a three millimeter separation of the first and second metatarsal bases and the presence of a bony fragment in the lisfranc joint space so lem me talk to you a little bit about my assessment and plan now for for the first concern of right foot pain your right foot pain is due to a lisfranc fracture which is a fracture to one of your second metatarsal bones at the top of your foot where the metatarsals meet your cuboids now there are ligaments at the top of your foot so i'm gon na be ordering an mri to assess for injury to any of these ligaments now based on your exam and from what i'm seeing on your x-ray you're most likely going to need surgery of that foot now the surgery will place the bones back in their proper position and using plates and screws will hold them there while they heal and this is gon na allow those bones and ligaments to heal properly it is a day surgery and you will be able to go home the same day and then i'm going to have you follow up with me here in the clinic you'll be in a cast and you will need to use crutches and you will not be able to use that left foot for about six to eight weeks now after that six to eight weeks you will gradually start walking on your foot based on how you tolerate it and we'll see how you do at that point so i do believe you're gon na need surgery i i'm recommending this because there are significant complications to your foot if we do not do this poor bone and ligament healing can lead to losing the arch of your foot and you're becoming flat-footed you also have a high likelihood of developing arthritis in that foot so what i'm gon na do unfortunately you'll be out the rest of the season but we are gon na get you fixed up and ready for next season if you're okay with all of this i'm gon na have the nurse come in and get you started on your paperwork and then i will see you on monday morning and we will get your foot taken care of</t>
+  </si>
+  <si>
+    <t>[patient] alright thank you</t>
+  </si>
+  <si>
+    <t>[doctor] you're welcome</t>
+  </si>
+  <si>
+    <t>Left foot pain.</t>
+  </si>
+  <si>
+    <t>HISTORY OF PRESENT ILLNESS</t>
+  </si>
+  <si>
+    <t>Jean Martinez is a pleasant 27-year-old female who presents to the clinic today for the evaluation of left foot pain.</t>
+  </si>
+  <si>
+    <t>The patient sustained an injury to her left foot while playing soccer yesterday. She became entangled with another player, causing the player to fall onto the patient's foot, resulting in immediate pain. After the incident, she required help to get off of the field and was unable to participate for the rest of the game. Her trainer wrapped her foot, and she has tried ice, elevation, and ibuprofen to treat her symptoms. with medication, she rates her pain as 3/10, but without medication her pain is rated as 7-8/10. There is no numbness, tingling, or other abnormal sensations associated with her pain.</t>
+  </si>
+  <si>
+    <t>Of note, the patient has sustained several injuries in the past while playing soccer, but this is her first left foot injury.</t>
+  </si>
+  <si>
+    <t>MEDICAL HISTORY</t>
+  </si>
+  <si>
+    <t>The patient reports that she has sustained several soccer injuries in the past.</t>
+  </si>
+  <si>
+    <t>The patient has been playing soccer since she was 4 or 5 years old. She is currently playing in a local league.</t>
+  </si>
+  <si>
+    <t>MEDICATIONS</t>
+  </si>
+  <si>
+    <t>The patient reports that she has been taking ibuprofen.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal: Reports left foot pain.</t>
+  </si>
+  <si>
+    <t>Neurological: Denies left foot numbness or tingling.</t>
+  </si>
+  <si>
+    <t>Blood pressure: 118/72 mmHg</t>
+  </si>
+  <si>
+    <t>Heart rate: 58 bpm</t>
+  </si>
+  <si>
+    <t>Respiratory rate: 14</t>
+  </si>
+  <si>
+    <t>Temperature: Afebrile</t>
+  </si>
+  <si>
+    <t>Oxygen saturation: 99% on room air</t>
+  </si>
+  <si>
+    <t>CV: Regular rate and rhythm without clicks, rubs, or murmurs. No ectopic beats noted on auscultation of the heart. Brisk capillary refill, less than 3 seconds. Dorsalis pedis pulse is intact and strong.</t>
+  </si>
+  <si>
+    <t>RESPIRATORY: Lungs are clear and equal bilaterally.</t>
+  </si>
+  <si>
+    <t>NEURO: Motor and sensation in the left foot are intact to light touch.</t>
+  </si>
+  <si>
+    <t>MSK: Examination of the left foot: Ecchymosis on the plantar and dorsal aspects of the foot. Associated swelling. Tenderness to palpation of the midfoot. Positive piano key test.</t>
+  </si>
+  <si>
+    <t>X-ray images of the left foot were obtained and reviewed today. These reveal subtle dorsal displacement of the base of the 2nd metatarsal with a 3 mm separation of the 1st and 2nd metatarsal bases. There is presence of a bony fragment in the Lisfranc joint space.</t>
+  </si>
+  <si>
+    <t>ASSESSMENT</t>
+  </si>
+  <si>
+    <t>Lisfranc fracture, left foot.</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>I explained the nature of her injury in detail. Based on her exam and x-ray findings, she will most likely require surgery of the left foot, but I want to order an MRI to assess for any ligamentous injuries. We discussed the procedure and postoperative expectations, such as recovery time and restrictions, at length. We also discussed the complications associated with deferring surgical intervention including poor bone and ligament healing, pes planus deformation, and a high likelihood of developing arthritis in the foot. She will be unable to participate for the remainder of the soccer season, but should be able to play next season.</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>We will see the patient on Monday, for surgery.</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہی جین، آج آپ کیسی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] میں ٹھیک ہوں، بس اس پاؤں کے درد کے علاوہ جو مجھے ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] تو یہاں لکھا ہے کہ آپ نے اپنا بایاں پاؤں چوٹ لگایا ہے جب آپ فٹ بال کھیل رہی تھیں، مجھے ذرا بتائیں کہ کیا ہوا تھا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی، میں کل فٹ بال کے میچ میں کھیل رہی تھی اور میں بال لینے کی کوشش کر رہی تھی، تو دوسری کھلاڑی میرے دائیں پاؤں پر سیدھی گر گئی۔ میں اُس کے گرد سے نکلنے کی کوشش کر رہی تھی اور میرا جسم بھی اُس کے گرد مڑ گیا، پھر اچانک میرے پاؤں میں درد محسوس ہوا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، کیا آپ نے اس سے پہلے کبھی اپنا بایاں پاؤں چوٹ لگایا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، فٹ بال میں مجھے کئی چوٹیں لگی ہیں، لیکن اس پاؤں کو کبھی چوٹ نہیں لگی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، اور جب وہ کھلاڑی گری اور آپ کا پاؤں پھنس گیا، تو کیا آپ کھیل جاری رکھ پائیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، مجھے فوراً کھیل چھوڑنا پڑا اور حقیقت میں مجھے گراؤنڈ سے سہارا دے کر باہر لایا گیا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اوہ اچھا، تو درد کے لیے آپ نے کیا کیا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] میں نے پاؤں کو اُونچا رکھا ہے، برف لگائی ہے، ٹرینر نے کل پٹی باندھی تھی اور آئبُوپروفین بھی لے رہی ہوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، تو بغیر آئبُوپروفین کے آپ کا درد کتنا ہوتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] آئبُوپروفین کے ساتھ میرا درد تین ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اور بغیر آئبُوپروفین کے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] تقریباً سات یا آٹھ۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] تو آپ کب سے فٹ بال کھیل رہی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جب میں چار یا پانچ سال کی تھی تب سے، کافی عرصے سے کھیل رہی ہوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] یہ تو بہت اچھی بات ہے۔ ہماری سب سے چھوٹی بیٹی بھی تقریباً سولہ سال کی ہے اور وہ بھی انٹر موریل فٹ بال لیگ میں کھیلتی ہے۔ وہ ریکس سینٹر میں کھیلتی ہیں۔ کیا آپ نے بھی وہیں سے کھیلنا شروع کیا یا کسی اور جگہ سے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، میں نے تو مقامی لیگ سے کھیلنا شروع کیا، پھر اسکول میں بھی ٹیم میں کھیلتی رہی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر]</t>
+  </si>
+  <si>
+    <t>\[مریض] ہائی اسکول ٹیمیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] زبردست۔ بس ویسے ہی پوچھ رہا ہوں، بائیں پاؤں میں کبھی سن ہونا یا سوئیاں چبھنا یا کوئی عجیب سی فیلنگ محسوس ہوئی ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، کبھی نہیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، اگر آپ کو اعتراض نہ ہو تو میں ایک جلدی سا معائنہ کرنا چاہتا ہوں۔ میں نے آپ کے وائیٹلز دیکھے ہیں، سب ٹھیک ہیں۔ بلڈ پریشر 118/72، دل کی رفتار 58، سانس لینے کی رفتار 14، بخار نہیں ہے اور آکسیجن سیچوریشن 99 فیصد ہے۔ دل کی دھڑکن نارمل ہے، کوئی کلکس، رَب یا مرمر نہیں، کوئی ایٹوپک بیٹس نہیں۔ پھیپھڑوں کی سننے پر دونوں طرف سے سانس بالکل نارمل آرہی ہے۔</t>
+  </si>
+  <si>
+    <t>اب میں آپ کے بائیں پاؤں کا معائنہ کرنا چاہوں گا۔ مجھے پاؤں کے نیچے اور اوپر دونوں طرف کچھ نیلاہٹ (bruising) نظر آ رہی ہے۔ اس کے ساتھ سوجن بھی ہے اور جب میں پاؤں کے درمیانی حصے کو دباتا ہوں تو درد ہوتا ہے۔ پِیانو کی ٹیسٹ بھی مثبت ہے۔</t>
+  </si>
+  <si>
+    <t>نیوروویسکولر معائنہ میں آپ کے بائیں پاؤں کا کیپلری ریفل تین سیکنڈ سے کم میں بحال ہو جاتا ہے، dorsalis pedis پلس مضبوط ہے، حرکت اور حس بھی نارمل ہے۔</t>
+  </si>
+  <si>
+    <t>اب میں آپ کی تشخیصی امیجنگ بھی دیکھنا چاہوں گا جو آپ نے آنے سے پہلے کروائی۔ اس میں مجھے نظر آتا ہے کہ سیکنڈ میٹاٹارسل کی بنیاد پر ہلکی سی dorsal displacement ہے اور فرسٹ اور سیکنڈ میٹاٹارسل کی بنیادوں کے درمیان تین ملی میٹر کا فاصلہ ہے، ساتھ ہی Lisfranc joint space میں ایک بونی فریگمنٹ موجود ہے۔</t>
+  </si>
+  <si>
+    <t>اب میں آپ کو اپنی assessment اور پلان کے بارے میں بتانا چاہتا ہوں۔</t>
+  </si>
+  <si>
+    <t>آپ کے دائیں پاؤں کا درد Lisfranc fracture کی وجہ سے ہے، جو آپ کے پاؤں کی اوپر والی ہڈی (سیکنڈ میٹاٹارسل) کی فریکچر ہے، جہاں میٹاٹارسل کی ہڈیاں کیوبوئڈز سے ملتی ہیں۔ پاؤں کے اوپر ligaments بھی ہوتے ہیں، اس لیے میں MRI کا آرڈر دوں گا تاکہ ligament injury کو چیک کیا جا سکے۔</t>
+  </si>
+  <si>
+    <t>معائنے اور ایکس رے کے مطابق غالباً آپ کو پاؤں کی سرجری کی ضرورت ہوگی۔ اس سرجری میں ہڈیوں کو صحیح جگہ پر لا کر پلیٹس اور اسکروز کے ذریعے رکھا جائے گا تاکہ صحیح طرح سے ٹھیک ہو سکیں۔ یہ day surgery ہوگی اور آپ اسی دن گھر جا سکیں گی۔ پھر آپ میرے پاس کلینک میں follow up کے لیے آئیں گی۔</t>
+  </si>
+  <si>
+    <t>آپ کو cast لگے گی اور آپ کو چھ سے آٹھ ہفتے تک کرچز استعمال کرنی ہوں گی اور اس دوران بایاں پاؤں استعمال نہیں کر سکیں گی۔ اس کے بعد آہستہ آہستہ پاؤں پر چلنا شروع کریں گی، جیسا کہ آپ کو برداشت ہو۔</t>
+  </si>
+  <si>
+    <t>میرا خیال ہے کہ آپ کو سرجری کی ضرورت ہے۔ میں یہ اس لیے کہہ رہا ہوں کہ اگر ہم نے یہ نہ کیا تو ہڈی اور ligament صحیح نہیں جڑیں گے، پاؤں کی محراب ختم ہو سکتی ہے، پاؤں چپٹا ہو سکتا ہے، اور آپ کو اُس پاؤں میں arthritis ہونے کے امکانات بڑھ جاتے ہیں۔</t>
+  </si>
+  <si>
+    <t>بدقسمتی سے آپ باقی سیزن نہیں کھیل سکیں گی، مگر ہم آپ کو اگلے سیزن کے لیے بالکل تیار کر دیں گے۔</t>
+  </si>
+  <si>
+    <t>اگر آپ اس سب سے متفق ہیں تو میں نرس کو بلاؤں گا کہ وہ آپ کا پیپر ورک شروع کرے اور پھر میں پیر کی صبح آپ سے کلینک میں ملوں گا اور آپ کے پاؤں کا علاج کریں گے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] ٹھیک ہے، شکریہ</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] خوش رہیں</t>
+  </si>
+  <si>
+    <t>بائیں پاؤں میں درد۔</t>
+  </si>
+  <si>
+    <t>ہسٹری آف پریزنٹ اِلنیس</t>
+  </si>
+  <si>
+    <t>جین مارٹینیز ایک خوش اخلاق 27 سالہ خاتون ہیں جو آج کلینک میں بائیں پاؤں کے درد کی تشخیص کے لیے آئی ہیں۔</t>
+  </si>
+  <si>
+    <t>مریضہ کو کل فٹ بال کھیلتے ہوئے بائیں پاؤں پر چوٹ آئی۔ وہ دوسری کھلاڑی کے ساتھ الجھ گئیں، جس کے باعث وہ کھلاڑی مریضہ کے پاؤں پر گر گئی، اور فوراً درد شروع ہو گیا۔ اس واقعے کے بعد انہیں میدان سے باہر جانے کے لیے مدد کی ضرورت پڑی اور وہ باقی میچ نہیں کھیل سکیں۔ ان کے ٹرینر نے پاؤں پر پٹی باندھی، اور مریضہ نے برف، پاؤں کو اونچا رکھنا اور آئبُوپروفین استعمال کی ہے۔ دوا کے ساتھ درد 3/10 ہے، جبکہ بغیر دوا کے درد 7-8/10 ہے۔ درد کے ساتھ نہ تو سن ہونا ہے، نہ سوئیاں چبھنا، نہ کوئی اور غیر معمولی احساس۔</t>
+  </si>
+  <si>
+    <t>یہ قابل ذکر ہے کہ مریضہ کو ماضی میں فٹ بال کھیلتے ہوئے کئی چوٹیں آ چکی ہیں، مگر یہ پہلی بار ہے کہ بایاں پاؤں زخمی ہوا ہے۔</t>
+  </si>
+  <si>
+    <t>میڈیکل ہسٹری</t>
+  </si>
+  <si>
+    <t>مریضہ بتاتی ہیں کہ انہیں ماضی میں بھی فٹ بال کھیلتے ہوئے کئی چوٹیں آ چکی ہیں۔</t>
+  </si>
+  <si>
+    <t>مریضہ نے چار یا پانچ سال کی عمر سے فٹ بال کھیلنا شروع کیا۔ وہ اس وقت مقامی لیگ میں کھیل رہی ہیں۔</t>
+  </si>
+  <si>
+    <t>ادویات</t>
+  </si>
+  <si>
+    <t>مریضہ نے بتایا ہے کہ وہ آئبُوپروفین استعمال کر رہی ہیں۔</t>
+  </si>
+  <si>
+    <t>مسکولوسکیلیٹل: بائیں پاؤں میں درد کی شکایت۔</t>
+  </si>
+  <si>
+    <t>نیورولوجیکل: بائیں پاؤں میں نہ سن ہونے کی شکایت اور نہ سوئیاں چبھنے کی۔</t>
+  </si>
+  <si>
+    <t>بلڈ پریشر: 118/72 mmHg</t>
+  </si>
+  <si>
+    <t>ہارٹ ریٹ: 58 bpm</t>
+  </si>
+  <si>
+    <t>سانس کی رفتار: 14</t>
+  </si>
+  <si>
+    <t>درجہ حرارت: بخار نہیں</t>
+  </si>
+  <si>
+    <t>آکسیجن سیچوریشن: 99% (کمرے کی فضا میں)</t>
+  </si>
+  <si>
+    <t>CV: دل کی رفتار اور ردھم باقاعدہ، کوئی کلکس، رب یا مرمر نہیں۔ دل کی سننے پر کوئی ایٹوپک بیٹس نہیں۔ کیپلری ریفل تیز (تین سیکنڈ سے کم)، dorsalis pedis پلس مضبوط اور برقرار۔</t>
+  </si>
+  <si>
+    <t>ریسپریٹری: پھیپھڑے دونوں طرف سے صاف اور برابر۔</t>
+  </si>
+  <si>
+    <t>نیورو: بائیں پاؤں میں موٹر اور سنسیشن ہلکے ٹچ پر درست ہیں۔</t>
+  </si>
+  <si>
+    <t>MSK: بائیں پاؤں کا معائنہ: پاؤں کے نیچے (plantar) اور اوپر (dorsal) حصے پر ecchymosis، متعلقہ سوجن، پاؤں کے درمیانی حصے کو دبانے پر درد، piano key test مثبت۔</t>
+  </si>
+  <si>
+    <t>آج بائیں پاؤں کے ایکس رے لیے اور دیکھے گئے۔ ان میں سیکنڈ میٹاٹارسل کی بنیاد میں ہلکی سی dorsal displacement نظر آئی، اور پہلی اور دوسری میٹاٹارسل کی بنیادوں میں تین ملی میٹر کا فاصلہ ہے۔ Lisfranc joint space میں بونی فریگمنٹ موجود ہے۔</t>
+  </si>
+  <si>
+    <t>اسیسمنٹ</t>
+  </si>
+  <si>
+    <t>Lisfranc fracture، بایاں پاؤں۔</t>
+  </si>
+  <si>
+    <t>پلان</t>
+  </si>
+  <si>
+    <t>میں نے مریضہ کو ان کی چوٹ کی نوعیت تفصیل سے سمجھائی۔ معائنے اور ایکس رے کے نتائج کی روشنی میں غالباً بائیں پاؤں کی سرجری درکار ہوگی، مگر میں ligamentous injuries دیکھنے کے لیے MRI آرڈر کرنا چاہتا ہوں۔ ہم نے اس پروسیجر اور آپریشن کے بعد کی توقعات جیسے ریکوری ٹائم اور پابندیوں پر بھی تفصیل سے بات کی۔ ہم نے یہ بھی گفتگو کی کہ اگر سرجری نہ کی گئی تو ہڈی اور ligament صحیح نہیں جڑیں گے، پاؤں چپٹا (pes planus) ہو سکتا ہے، اور arthritis ہونے کے امکانات زیادہ ہیں۔ مریضہ باقی فٹ بال سیزن نہیں کھیل سکیں گی، مگر اگلا سیزن کھیلنے کے قابل ہو جائیں گی۔</t>
+  </si>
+  <si>
+    <t>ہدایات</t>
+  </si>
+  <si>
+    <t>ہم پیر کے دن مریضہ کو سرجری کے لیے دیکھیں گے۔</t>
+  </si>
+  <si>
+    <t>[doctor] hi abigail how are you today</t>
+  </si>
+  <si>
+    <t>[patient] hello hi nice to meet you i'm i'm doing okay</t>
+  </si>
+  <si>
+    <t>[doctor] good i'm doctor sanchez and i'm gon na go ahead and take a look i saw with your notes that you've been having some knee pain yes that's that's true you know it's been going on for a while i like to run i do jogs i sign up for the 5k tack you know sometimes the marathon and i have n't been doing longer distances because</t>
+  </si>
+  <si>
+    <t>[patient] when i'm running i my right knee here it just starts to ache and it's it's just to the point where i need your opinion</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay what have you done for it so far what makes it better what makes it worse</t>
+  </si>
+  <si>
+    <t>[patient] well it used to be that when i run it ache and then i put ice on it and then it would be okay so i do ice and ibuprofen</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay and did you see anybody for this before coming into the office here</t>
+  </si>
+  <si>
+    <t>[patient] yeah i doctor wood is my primary care provider and i talked to him about it actually over the years and this last visit he said he referred me to you</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay good so ice and rest makes it feel better running and and activity makes it hurt a little bit more is that correct</t>
+  </si>
+  <si>
+    <t>[patient] yeah that's right</t>
+  </si>
+  <si>
+    <t>[doctor] okay do you have any family history of arthritis or any of those type of immune diseases</t>
+  </si>
+  <si>
+    <t>[patient] i'm trying to think no i do n't think so no</t>
+  </si>
+  <si>
+    <t>[doctor] okay and do you get is it is this primarily worse in the morning or does it is it just there all the time when it comes on</t>
+  </si>
+  <si>
+    <t>[patient] it actually is worse towards the end of the day</t>
+  </si>
+  <si>
+    <t>[patient] once i'm on my feet all day it starts to ache towards the afternoon</t>
+  </si>
+  <si>
+    <t>[doctor] okay so let's go ahead and i want to do a quick examination here your blood pressure and was one twenty over sixty that's phenomenal your heart rate was fifty eight and you can tell that you're a runner with that that level of a heart rate and your respirations were fourteen so all of that looked very good there was no fever when you came in when i'm gon na just quickly listen to your heart and lungs okay those those sound good but let me get let's focus here on your lower extremities i'm i'm gon na look at your your left knee first when i move your left knee do you get any type of pain or is it just feel like normal and it's always your pain's always isolated to the right</t>
+  </si>
+  <si>
+    <t>[patient] that feels that feels normal</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay so let me i just want you to back up here in the stretcher a little bit more and i'm just gon na do some movement of your knee any okay so i want you to push your leg out against my hand does that hurt</t>
+  </si>
+  <si>
+    <t>[doctor] okay and if you pull back does that hurt a little bit</t>
+  </si>
+  <si>
+    <t>[doctor] okay and i'm gon na move it around so when i look at the knee there is no redness there's no swelling i can appreciate a a small amount of effusion and that means that there's a little bit of fluid under the knee or in that knee's joint space and there is there is several reasons that could be now when i push on your knee does it hurt more on the inside or does it hurt more on the outside here</t>
+  </si>
+  <si>
+    <t>[patient] the the right knee here hurts on the outside</t>
+  </si>
+  <si>
+    <t>[doctor] okay okay and you've got a good pedal pulse so you know you can feel that and when i touch your feet you do n't have any numbness or tingling or anything like that</t>
+  </si>
+  <si>
+    <t>[patient] no uh uh</t>
+  </si>
+  <si>
+    <t>[doctor] okay well so what i want to tell you is that i think you have a knee sprain from overuse and we see that sometimes in runners now unfortunately you're gon na have to take some a little bit of time off of of active running but i do n't think it will be that long until we can get you up and running again now i reviewed the x-rays that we did when you first came into the office here this morning and the joint spaces of that right knee are are well maintained i do n't see any evidence of any fracture and when compared to the left knee everything looks good so i do n't even see any signs of any arthritis that i would've been suspecting i would like you to stay on two tylenol five hundred milligrams and two ibuprofen two hundred milligram tablets and i want you to take that three times a day and that's gon na help with both the pain and the inflammation i'm also gon na order some physical therapy for your your right knee and that physical therapy will help strengthen the lower extremities and make it give you a little bit of a balance and some they'll be able to recommend good running exercises for you i do wan na follow up with you in two weeks and see if we're getting better so let's no running for two weeks and if we're we're improving then we'll move on and probably start adding some additional activity does that sound like a plan</t>
+  </si>
+  <si>
+    <t>[patient] yeah that does i i was curious so i will lay off the running for now can i you know lift weights and do like my squats and and those type of exercises at the gym</t>
+  </si>
+  <si>
+    <t>[doctor] yeah absolutely and and those are good exercises but i'd like you to get that first physical therapy appointment in and they'll be able to talk with you on what the best exercises are for you to do</t>
+  </si>
+  <si>
+    <t>[patient] okay got it</t>
+  </si>
+  <si>
+    <t>[doctor] any questions</t>
+  </si>
+  <si>
+    <t>[patient] hmmm no i do n't think so</t>
+  </si>
+  <si>
+    <t>[doctor] okay thank you abigail and i'd like i said stop out at the desk and we'll make an appointment for two weeks</t>
+  </si>
+  <si>
+    <t>[patient] okay thanks doctor</t>
+  </si>
+  <si>
+    <t>Right knee pain.</t>
+  </si>
+  <si>
+    <t>Patient reports she is an avid runner who enjoys participating in marathons.</t>
+  </si>
+  <si>
+    <t>FAMILY HISTORY</t>
+  </si>
+  <si>
+    <t>Patient denies any known family history of arthritis or other immune disease.</t>
+  </si>
+  <si>
+    <t>Constitutional: Denies fever.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal: Reports right knee pain.</t>
+  </si>
+  <si>
+    <t>Blood pressure: 120/60 mmHg</t>
+  </si>
+  <si>
+    <t>Respiration: 14</t>
+  </si>
+  <si>
+    <t>No fever.</t>
+  </si>
+  <si>
+    <t>Respiratory</t>
+  </si>
+  <si>
+    <t>- Assessment of Respiratory Effort: Normal respiratory effort.</t>
+  </si>
+  <si>
+    <t>- Examination: Normal pedal pulses in right knee.</t>
+  </si>
+  <si>
+    <t>- Auscultation of Heart: Regular rate and rhythm. No murmurs, gallops or rubs.</t>
+  </si>
+  <si>
+    <t>- Examination: No clubbing, cyanosis, or edema.</t>
+  </si>
+  <si>
+    <t>- Right knee: No pain with movement. No pain with strength testing. No erythema or edema. Small effusion. Tender to palpation over the lateral aspect of the knee.</t>
+  </si>
+  <si>
+    <t>X-rays of the right knee were obtained and reviewed in office today. These reveal well-maintained joint spaces. There is no evidence of any fracture or arthritis.</t>
+  </si>
+  <si>
+    <t>1. Right knee sprain.</t>
+  </si>
+  <si>
+    <t>- Medical Reasoning: The patient is an avid runner and her symptoms appear to be the result of overuse.</t>
+  </si>
+  <si>
+    <t>- Patient Education and Counseling: We discussed the nature of her diagnosis, as well as her x-ray results, in detail. I advised her that this is a common issue for runners and encouraged her to continue her strength training exercises.</t>
+  </si>
+  <si>
+    <t>- Medical Treatment: She will take Tylenol 500 mg, 2 tablets, and ibuprofen 200 mg, 2 tablets, 3 times daily to reduce her pain and inflammation. We will also refer her to physical therapy to help strengthen her lower extremities, work on her balance, and demonstrate proper running exercises. She should avoid running for the next 2 weeks until her follow up visit, at which point we can consider adding some additional activity.</t>
+  </si>
+  <si>
+    <t>The patient will follow up in 2 weeks.</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہائے ایبیگیل، آج آپ کیسی ہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] ہیلو، ہائے، آپ سے مل کر خوشی ہوئی۔ میں، میں ٹھیک ہوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا ہے۔ میں ڈاکٹر سانچیز ہوں اور میں آپ کا معائنہ کروں گا۔ میں نے آپ کی فائل میں دیکھا کہ آپ کو گھٹنے میں کچھ درد ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی ہاں، یہ سچ ہے۔ یہ کچھ عرصے سے ہو رہا ہے۔ مجھے دوڑنا پسند ہے، میں جاگنگ کرتی ہوں، کبھی کبھار 5k یا میراتھن میں حصہ لیتی ہوں، اور میں نے لمبی دوریاں دوڑنا کم کر دیا ہے کیونکہ...</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] جب آپ دوڑتی ہیں تو آپ کے دائیں گھٹنے میں درد شروع ہو جاتا ہے اور یہ اس حد تک پہنچ جاتا ہے کہ آپ کو میری رائے چاہیے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی ہاں، بالکل یہی ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے۔ اب تک آپ نے اس کے لیے کیا کیا ہے؟ کون سی چیز بہتر کرتی ہے اور کون سی چیز درد بڑھا دیتی ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] پہلے تو ایسا ہوتا تھا کہ جب میں دوڑتی تو گھٹنا درد کرتا تھا، پھر میں برف لگاتی تھی تو ٹھیک ہو جاتا تھا۔ تو میں برف اور آئیبوپروفین لیتی ہوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا۔ کیا آپ نے اس سے پہلے اس کے لیے کسی کو دکھایا تھا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی ہاں، ڈاکٹر ووڈ میرے پرائمری کیئر پرووائیڈر ہیں اور میں نے ان سے اس کے بارے میں کئی بار بات کی ہے۔ پچھلی بار انہوں نے مجھے آپ کے پاس ریفر کیا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا تو برف اور آرام سے فرق پڑتا ہے اور دوڑنے یا جسمانی سرگرمی سے درد بڑھتا ہے، کیا یہ درست ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی ہاں، بالکل۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] کیا آپ کے خاندان میں کسی کو گٹھیا یا اس قسم کی کوئی بیماری ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] میں سوچ رہی ہوں، نہیں، میرا نہیں خیال۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] کیا یہ درد خاص طور پر صبح میں زیادہ ہوتا ہے یا جب شروع ہوتا ہے تو ہر وقت رہتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] یہ زیادہ تر دن کے آخر میں بڑھ جاتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] جب سارا دن کھڑی رہتی ہوں تو دوپہر کے بعد یہ درد شروع ہو جاتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، تو آئیے ایک مختصر معائنہ کرتے ہیں۔ آپ کا بلڈ پریشر 120/60 ہے جو بہت اچھا ہے۔ آپ کی دل کی دھڑکن 58 ہے اور اس سے ظاہر ہے کہ آپ رنر ہیں۔ آپ کی سانسیں 14 تھیں، یہ سب بالکل ٹھیک ہے۔ جب آپ آئیں تو بخار نہیں تھا۔ اب میں جلدی سے آپ کے دل اور پھیپھڑوں کو سنوں گا، یہ بھی بالکل ٹھیک ہیں۔ اب ہم آپ کی ٹانگوں پر فوکس کرتے ہیں۔ میں پہلے آپ کے بائیں گھٹنے کو دیکھتا ہوں، جب میں اسے ہلاتا ہوں تو کیا درد ہوتا ہے یا سب نارمل لگتا ہے؟ اور کیا ہمیشہ صرف دائیں گھٹنے میں ہی درد ہوتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] بایاں گھٹنا تو بالکل نارمل لگ رہا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے۔ تو آپ ذرا اسٹریچر پر پیچھے ہو جائیں، میں اب آپ کے گھٹنے کو حرکت دیتا ہوں، ٹھیک ہے۔ اب اپنی ٹانگ کو میرے ہاتھ کے خلاف باہر کی طرف دبائیں، کیا درد ہوتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اگر آپ اپنی ٹانگ کو پیچھے کھینچیں تو کیا درد ہوتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اب میں گھٹنے کو ہلاتا ہوں، یہاں کوئی سوجن یا لالی نہیں ہے۔ ہاں، تھوڑا سا ایفیوژن یعنی ہلکا سا پانی محسوس ہو رہا ہے، یہ عام بات ہے۔ اب جب میں دباتا ہوں تو اندرونی طرف زیادہ درد ہوتا ہے یا بیرونی طرف؟</t>
+  </si>
+  <si>
+    <t>\[مریض] دائیں گھٹنے کی بیرونی طرف درد ہوتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے۔ اور آپ کی نبض بھی صحیح ہے۔ جب میں آپ کے پاؤں کو چھوتا ہوں تو کوئی سن ہونا یا جھنجھناہٹ تو نہیں ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، بالکل نہیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، تو میرا خیال ہے کہ آپ کو رننگ کی وجہ سے گھٹنے میں اسٹریچ یا اسپرین ہوا ہے، جو اکثر رنرز میں دیکھتے ہیں۔ بدقسمتی سے آپ کو کچھ دن رننگ سے پرہیز کرنا ہو گا، لیکن مجھے نہیں لگتا کہ آپ کو زیادہ وقت لگے گا دوبارہ شروع کرنے میں۔</t>
+  </si>
+  <si>
+    <t>اب میں نے آپ کی ایکسرے رپورٹس بھی دیکھی ہیں، جو آج صبح آپ کے آنے پر کی گئی تھیں، اور دائیں گھٹنے کے جوڑ بلکل صحیح ہیں، کسی فریکچر کا کوئی نشان نہیں ہے، اور بائیں گھٹنے سے کمپیر کرنے پر بھی سب کچھ نارمل ہے۔ مجھے گٹھیا کے کوئی آثار نظر نہیں آئے۔</t>
+  </si>
+  <si>
+    <t>میں چاہتا ہوں کہ آپ دو ٹائلینول (500 ملی گرام) اور دو آئیبوپروفین (200 ملی گرام) گولیاں تین بار روزانہ لیں۔ اس سے درد اور سوجن میں مدد ملے گی۔ میں آپ کے دائیں گھٹنے کے لیے فزیکل تھراپی بھی لکھ رہا ہوں، اس سے ٹانگیں مضبوط ہوں گی اور بیلنس بھی بہتر ہوگا۔ وہاں آپ کو آپ کے لیے بہترین ایکسرسائز بھی بتائیں گے۔</t>
+  </si>
+  <si>
+    <t>میں دو ہفتے بعد آپ سے دوبارہ ملنا چاہتا ہوں تاکہ دیکھ سکیں کہ بہتری آ رہی ہے یا نہیں۔ دو ہفتے تک رننگ نہیں، اور اگر بہتری آ گئی تو پھر ہم آہستہ آہستہ مزید ایکٹیویٹی شامل کریں گے۔ کیسا لگا یہ پلان؟</t>
+  </si>
+  <si>
+    <t>\[مریض] جی بالکل ٹھیک ہے۔ میں بس جاننا چاہتی ہوں کہ میں رننگ تو نہیں کروں گی، لیکن کیا ویٹ لفٹنگ، اسکواٹس یا جم کی ایکسرسائز کر سکتی ہوں؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] جی بالکل، اور یہ سب اچھی ایکسرسائز ہیں، لیکن بہتر ہے کہ پہلے فزیکل تھراپی اپائنٹمنٹ لیں، وہاں وہ آپ کو مزید رہنمائی دیں گے کہ آپ کے لیے کون سی ایکسرسائز بہترین ہیں۔</t>
+  </si>
+  <si>
+    <t>\[مریض] ٹھیک ہے، سمجھ گئی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] کوئی سوال ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، میرا نہیں خیال۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] شکریہ ایبیگیل، جیسا کہ میں نے کہا، باہر ڈیسک پر جا کر دو ہفتے بعد کی اپائنٹمنٹ بنوا لیں۔</t>
+  </si>
+  <si>
+    <t>\[مریض] ٹھیک ہے، شکریہ ڈاکٹر۔</t>
+  </si>
+  <si>
+    <t>**چیف کمپلینٹ**</t>
+  </si>
+  <si>
+    <t>دائیں گھٹنے میں درد۔</t>
+  </si>
+  <si>
+    <t>**سوشل ہسٹری**</t>
+  </si>
+  <si>
+    <t>مریضہ بتاتی ہیں کہ وہ ایک پرجوش رنر ہیں اور میراتھن میں حصہ لینا پسند کرتی ہیں۔</t>
+  </si>
+  <si>
+    <t>**فیملی ہسٹری**</t>
+  </si>
+  <si>
+    <t>مریضہ کے خاندان میں گٹھیا یا کسی دوسری امیون بیماری کی کوئی معلوم تاریخ نہیں ہے۔</t>
+  </si>
+  <si>
+    <t>**ریویو آف سسٹمز**</t>
+  </si>
+  <si>
+    <t>کنسٹی ٹیوشنل: بخار کی تردید کرتی ہیں۔</t>
+  </si>
+  <si>
+    <t>مسکیولواسکلیٹل: دائیں گھٹنے میں درد کی شکایت۔</t>
+  </si>
+  <si>
+    <t>**وائٹلز**</t>
+  </si>
+  <si>
+    <t>بلڈ پریشر: 120/60 mmHg</t>
+  </si>
+  <si>
+    <t>ریسپائریشن: 14</t>
+  </si>
+  <si>
+    <t>کوئی بخار نہیں۔</t>
+  </si>
+  <si>
+    <t>**فزیکل ایگزام**</t>
+  </si>
+  <si>
+    <t>ریسپائریٹری</t>
+  </si>
+  <si>
+    <t>* ریسپائریٹری ایفورٹ کا معائنہ: نارمل۔</t>
+  </si>
+  <si>
+    <t>کارڈیو ویسکولر</t>
+  </si>
+  <si>
+    <t>* معائنہ: دائیں گھٹنے میں پیڈل پلسز نارمل۔</t>
+  </si>
+  <si>
+    <t>* دل کی سننا (Auscultation): ریگولر ریٹ اور ردم، کوئی مرمر، گیلپ یا رب نہیں۔</t>
+  </si>
+  <si>
+    <t>مسکیولواسکلیٹل</t>
+  </si>
+  <si>
+    <t>* معائنہ: نہ کلبنگ، نہ سائنوسس، نہ ایڈیما۔</t>
+  </si>
+  <si>
+    <t>* دایاں گھٹنا: حرکت کے ساتھ درد نہیں، طاقت کے معائنے پر بھی درد نہیں، نہ لالی نہ سوجن، ہلکا سا ایفیوژن موجود، گھٹنے کے بیرونی حصے کو دبانے پر حساسیت۔</t>
+  </si>
+  <si>
+    <t>**ریزلٹس**</t>
+  </si>
+  <si>
+    <t>دائیں گھٹنے کے ایکس رے آج آفس میں کیے اور دیکھے گئے۔ جوائنٹ اسپیسز اچھی طرح برقرار ہیں۔ کسی قسم کے فریکچر یا گٹھیا کے کوئی شواہد نہیں ملے۔</t>
+  </si>
+  <si>
+    <t>**اسیسمنٹ اور پلان**</t>
+  </si>
+  <si>
+    <t>1. دائیں گھٹنے میں اسپرین (sprain)۔</t>
+  </si>
+  <si>
+    <t>* میڈیکل ریزننگ: مریضہ ایک پرجوش رنر ہیں اور ان کی علامات زیادہ استعمال (overuse) کا نتیجہ معلوم ہوتی ہیں۔</t>
+  </si>
+  <si>
+    <t>* پیشنٹ ایجوکیشن اور کاؤنسلنگ: ہم نے ان کی تشخیص اور ایکس رے کے نتائج پر تفصیل سے بات کی۔ انہیں بتایا کہ یہ رنرز میں عام مسئلہ ہے اور انہیں طاقت بڑھانے والی ایکسرسائز جاری رکھنے کی ترغیب دی۔</t>
+  </si>
+  <si>
+    <t>* میڈیکل ٹریٹمنٹ: وہ ٹائلینول 500 ملی گرام، دو گولیاں، اور آئیبوپروفین 200 ملی گرام، دو گولیاں، دن میں تین بار لیں گی تاکہ درد اور سوجن کم ہو سکے۔ انہیں فزیکل تھراپی کے لیے بھی ریفر کیا جائے گا تاکہ ان کی ٹانگیں مضبوط ہوں، بیلنس بہتر ہو، اور صحیح طریقے سے رننگ کی ایکسرسائز سکھائی جائے۔ اگلے دو ہفتے تک رننگ سے پرہیز کریں گی، اس کے بعد فالو اپ پر مزید ایکٹیویٹی شامل کرنے پر غور کیا جائے گا۔</t>
+  </si>
+  <si>
+    <t>**پیشنٹ ایگریمنٹس**</t>
+  </si>
+  <si>
+    <t>مریضہ اس تجویز کردہ علاج سے متفق اور مطمئن ہیں۔</t>
+  </si>
+  <si>
+    <t>**انسٹرکشنز**</t>
+  </si>
+  <si>
+    <t>مریضہ دو ہفتے بعد فالو اپ کے لیے آئیں گی۔</t>
+  </si>
+  <si>
+    <t>[doctor] hey anna good to see you today so i'm looking here in my notes says you have you're coming in today for some right ankle pain after a fall so can you tell me what happened how did you fall</t>
+  </si>
+  <si>
+    <t>[patient] yeah so i was taking out the trash last night and i ended up slipping on a patch of ice like and then when i fell i heard this pop and it just hurts</t>
+  </si>
+  <si>
+    <t>[doctor] okay so have you been able to walk on it at all or is it you know</t>
+  </si>
+  <si>
+    <t>[patient] at first no like my friend who was visiting thankfully had to help me get into the house and i you know and now i'm able to put like a little bit of weight on it but i'm i i'm still limping</t>
+  </si>
+  <si>
+    <t>[doctor] okay well you know that's not good we'll we'll hopefully we can get you fixed up here so how much how much pain have you been in on a scale of one to ten with ten being the worst pain you ever felt</t>
+  </si>
+  <si>
+    <t>[patient] it's it's more like so when i first fell it was pretty bad but now it's it's at like a six you know like it's uncomfortable</t>
+  </si>
+  <si>
+    <t>[doctor] okay and how would you describe that pain is it a constant pain or is it only when you move the ankle</t>
+  </si>
+  <si>
+    <t>[patient] it's it's constant it's like a throbbing pain you know and like when i touch it it feels kinda warm</t>
+  </si>
+  <si>
+    <t>[doctor] okay alright yeah but yeah i can feel it here so it does feel a little bit warm so i said you've been in a little bit of pain so have you taken anything for it</t>
+  </si>
+  <si>
+    <t>[patient] well like last night i iced it and i kept it elevated you know i also took some ibuprofen last night and this morning</t>
+  </si>
+  <si>
+    <t>[doctor] alright has the ibuprofen helped at all</t>
+  </si>
+  <si>
+    <t>[patient] not really</t>
+  </si>
+  <si>
+    <t>[doctor] okay alright so i just want to know i know some of my patients they have like bad ankles where they hurt the ankles all the time but have you ever injured this ankle before</t>
+  </si>
+  <si>
+    <t>[patient] so you know in high school i used to play a lot of soccer but and and like i had other injuries but i've never injured like this particular ankle before but because i used to play like all the time i knew what i was supposed to do but this is i also knew that it was it was time to come in</t>
+  </si>
+  <si>
+    <t>[doctor] okay yeah yeah definitely if you if you ca n't walk on it we definitely good thing that you came in today and we were able to see you so have you experienced any numbness in your foot at all</t>
+  </si>
+  <si>
+    <t>[patient] no no numbness and i do n't think i've had like any tingling or anything like that</t>
+  </si>
+  <si>
+    <t>[doctor] okay that that's good yeah it sounds like you have sensation there so yeah that that's really good so let me do a quick physical exam on you so i reviewed your vitals your blood pressure was one twenty over eighty which is good your heart rate your spo2 was ninety eight percent which is good that means you're you're getting all of your oxygen and so let me go ahead and look at your ankle real quick so when i press here does that hurt</t>
+  </si>
+  <si>
+    <t>[patient] yeah</t>
+  </si>
+  <si>
+    <t>[doctor] alright what about here</t>
+  </si>
+  <si>
+    <t>[doctor] okay so looking at your ankle and your right ankle exam on the skin there is ecchymosis so you have that bruising which you can see of the lateral</t>
+  </si>
+  <si>
+    <t>[patient] malleolus</t>
+  </si>
+  <si>
+    <t>[doctor] malleolus associated with swelling there is tenderness to palpation of the anterior laterally in the soft tissue there is no laxity on the anterior drawer and inversion stress there is no bony tenderness on palpation of the foot on your neurovascular exam of your right foot there your capillary refill is less than three seconds strong dorsalis pedis pulse and your sensation is intact to light touch alright so we did get an x-ray of your ankle before you came in and luckily it's there is no fractures no bony abnormalities which is really good so let me talk a little bit about my assessment and plan for you so for your right ankle pain your symptoms your symptoms are consistent with a right ankle sprain have you sprained your ankle before most times people do the athletics play soccer it happens every so often but have you done that before</t>
+  </si>
+  <si>
+    <t>[patient] no i do n't think so</t>
+  </si>
+  <si>
+    <t>[doctor] okay well you're one of the lucky ones some of my my patients that play sports they sprain their ankle seems like every other week so good for you so for that that that ankle sprain i just want to keep i want you to keep your leg elevated when you're seated and i want you to continue to ice it you can ice it let's say five times a day for twenty minutes at a time just to help that swelling go down i'm gon na give you an air cast to help you stabilize the ankle so keep it from moving and then i'll give you crutches and so i want you to stay off that leg for about one to two days and then you can start walking on it as tolerated tolerated so how does that sound</t>
+  </si>
+  <si>
+    <t>[patient] it's alright</t>
+  </si>
+  <si>
+    <t>[doctor] alright so do you have any questions for me</t>
+  </si>
+  <si>
+    <t>[patient] yeah like how long do you think it's gon na take for me to heal</t>
+  </si>
+  <si>
+    <t>[doctor] i mean it should take a a couple of days i mean i think in a day or two you will be able to walk on it but still think it will be sore for the next couple of weeks you know your ankle sprain seems to be not the worst but it's kinda you know medium grade ankle sprain so as i would say about two to three weeks you should be back to normal you will see some of that bruising go away</t>
+  </si>
+  <si>
+    <t>[patient] yeah okay can i get a doctor's note</t>
+  </si>
+  <si>
+    <t>[doctor] no because you need to go back to work because you work on the computer not running so</t>
+  </si>
+  <si>
+    <t>[patient] fine</t>
+  </si>
+  <si>
+    <t>[doctor] yeah you ca n't get a doctor's note so if you if i write a note i'm gon na tell your boss that you have to go to work</t>
+  </si>
+  <si>
+    <t>[patient] okay thanks</t>
+  </si>
+  <si>
+    <t>[doctor] so i i would n't do that but yeah but otherwise if if if you continue to have pain after this week if you feel like it's not getting better please feel free to contact the office and we can get you back in and possibly do an mri if we you know need to</t>
+  </si>
+  <si>
+    <t>[patient] okay</t>
+  </si>
+  <si>
+    <t>[doctor] alright</t>
+  </si>
+  <si>
+    <t>[patient] alright</t>
+  </si>
+  <si>
+    <t>[doctor] anything else</t>
+  </si>
+  <si>
+    <t>[patient] no that's it</t>
+  </si>
+  <si>
+    <t>[doctor] alright thanks</t>
+  </si>
+  <si>
+    <t>Right ankle pain.</t>
+  </si>
+  <si>
+    <t>Anna Diaz is a pleasant 31-year-old female who presents to the clinic today for the evaluation of right ankle pain. The onset of her pain began when she slipped on a patch of ice while taking out the trash. She states that she heard a pop at the time of the injury. The patient reports that she was unable to ambulate on her right ankle initially after the injury; however, she is now able to bear some weight on her right ankle, but she is still limping. The patient rates her pain level as a 6 out of 10. Ms. Diaz describes her pain as constant and throbbing. She reports that her right ankle is warm to the touch. She denies any numbness or tingling in her right foot. The patient has been icing and elevating her right ankle while also utilizing ibuprofen last night and this morning, which did not provide her with any relief. The patient states that she used to play a lot of soccer in high school so she notes that she has had other right foot injuries but not like this.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal: Positive right ankle pain.</t>
+  </si>
+  <si>
+    <t>Skin: Positive warmth to the right foot.</t>
+  </si>
+  <si>
+    <t>Neurological: Denies any numbness or tingling.</t>
+  </si>
+  <si>
+    <t>BP: 120/80</t>
+  </si>
+  <si>
+    <t>SPO2: 98%.</t>
+  </si>
+  <si>
+    <t>CV: Capillary refill is less than 3 seconds. Strong dorsalis pedis pulse.</t>
+  </si>
+  <si>
+    <t>NEURO: Normal sensation. Sensation is intact to light touch distally.</t>
+  </si>
+  <si>
+    <t>MSK: Examination of the right ankle reveals ecchymosis over the lateral malleolus associated with swelling. Tenderness to palpation anterolaterally in the soft tissue. No laxity on anterior drawer or inversion stress. No bony tenderness on palpation of the foot.</t>
+  </si>
+  <si>
+    <t>X-ray of the right ankle taken in office today reveals no fracture or bony abnormalities.</t>
+  </si>
+  <si>
+    <t>Right ankle sprain.</t>
+  </si>
+  <si>
+    <t>After reviewing the patient's examination and radiographic findings today, I have had a lengthy discussion with the patient in regards to her current symptoms. I have explained to her that her symptoms are consistent with a right ankle sprain. I have recommended that we treat the patient conservatively. I have advised her to keep her right leg elevated when she is seated. I have also advised her to ice her right ankle 5 times per day for 20 minutes at a time to help with the swelling. I have also recommended that the patient be placed in an Aircast to stabilize the ankle. She will remain non-weight-bearing for 1 to 2 days, we provided her with crutches today, and then she can begin weight-bearing as tolerated.</t>
+  </si>
+  <si>
+    <t>If her pain does not improve over the next week, she will contact the office and we will obtain an MRI.</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہیلو اینا، آج آپ کو دیکھ کر اچھا لگا۔ میں اپنی نوٹس دیکھ رہا ہوں، لکھا ہے کہ آپ آج آئے ہیں دائیں ٹخنے میں درد کی شکایت کے ساتھ، جو ایک گرنے کے بعد ہوا۔ تو آپ مجھے بتا سکتی ہیں کہ کیا ہوا تھا، آپ کیسے گریں؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] جی، کل رات میں کوڑا باہر پھینکنے گئی تھی اور برف کی ایک پرت پر پھسل گئی۔ جب میں گری تو ایک پاپ سی آواز آئی اور پھر درد ہونے لگا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، تو کیا آپ اس ٹخنے پر چل سکیں یا نہیں؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] شروع میں تو نہیں، خوش قسمتی سے میری دوست آئی ہوئی تھی، اُس نے مجھے اندر آنے میں مدد کی۔ اب میں تھوڑا بہت وزن ڈال سکتی ہوں، لیکن ابھی بھی لنگڑا رہی ہوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، یہ اچھی بات نہیں ہے، امید ہے ہم یہاں آپ کو ٹھیک کر سکیں گے۔ تو بتائیں، آپ کو کتنے درجے کا درد ہو رہا ہے، ایک سے دس کے پیمانے پر، دس سب سے زیادہ درد؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] جب میں گری تھی تب بہت زیادہ تھا، لیکن اب تقریباً چھ پر ہے۔ کچھ تکلیف ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، اس درد کو کیسے بیان کریں گی؟ کیا یہ مسلسل ہے یا صرف جب ٹخنہ ہلائیں؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] یہ مسلسل ہے، جیسے کہ دھڑکن جیسا درد ہو، اور جب چھوتی ہوں تو تھوڑا گرم لگتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، ہاں، یہاں محسوس ہو رہا ہے، واقعی تھوڑا گرم ہے۔ آپ کو کچھ درد ہے، تو کیا آپ نے اس کے لیے کچھ لیا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] جی، کل رات میں نے برف رکھی اور ٹانگ اوپر رکھی۔ آئبروفین بھی لی تھی کل رات اور آج صبح۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، آئبروفین سے کچھ فرق پڑا؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] زیادہ نہیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، میں جاننا چاہتا ہوں کہ کچھ مریضوں کے ٹخنے کمزور ہوتے ہیں اور بار بار زخمی ہو جاتے ہیں، تو کیا آپ نے پہلے اس ٹخنے کو زخمی کیا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] سکول کے زمانے میں میں کافی فٹبال کھیلتی تھی اور دوسرے چوٹیں لگتی تھیں، لیکن اس خاص ٹخنے کو پہلے کبھی چوٹ نہیں آئی۔ کیونکہ میں کھیلتی تھی، اس لیے پتا تھا کیا کرنا ہے، لیکن اب لگا کہ آنا ضروری ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، ہاں، اگر آپ اس پر چل نہیں سکتیں تو آپ کا آنا بالکل ٹھیک فیصلہ تھا۔ کیا آپ کے پاؤں میں کبھی سن ہونا یا جھنجھناہٹ محسوس ہوئی؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] نہیں، نہ سن ہوا نہ جھنجھناہٹ۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] یہ اچھی بات ہے، لگتا ہے احساسات موجود ہیں۔ تو میں آپ کا جلدی معائنہ کر لیتا ہوں۔ آپ کے وائیٹلز دیکھے، بلڈ پریشر 120/80 ہے جو ٹھیک ہے، دل کی دھڑکن اور آپ کا SPO2 98% ہے، مطلب آکسیجن مل رہی ہے۔ اب ٹخنے کو دیکھتا ہوں، جب یہاں دباتا ہوں تو درد ہوتا ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] جی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] یہاں؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، ٹخنے کو دیکھتے ہوئے، دائیں ٹخنے کی جلد پر نیل ہے، یہ بروسنگ آپ دیکھ سکتی ہیں، لیٹرل میلو لیس پر۔</t>
+  </si>
+  <si>
+    <t>\[مریضہ] میلو لیس۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] میلو لیس کے ساتھ سوجن بھی ہے۔ نرم بافتوں پر چھونے سے درد ہے۔ اینٹیریر ڈرار اور انورژن اسٹریس پر کوئی لچک نہیں ہے۔ پاؤں پر ہڈی کو چھونے سے کوئی ہڈی والا درد نہیں ہے۔ نیوروویسکولر معائنے میں دائیں پاؤں کی کیپلری ریفل تین سیکنڈ سے کم ہے، ڈورسیلس پیڈیس پلس مضبوط ہے، اور احساسات لائٹ ٹچ پر موجود ہیں۔ اچھا، ہم نے آپ کے ایکسرے بھی کروائے، خوش قسمتی سے کوئی فریکچر یا ہڈی کی خرابی نہیں ہے، جو بہت اچھی بات ہے۔ اب میں اپنا اندازہ اور علاج بتاتا ہوں۔ آپ کے دائیں ٹخنے کے درد کی علامات ایک اسپرین سے ملتی ہیں۔ کیا آپ نے پہلے کبھی ٹخنے کو اسپرین کیا؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] نہیں، میرا خیال ہے نہیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] آپ خوش قسمت ہیں، میرے کچھ مریض کھیل کے دوران ہر دوسرے ہفتے ٹخنے کو اسپرین کر لیتے ہیں۔ تو یہ اچھی بات ہے۔ تو اس اسپرین کے لیے میں چاہتا ہوں جب بھی آپ بیٹھیں ٹانگ کو اوپر رکھیں، آئسنگ جاری رکھیں۔ آپ دن میں پانچ بار بیس منٹ کے لیے برف لگا سکتی ہیں تاکہ سوجن کم ہو۔ میں آپ کو ایئر کاسٹ دوں گا تاکہ ٹخنہ ٹھیک رہے اور حرکت نہ کرے، اور بیساکھیاں بھی دوں گا۔ ایک سے دو دن اس پاؤں پر وزن نہ ڈالیں، پھر آہستہ آہستہ جتنا برداشت ہو چلنا شروع کریں۔ کیسا لگا؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] ٹھیک ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، کوئی سوال ہے آپ کا؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] ہاں، آپ کو کیا لگتا ہے، مجھے کب تک آرام آ جائے گا؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] میرا خیال ہے کچھ دنوں میں۔ ایک دو دن میں چلنے کے قابل ہو جائیں گی، لیکن پھر بھی اگلے دو تین ہفتے تک درد رہ سکتا ہے۔ آپ کا اسپرین درمیانے درجے کا لگ رہا ہے، زیادہ برا نہیں۔ دو سے تین ہفتے میں نارمل ہو جائیں گی اور نیل بھی کم ہو جائے گا۔</t>
+  </si>
+  <si>
+    <t>\[مریضہ] جی، اچھا، کیا مجھے ڈاکٹر کی پرچی مل سکتی ہے؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] نہیں، کیونکہ آپ کو کام پر واپس جانا ہے، آپ کمپیوٹر پر کام کرتی ہیں، دوڑنا تو نہیں ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] جی، آپ کو ڈاکٹر کی پرچی نہیں مل سکتی۔ اگر میں پرچی لکھوں گا تو آپ کے باس کو لکھوں گا کہ آپ کو کام پر آنا ہے۔</t>
+  </si>
+  <si>
+    <t>\[مریضہ] ٹھیک ہے، شکریہ۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] میں ایسا نہیں کروں گا، لیکن اگر اس ہفتے کے بعد بھی درد رہا یا بہتر نہ ہوا تو دفتر سے رابطہ کریں، پھر دوبارہ دیکھ سکتے ہیں اور شاید ایم آر آئی بھی کروائیں اگر ضرورت پڑی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اور کچھ؟</t>
+  </si>
+  <si>
+    <t>\[مریضہ] نہیں، بس۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، شکریہ۔</t>
+  </si>
+  <si>
+    <t>دائیں ٹخنے میں درد۔</t>
+  </si>
+  <si>
+    <t>اینا ڈیاز ایک خوش مزاج 31 سالہ خاتون ہیں جو آج کلینک آئی ہیں دائیں ٹخنے کے درد کے معائنے کے لیے۔ ان کے درد کی شروعات اس وقت ہوئی جب وہ کوڑا باہر پھینکتے ہوئے برف پر پھسل گئیں۔ ان کا کہنا ہے کہ چوٹ لگتے وقت انہوں نے ایک "پاپ" کی آواز سنی۔ مریضہ نے بتایا کہ چوٹ کے فوراً بعد وہ دائیں ٹخنے پر چل نہیں سکتی تھیں، تاہم اب وہ تھوڑا بہت وزن ڈال سکتی ہیں لیکن اب بھی لنگڑا رہی ہیں۔ مریضہ اپنے درد کو 6/10 قرار دیتی ہیں۔ مس ڈیاز اپنے درد کو مسلسل اور دھڑکنے والا بیان کرتی ہیں۔ وہ بتاتی ہیں کہ ان کا دایاں ٹخنہ چھونے پر گرم محسوس ہوتا ہے۔ مریضہ دائیں پاؤں میں سن ہونے یا جھنجھناہٹ سے انکار کرتی ہیں۔ مریضہ نے بتایا کہ وہ دائیں ٹخنے پر برف اور اسے اوپر رکھ رہی ہیں، اور کل رات اور آج صبح ibuprofen لی ہے، جس سے کوئی آرام نہیں ملا۔ مریضہ نے کہا کہ وہ ہائی اسکول میں کافی فٹبال کھیلتی رہی ہیں، اس لیے انہیں دائیں پاؤں کی دوسری چوٹیں بھی لگی ہیں، لیکن اس طرح کی نہیں۔</t>
+  </si>
+  <si>
+    <t>Musculoskeletal: دائیں ٹخنے میں درد مثبت ہے۔</t>
+  </si>
+  <si>
+    <t>Skin: دائیں پاؤں میں گرمی مثبت ہے۔</t>
+  </si>
+  <si>
+    <t>Neurological: کسی سن ہونے یا جھنجھناہٹ سے انکار۔</t>
+  </si>
+  <si>
+    <t>SPO2: 98%</t>
+  </si>
+  <si>
+    <t>CV: Capillary refill تین سیکنڈ سے کم ہے۔ Dorsalis pedis pulse مضبوط ہے۔</t>
+  </si>
+  <si>
+    <t>NEURO: احساسات نارمل ہیں۔ اختتامی حصے پر light touch کا احساس برقرار ہے۔</t>
+  </si>
+  <si>
+    <t>MSK: دائیں ٹخنے کے معائنے میں lateral malleolus پر ecchymosis (نیل) اور سوجن ہے۔ نرم بافتوں پر anterolateral حصے میں چھونے سے درد۔ anterior drawer یا inversion stress پر کوئی لچک نہیں۔ پاؤں کی ہڈی کو چھونے سے کوئی ہڈی والا درد نہیں ہے۔</t>
+  </si>
+  <si>
+    <t>ریزَلٹس</t>
+  </si>
+  <si>
+    <t>آج کلینک میں دائیں ٹخنے کا X-ray لیا گیا، جس میں کوئی fracture یا ہڈی کی خرابی نہیں دیکھی گئی۔</t>
+  </si>
+  <si>
+    <t>دائیں ٹخنے کا sprain۔</t>
+  </si>
+  <si>
+    <t>آج مریضہ کے معائنے اور ریڈیولاجیکل نتائج کا جائزہ لینے کے بعد مریضہ سے ان کی موجودہ علامات پر تفصیلی بات چیت کی گئی۔ انہیں بتایا گیا کہ ان کی علامات دائیں ٹخنے کے sprain سے مطابقت رکھتی ہیں۔ انہیں مشورہ دیا گیا کہ علاج کو کنزرویٹو رکھا جائے۔ انہیں ہدایت کی گئی کہ جب بھی بیٹھیں، دائیں ٹانگ کو اوپر رکھیں۔ انہیں یہ بھی بتایا گیا کہ سوجن کم کرنے کے لیے دن میں پانچ بار بیس منٹ کے لیے برف لگائیں۔ مریضہ کے ٹخنے کو stabilize کرنے کے لیے Aircast تجویز کیا گیا۔ انہیں ایک سے دو دن تک پاؤں پر وزن نہ ڈالنے کی ہدایت کی گئی، آج انہیں crutches دی گئی ہیں، اس کے بعد جیسے برداشت ہو وزن ڈالنا شروع کریں۔</t>
+  </si>
+  <si>
+    <t>انسٹرکشنز</t>
+  </si>
+  <si>
+    <t>اگر اگلے ہفتے تک درد میں بہتری نہ آئے تو وہ دفتر سے رابطہ کریں اور ہم MRI کروائیں گے۔</t>
+  </si>
+  <si>
+    <t>[doctor] hey matthew how're you doing</t>
+  </si>
+  <si>
+    <t>[patient] hey doc i'm doing pretty good how are you</t>
+  </si>
+  <si>
+    <t>[doctor] i'm doing pretty good hey i see here in the nurse's notes it looks like you hurt your left ankle can you tell me a little bit more about that</t>
+  </si>
+  <si>
+    <t>[patient] yeah i did my wife and i were on a walk yesterday and i was just talking to her and and stepped off the curb and landed on it wrong it's kind of embarrassing but yeah it's been killing me for a couple days now</t>
+  </si>
+  <si>
+    <t>[doctor] okay now when you fell did you feel or hear a pop or anything like that</t>
+  </si>
+  <si>
+    <t>[patient] i would n't say i really heard a pop it was just kind of really kind of felt extended and stretched and it it's just been really bothering me ever since kind of on the outside of it</t>
+  </si>
+  <si>
+    <t>[doctor] okay and then were you able to walk on it after the incident</t>
+  </si>
+  <si>
+    <t>[patient] i was able to get back to the house because i did n't wan na you know make my wife carry me but it was it was painful</t>
+  </si>
+  <si>
+    <t>[doctor] okay and then have you done any or had any injuries to that ankle before</t>
+  </si>
+  <si>
+    <t>[patient] nothing substantial that i would say in the past</t>
+  </si>
+  <si>
+    <t>[doctor] okay and then what have you been doing for that left ankle since then have you done anything to help make it make the pain less</t>
+  </si>
+  <si>
+    <t>[patient] i have taken some ibuprofen and then i just tried to elevate it and ice it a little bit and keep my weight off of it</t>
+  </si>
+  <si>
+    <t>[doctor] okay so let's talk real quick about your pain level zero being none ten being the worst pain you've been in in your life without any medication on board can you rate your pain for me</t>
+  </si>
+  <si>
+    <t>[patient] i would say it's about an eight</t>
+  </si>
+  <si>
+    <t>[doctor] okay and then when you do take that ibuprofen or tylenol what what's your relief level what's your pain look like then</t>
+  </si>
+  <si>
+    <t>[patient] maybe a seven it it's a little</t>
+  </si>
+  <si>
+    <t>[doctor] okay now you mentioned going for a walk my wife and i've been on on back behind the new rex center where the new trails are have you guys been back there</t>
+  </si>
+  <si>
+    <t>[patient] we have n't yet but i'm sure we'll check it out ever since i feel like working at home during covid we we we take walks all the time</t>
+  </si>
+  <si>
+    <t>[doctor] yeah i</t>
+  </si>
+  <si>
+    <t>[patient] no i have n't been there yet</t>
+  </si>
+  <si>
+    <t>[doctor] yeah those those trails are great there's like five miles of regular flat trails and then there's a bunch of hiking trails that they've opened up as well it's a really great place man you guys need to get out there we'll get you fixed up and we'll get you back out there okay</t>
+  </si>
+  <si>
+    <t>[patient] awesome</t>
+  </si>
+  <si>
+    <t>[doctor] so let's let's talk a little bit about my physical exam if it's okay with you i'm gon na do a quick physical exam on you your vitals look stable by the way a little elevated i know you're in pain on a focused exam of your left ankle now i do appreciate that there is ecchymosis or bruising over the lateral malleolus and there is some swelling i do i do appreciate some edema now you are positive for tenderness to palpation on the lateral side and the the soft tissue is swollen here the good news is i do not appreciate any laxity in the joint okay and i do n't feel any any type of bony tenderness to palpation of your foot now on the neurovascular exam of your left foot capillary refill is brisk less than three seconds and i do appreciate strong dorsalis pedis pulses and you do have motor and sensation intact which is good now it's important that they were compared bilaterally and they are yeah your your exam is the same bilaterally so that that's an important thing now we did do an x-ray of that left ankle when you came in so i'm gon na review those x-ray results with you now the good news is i do not appreciate a fracture or any bony abnormalities so that's a good thing right so let me talk to you a little bit about my assessment and plan so for your first problem of your left ankle pain your symptoms are consistent with an ankle sprain of the lateral ligament complex and the ligament on the outside of your ankle is what got stretched when you fell now the best treatment for this sprain is what you've kind of already been doing doing the elevation and compression and ice so we're gon na continue the rice protocol and i am gon na go ahead and give you an air cast just to stabilize that ankle i'm gon na prescribe you some crutches i want you to stay off that leg but i do want you to start walking as tolerated but it may be a few days before you feel like doing that now your symptoms are going to get better significantly over the first you know four five six seven days but i am gon na wan na follow up with you just to make sure you're doing okay so what i do is i would like to see you in two weeks and i'm gon na have you continue taking those nsaids as well to help reduce that pain and swelling any other questions comments or concerns before i have the nurse come in and get you fixed up</t>
+  </si>
+  <si>
+    <t>[patient] no i think that sounds like a plan</t>
+  </si>
+  <si>
+    <t>[doctor] okay sounds good like i said i will see you in two weeks if you have any questions or if you have a lot of pain come back in we'll reevaluate otherwise i think you're headed in the right direction and i'll see you again in two weeks</t>
+  </si>
+  <si>
+    <t>[patient] awesome thanks document</t>
+  </si>
+  <si>
+    <t>[doctor] alright thanks bye-bye</t>
+  </si>
+  <si>
+    <t>Left ankle pain.</t>
+  </si>
+  <si>
+    <t>Matthew Murphy is a pleasant 20-year-old male who presents to the clinic today for the evaluation of left ankle pain. The onset of his pain began 2 days ago, when he stepped off of a curb and landed on his left ankle wrong. He denies hearing a pop at the time of the injury, however, he describes his ankle as feeling extended and stretched. He was able to ambulate back to his house after the incident but with pain. He denies any previous injuries to his left ankle. His pain is localized to the lateral aspect of his left ankle and can be rated at 8 out of 10 without medication. When taking ibuprofen his pain level is 7 out of 10. He states he has also iced and elevated his ankle.</t>
+  </si>
+  <si>
+    <t>Patient reports that he has been working from home since the start of COVID-19 and enjoys taking lots of walks.</t>
+  </si>
+  <si>
+    <t>Patient reports taking ibuprofen.</t>
+  </si>
+  <si>
+    <t>Musculoskeletal: Patient reports left ankle pain.</t>
+  </si>
+  <si>
+    <t>Vitals are slightly elevated due to pain level but are otherwise stable.</t>
+  </si>
+  <si>
+    <t>NEURO: Normal strength and sensation bilaterally.</t>
+  </si>
+  <si>
+    <t>MSK: Examination of the left ankle: Ecchymosis noted over the lateral malleolus. Edema is present. Tenderness to palpation laterally. No joint laxity appreciated. No bony tenderness to palpation of the foot. Capillary refill is brisk at less than 3 seconds bilaterally. Strong dorsalis pedis pulses bilaterally.</t>
+  </si>
+  <si>
+    <t>These reveal no fracture or bony abnormalities.</t>
+  </si>
+  <si>
+    <t>Left ankle sprain of the lateral ligament complex.</t>
+  </si>
+  <si>
+    <t>After reviewing the patient's examination and radiographic findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. We discussed that his symptoms are consistent with an ankle sprain of the lateral ligament complex. The nature of the diagnosis and treatment options were discussed. At this time he will continue to follow the RICE protocol. He will continue to take NSAIDs as needed for pain and swelling. He will also be placed into an Aircast for ankle stabilization and will be provided crutches in order to remain non-weight-bearing. We discussed that it may be a few days before he feels able to tolerate walking. I also advised him that his symptoms will likely start to improve significantly over the next 4 to 6 days.</t>
+  </si>
+  <si>
+    <t>The patient will follow up with me in 2 weeks to assess his progress, sooner if needed.</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہیلو میتھیو، کیسے ہو؟</t>
+  </si>
+  <si>
+    <t>\[مریض] ہیلو ڈاکٹر، میں ٹھیک ہوں، آپ کیسے ہیں؟</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] میں بھی ٹھیک ہوں۔ دیکھ رہا ہوں کہ نرس کے نوٹس میں لکھا ہے کہ آپ کی بائیں ٹخن میں چوٹ آئی ہے۔ ذرا اس کے بارے میں کچھ بتائیں۔</t>
+  </si>
+  <si>
+    <t>\[مریض] ہاں جی، میری بیوی اور میں کل واک پر تھے، میں باتیں کر رہا تھا اور اچانک فٹ پاتھ سے نیچے قدم رکھا اور غلط طریقے سے پاؤں آ گیا۔ ذرا شرمندگی بھی ہوئی، لیکن ہاں، پچھلے کچھ دن سے بہت تکلیف ہو رہی ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، جب آپ گرے تھے تو کیا آپ نے کوئی پاپ کی آواز سنی یا کوئی عجیب سا احساس ہوا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] میں یہ تو نہیں کہوں گا کہ کوئی پاپ کی آواز آئی، بس ایسا لگا جیسے ٹخن کھچ گیا ہو اور کھنچاؤ سا محسوس ہوا۔ تب سے خاص کر باہر کی طرف بہت درد ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، اس کے بعد کیا آپ اس پر چل سکے تھے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] ہاں میں گھر تک پہنچ گیا تھا، کیونکہ میں نہیں چاہتا تھا کہ میری بیوی مجھے اٹھا کر لے جائے، لیکن کافی درد تھا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، اس سے پہلے کبھی اس ٹخن میں چوٹ وغیرہ لگی ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، ماضی میں ایسی کوئی خاص چوٹ نہیں لگی۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، پھر آپ نے اس ٹخن کے لیے کیا کیا؟ کوئی علاج یا آرام وغیرہ کیا؟</t>
+  </si>
+  <si>
+    <t>\[مریض] میں نے کچھ آئبوپروفن لیا ہے، اور ٹخن کو اوپر رکھ کر برف بھی لگائی اور کوشش کی کہ اس پر وزن نہ ڈالوں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، تو ذرا اپنے درد کی شدت بتائیں۔ اگر صفر مطلب بالکل درد نہیں، اور دس مطلب زندگی کا سب سے زیادہ درد، تو بغیر کسی دوا کے آپ کا درد کس سطح پر ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] میں کہوں گا کہ آٹھ کے قریب ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اور جب آپ آئبوپروفن یا ٹائلینول لیتے ہیں تو درد میں کتنی کمی آتی ہے؟</t>
+  </si>
+  <si>
+    <t>\[مریض] شاید سات رہ جاتا ہے، تھوڑا سا فرق پڑتا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اچھا، آپ نے واک کا ذکر کیا، میری بیوی اور میں بھی نئے ریکس سینٹر کے پیچھے جو نئے ٹریلز ہیں وہاں گئے ہیں۔ کیا آپ لوگ کبھی گئے ہیں وہاں؟</t>
+  </si>
+  <si>
+    <t>\[مریض] ابھی تک تو نہیں گئے، لیکن ضرور دیکھیں گے۔ جب سے کووڈ میں گھر سے کام کر رہا ہوں، ہم اکثر واک کے لیے نکل جاتے ہیں۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ہاں</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، ابھی تک نہیں گیا۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] وہ ٹریلز بڑے زبردست ہیں۔ تقریباً پانچ میل کے فلیٹ ٹریکس ہیں اور ساتھ میں کافی ہائیکنگ ٹریلز بھی ہیں۔ واقعی اچھا مقام ہے، آپ لوگ ضرور جائیں۔ ہم آپ کو ٹھیک کر لیں گے، پھر آپ وہاں جا سکیں گے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] زبردست</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] اب ذرا میں آپ کا فزیکل ایگزام کروں گا اگر آپ کو کوئی اعتراض نہیں۔ آپ کی وائیٹلز تو مستحکم ہیں، بس ذرا بڑھ گئی ہیں کیونکہ آپ درد میں ہیں۔ بائیں ٹخن کا معائنہ کیا ہے تو اس کے باہر کی طرف سوجن اور نیل پڑا ہوا ہے، اور سافٹ ٹشو میں بھی سوجن ہے۔ ٹخن کے باہر کی طرف دبانے پر درد ہے۔ اچھی بات یہ ہے کہ جوڑ میں کوئی ڈھیلا پن محسوس نہیں ہوا اور نہ ہی ہڈیوں پر دبانے سے کوئی خاص درد ہے۔</t>
+  </si>
+  <si>
+    <t>نیورو ویسکولر ایگزام میں بائیں پاؤں کی کیپلری ریفل تین سیکنڈ سے کم میں واپس آ رہی ہے، دورسالیس پیڈیس پلسز مضبوط ہیں اور موٹر و سنسیشن بھی ٹھیک ہے، جو کہ اچھی بات ہے۔ دونوں پاؤں کا موازنہ کیا ہے اور دونوں میں کوئی فرق نہیں ہے، یہ بھی اہم بات ہے۔</t>
+  </si>
+  <si>
+    <t>ہم نے آپ کی بائیں ٹخن کی ایکسرے بھی کی ہے، اس کے نتائج بھی ابھی دیکھتا ہوں۔ اچھی بات یہ ہے کہ نہ تو کوئی فریکچر ہے اور نہ ہی ہڈیوں میں کوئی خرابی۔</t>
+  </si>
+  <si>
+    <t>اب میں آپ کو اپنی تشخیص اور پلان کے بارے میں بتاتا ہوں۔</t>
+  </si>
+  <si>
+    <t>آپ کے بائیں ٹخن کا درد اینکل سپرین لگ رہا ہے، خاص طور پر باہر والے لگامنٹ میں کھچاؤ آیا ہے۔ بہترین علاج وہی ہے جو آپ اب تک کر رہے ہیں: ٹخن کو اوپر رکھنا، دباؤ دینا اور برف لگانا۔ ہم رائس پروٹوکول جاری رکھیں گے اور میں آپ کو ایک ایئر کاسٹ بھی دوں گا تاکہ ٹخن مستحکم رہے۔</t>
+  </si>
+  <si>
+    <t>میں آپ کو بیساکھیاں بھی لکھ کر دوں گا، اور چاہوں گا کہ آپ اس ٹانگ پر وزن نہ ڈالیں، لیکن جتنا چلنا برداشت ہو، چل لیں۔</t>
+  </si>
+  <si>
+    <t>چند دن میں آپ کو بہتری محسوس ہو گی، چار، پانچ، چھ یا سات دن میں خاص فرق آئے گا، لیکن میں چاہوں گا کہ آپ سے دو ہفتے بعد دوبارہ ملوں، تاکہ دیکھ سکوں سب ٹھیک ہے۔ اینسیڈز بھی لیتے رہیں تاکہ درد اور سوجن کم ہو۔</t>
+  </si>
+  <si>
+    <t>کوئی اور سوال یا فکر ہو تو نرس کے آنے سے پہلے بتا دیں۔</t>
+  </si>
+  <si>
+    <t>\[مریض] نہیں، یہ سب ٹھیک لگ رہا ہے۔</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، جیسا میں نے کہا، دو ہفتے بعد ملتے ہیں۔ اگر سوال ہو یا درد زیادہ ہو جائے تو واپس آ جائیں، ورنہ آپ کی سمت درست ہے، دو ہفتے بعد ملیں گے۔</t>
+  </si>
+  <si>
+    <t>\[مریض] زبردست، شکریہ ڈاکٹر</t>
+  </si>
+  <si>
+    <t>\[ڈاکٹر] ٹھیک ہے، شکریہ، اللہ حافظ</t>
+  </si>
+  <si>
+    <t>بائیں ٹخنے میں درد۔</t>
+  </si>
+  <si>
+    <t>**ہسٹری آف پریزنٹ اِلنیس**</t>
+  </si>
+  <si>
+    <t>میتھیو مرفی ایک خوش اخلاق 20 سالہ مرد ہیں جو آج کلینک آئے ہیں بائیں ٹخنے کے درد کی تشخیص کے لیے۔ ان کے درد کا آغاز دو دن پہلے ہوا، جب وہ فٹ پاتھ سے نیچے اترے اور ان کا بایاں ٹخن غلط طریقے سے زمین پر آیا۔ وہ بتاتے ہیں کہ چوٹ کے وقت کوئی "پاپ" کی آواز نہیں سنی، تاہم انہیں ٹخن میں کھچاؤ اور لمبا ہونے کا احساس ہوا۔ واقعے کے بعد وہ درد کے ساتھ واپس اپنے گھر تک چلنے کے قابل تھے۔ وہ ماضی میں بائیں ٹخنے میں کسی چوٹ کی تردید کرتے ہیں۔ ان کا درد بائیں ٹخنے کے باہر کی جانب مرکوز ہے اور بغیر دوا کے درد کی شدت 10 میں سے 8 بتاتے ہیں۔ آئبوپروفن لینے کے بعد درد کی شدت 10 میں سے 7 ہو جاتی ہے۔ وہ یہ بھی بتاتے ہیں کہ انہوں نے ٹخنے پر برف رکھی اور اسے اونچا رکھا۔</t>
+  </si>
+  <si>
+    <t>مریض بتاتے ہیں کہ وہ COVID-19 کے آغاز سے گھر سے کام کر رہے ہیں اور انہیں زیادہ پیدل چلنا پسند ہے۔</t>
+  </si>
+  <si>
+    <t>**میڈیکیشنز**</t>
+  </si>
+  <si>
+    <t>مریض آئبوپروفن لینے کی اطلاع دیتے ہیں۔</t>
+  </si>
+  <si>
+    <t>مسکولوسکیلیٹل: مریض بائیں ٹخنے میں درد کی شکایت کرتے ہیں۔</t>
+  </si>
+  <si>
+    <t>وائٹلز درد کی شدت کی وجہ سے قدرے بلند ہیں لیکن مجموعی طور پر مستحکم ہیں۔</t>
+  </si>
+  <si>
+    <t>نیورو: دونوں طرف طاقت اور حس نارمل ہے۔</t>
+  </si>
+  <si>
+    <t>MSK: بائیں ٹخنے کا معائنہ: باہر کی طرف ماللیولس پر ایکیموسِس (نیل) موجود ہے۔ سوجن (edema) پائی گئی۔ باہر کی طرف دبانے پر ٹینڈرنیس (tenderness) ہے۔ جوڑ میں ڈھیلا پن (laxity) نہیں ہے۔ پاؤں کی ہڈیوں پر دبانے سے کوئی خاص درد نہیں ہے۔ کیپلری ریفل دونوں طرف تین سیکنڈ سے کم میں ہو رہا ہے۔ دورسالیس پیڈیس پلسز دونوں طرف مضبوط ہیں۔</t>
+  </si>
+  <si>
+    <t>**ریزَلٹس**</t>
+  </si>
+  <si>
+    <t>ان میں کوئی فریکچر یا ہڈیوں کی خرابی ظاہر نہیں ہوئی۔</t>
+  </si>
+  <si>
+    <t>**اسیسمنٹ**</t>
+  </si>
+  <si>
+    <t>بائیں ٹخنے کے لیٹرل لگامنٹ کمپلیکس کا اسپرین۔</t>
+  </si>
+  <si>
+    <t>**پلان**</t>
+  </si>
+  <si>
+    <t>آج مریض کے معائنے اور ریڈیولوجک نتائج دیکھنے کے بعد، مریض سے اس کی موجودہ علامات پر تفصیلی گفتگو کی گئی۔ بات چیت میں بتایا گیا کہ اس کی علامات بائیں ٹخنے کے لیٹرل لگامنٹ کمپلیکس کے اسپرین کے مطابق ہیں۔ تشخیص کی نوعیت اور علاج کے اختیارات پر بات کی گئی۔ فی الحال وہ RICE پروٹوکول پر عمل جاری رکھے گا۔ درد اور سوجن کے لیے ضرورت کے مطابق NSAIDs لیتے رہیں گے۔ ٹخنے کو مستحکم کرنے کے لیے ایئرکاسٹ دیا جائے گا اور وزن نہ ڈالنے کے لیے کرچز (crutches) دی جائیں گی۔ یہ بھی بتایا گیا کہ کچھ دن لگ سکتے ہیں کہ وہ چلنے کے قابل محسوس کریں۔ میں نے یہ بھی بتایا کہ اگلے 4 سے 6 دن میں علامات میں نمایاں بہتری کی توقع ہے۔</t>
+  </si>
+  <si>
+    <t>مریض دو ہفتے بعد فالو اپ کے لیے میرے پاس آئے گا تاکہ اس کی حالت کا جائزہ لیا جا سکے، اگر ضرورت ہو تو اس سے پہلے بھی آ سکتا ہے۔</t>
+  </si>
+  <si>
+    <t>g_aci_031</t>
+  </si>
+  <si>
+    <t>g_aci_032</t>
+  </si>
+  <si>
+    <t>g_aci_033</t>
+  </si>
+  <si>
+    <t>g_aci_034</t>
+  </si>
+  <si>
+    <t>g_aci_035</t>
+  </si>
 </sst>
 </file>
 
@@ -851,7 +2651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -862,6 +2662,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1164,10 +2965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="135" workbookViewId="0">
+      <selection activeCell="B309" sqref="B309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1341,9 +3142,3908 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G7" s="2"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>119</v>
+      </c>
+      <c r="H9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+      <c r="H18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H34" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s">
+        <v>147</v>
+      </c>
+      <c r="H39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>149</v>
+      </c>
+      <c r="H41" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" t="s">
+        <v>130</v>
+      </c>
+      <c r="H44" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+      <c r="G48" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" t="s">
+        <v>114</v>
+      </c>
+      <c r="G50" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s">
+        <v>158</v>
+      </c>
+      <c r="H52" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" t="s">
+        <v>82</v>
+      </c>
+      <c r="G54" t="s">
+        <v>160</v>
+      </c>
+      <c r="H54" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" t="s">
+        <v>83</v>
+      </c>
+      <c r="G55" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" t="s">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="G59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="G60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="G61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="G62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="G63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="G64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="G65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>7</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>255</v>
+      </c>
+      <c r="H66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" t="s">
+        <v>203</v>
+      </c>
+      <c r="G67" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" t="s">
+        <v>257</v>
+      </c>
+      <c r="H68" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+      <c r="G69" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" t="s">
+        <v>259</v>
+      </c>
+      <c r="H70" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" t="s">
+        <v>207</v>
+      </c>
+      <c r="G71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" t="s">
+        <v>208</v>
+      </c>
+      <c r="F72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s">
+        <v>261</v>
+      </c>
+      <c r="H72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" t="s">
+        <v>230</v>
+      </c>
+      <c r="G74" t="s">
+        <v>263</v>
+      </c>
+      <c r="H74" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" t="s">
+        <v>211</v>
+      </c>
+      <c r="G75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" t="s">
+        <v>212</v>
+      </c>
+      <c r="F76" t="s">
+        <v>231</v>
+      </c>
+      <c r="G76" t="s">
+        <v>265</v>
+      </c>
+      <c r="H76" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" t="s">
+        <v>213</v>
+      </c>
+      <c r="G77" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" t="s">
+        <v>214</v>
+      </c>
+      <c r="F78" t="s">
+        <v>232</v>
+      </c>
+      <c r="G78" t="s">
+        <v>267</v>
+      </c>
+      <c r="H78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" t="s">
+        <v>215</v>
+      </c>
+      <c r="G79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" t="s">
+        <v>216</v>
+      </c>
+      <c r="F80" t="s">
+        <v>233</v>
+      </c>
+      <c r="G80" t="s">
+        <v>269</v>
+      </c>
+      <c r="H80" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" t="s">
+        <v>218</v>
+      </c>
+      <c r="F82" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>271</v>
+      </c>
+      <c r="H82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" t="s">
+        <v>219</v>
+      </c>
+      <c r="G83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" t="s">
+        <v>220</v>
+      </c>
+      <c r="F84" t="s">
+        <v>234</v>
+      </c>
+      <c r="G84" t="s">
+        <v>273</v>
+      </c>
+      <c r="H84" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" t="s">
+        <v>221</v>
+      </c>
+      <c r="G85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" t="s">
+        <v>235</v>
+      </c>
+      <c r="G86" t="s">
+        <v>275</v>
+      </c>
+      <c r="H86" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88" t="s">
+        <v>236</v>
+      </c>
+      <c r="G88" t="s">
+        <v>277</v>
+      </c>
+      <c r="H88" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" t="s">
+        <v>226</v>
+      </c>
+      <c r="F90" t="s">
+        <v>91</v>
+      </c>
+      <c r="G90" t="s">
+        <v>279</v>
+      </c>
+      <c r="H90" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="G91" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="F92" t="s">
+        <v>237</v>
+      </c>
+      <c r="G92" t="s">
+        <v>281</v>
+      </c>
+      <c r="H92" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="F93" t="s">
+        <v>238</v>
+      </c>
+      <c r="G93" t="s">
+        <v>282</v>
+      </c>
+      <c r="H93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="G94" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="F95" t="s">
+        <v>94</v>
+      </c>
+      <c r="G95" t="s">
+        <v>284</v>
+      </c>
+      <c r="H95" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="G96" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="F97" t="s">
+        <v>239</v>
+      </c>
+      <c r="G97" t="s">
+        <v>286</v>
+      </c>
+      <c r="H97" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="F98" t="s">
+        <v>240</v>
+      </c>
+      <c r="G98" t="s">
+        <v>287</v>
+      </c>
+      <c r="H98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="F99" t="s">
+        <v>241</v>
+      </c>
+      <c r="G99" t="s">
+        <v>288</v>
+      </c>
+      <c r="H99" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="F100" t="s">
+        <v>242</v>
+      </c>
+      <c r="G100" t="s">
+        <v>289</v>
+      </c>
+      <c r="H100" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="F101" t="s">
+        <v>243</v>
+      </c>
+      <c r="H101" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="F103" t="s">
+        <v>98</v>
+      </c>
+      <c r="H103" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="F105" t="s">
+        <v>244</v>
+      </c>
+      <c r="H105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="F106" t="s">
+        <v>245</v>
+      </c>
+      <c r="H106" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="F107" t="s">
+        <v>246</v>
+      </c>
+      <c r="H107" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="F108" t="s">
+        <v>247</v>
+      </c>
+      <c r="H108" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="F110" t="s">
+        <v>109</v>
+      </c>
+      <c r="H110" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="F112" t="s">
+        <v>248</v>
+      </c>
+      <c r="H112" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="F114" t="s">
+        <v>249</v>
+      </c>
+      <c r="H114" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="F116" t="s">
+        <v>250</v>
+      </c>
+      <c r="H116" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="F118" t="s">
+        <v>251</v>
+      </c>
+      <c r="H118" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="F120" t="s">
+        <v>252</v>
+      </c>
+      <c r="H120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="F122" t="s">
+        <v>253</v>
+      </c>
+      <c r="H122" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="F124" t="s">
+        <v>254</v>
+      </c>
+      <c r="H124" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>8</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" t="s">
+        <v>318</v>
+      </c>
+      <c r="F125" t="s">
+        <v>87</v>
+      </c>
+      <c r="G125" t="s">
+        <v>370</v>
+      </c>
+      <c r="H125" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" t="s">
+        <v>319</v>
+      </c>
+      <c r="G126" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" t="s">
+        <v>320</v>
+      </c>
+      <c r="F127" t="s">
+        <v>349</v>
+      </c>
+      <c r="G127" t="s">
+        <v>372</v>
+      </c>
+      <c r="H127" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" t="s">
+        <v>321</v>
+      </c>
+      <c r="G128" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" t="s">
+        <v>322</v>
+      </c>
+      <c r="F129" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" t="s">
+        <v>374</v>
+      </c>
+      <c r="H129" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" t="s">
+        <v>323</v>
+      </c>
+      <c r="G130" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" t="s">
+        <v>324</v>
+      </c>
+      <c r="F131" t="s">
+        <v>350</v>
+      </c>
+      <c r="G131" t="s">
+        <v>376</v>
+      </c>
+      <c r="H131" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" t="s">
+        <v>325</v>
+      </c>
+      <c r="G132" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" t="s">
+        <v>326</v>
+      </c>
+      <c r="F133" t="s">
+        <v>351</v>
+      </c>
+      <c r="G133" t="s">
+        <v>378</v>
+      </c>
+      <c r="H133" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" t="s">
+        <v>327</v>
+      </c>
+      <c r="G134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" t="s">
+        <v>328</v>
+      </c>
+      <c r="F135" t="s">
+        <v>352</v>
+      </c>
+      <c r="G135" t="s">
+        <v>380</v>
+      </c>
+      <c r="H135" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" t="s">
+        <v>329</v>
+      </c>
+      <c r="G136" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" t="s">
+        <v>330</v>
+      </c>
+      <c r="F137" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" t="s">
+        <v>382</v>
+      </c>
+      <c r="H137" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" t="s">
+        <v>331</v>
+      </c>
+      <c r="G138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" t="s">
+        <v>47</v>
+      </c>
+      <c r="F139" t="s">
+        <v>353</v>
+      </c>
+      <c r="G139" t="s">
+        <v>384</v>
+      </c>
+      <c r="H139" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" t="s">
+        <v>332</v>
+      </c>
+      <c r="F140" t="s">
+        <v>354</v>
+      </c>
+      <c r="G140" t="s">
+        <v>385</v>
+      </c>
+      <c r="H140" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" t="s">
+        <v>333</v>
+      </c>
+      <c r="G141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" t="s">
+        <v>334</v>
+      </c>
+      <c r="F142" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" t="s">
+        <v>386</v>
+      </c>
+      <c r="H142" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" t="s">
+        <v>335</v>
+      </c>
+      <c r="G143" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" t="s">
+        <v>75</v>
+      </c>
+      <c r="F144" t="s">
+        <v>355</v>
+      </c>
+      <c r="G144" t="s">
+        <v>388</v>
+      </c>
+      <c r="H144" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" t="s">
+        <v>336</v>
+      </c>
+      <c r="F145" t="s">
+        <v>240</v>
+      </c>
+      <c r="G145" t="s">
+        <v>389</v>
+      </c>
+      <c r="H145" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" t="s">
+        <v>75</v>
+      </c>
+      <c r="F146" t="s">
+        <v>356</v>
+      </c>
+      <c r="G146" t="s">
+        <v>152</v>
+      </c>
+      <c r="H146" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" t="s">
+        <v>337</v>
+      </c>
+      <c r="F147" t="s">
+        <v>357</v>
+      </c>
+      <c r="G147" t="s">
+        <v>390</v>
+      </c>
+      <c r="H147" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" t="s">
+        <v>338</v>
+      </c>
+      <c r="G148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" t="s">
+        <v>339</v>
+      </c>
+      <c r="F149" t="s">
+        <v>98</v>
+      </c>
+      <c r="G149" t="s">
+        <v>391</v>
+      </c>
+      <c r="H149" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" t="s">
+        <v>340</v>
+      </c>
+      <c r="G150" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" t="s">
+        <v>341</v>
+      </c>
+      <c r="F151" t="s">
+        <v>358</v>
+      </c>
+      <c r="G151" t="s">
+        <v>393</v>
+      </c>
+      <c r="H151" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" t="s">
+        <v>342</v>
+      </c>
+      <c r="F152" t="s">
+        <v>359</v>
+      </c>
+      <c r="G152" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" t="s">
+        <v>343</v>
+      </c>
+      <c r="G153" t="s">
+        <v>395</v>
+      </c>
+      <c r="H153" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" t="s">
+        <v>344</v>
+      </c>
+      <c r="F154" t="s">
+        <v>101</v>
+      </c>
+      <c r="G154" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" s="4"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" t="s">
+        <v>345</v>
+      </c>
+      <c r="F155" t="s">
+        <v>360</v>
+      </c>
+      <c r="G155" t="s">
+        <v>397</v>
+      </c>
+      <c r="H155" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="4"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" t="s">
+        <v>346</v>
+      </c>
+      <c r="F156" t="s">
+        <v>361</v>
+      </c>
+      <c r="G156" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="4"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" t="s">
+        <v>347</v>
+      </c>
+      <c r="G157" t="s">
+        <v>399</v>
+      </c>
+      <c r="H157" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="4"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+      <c r="D158" s="4"/>
+      <c r="E158" t="s">
+        <v>348</v>
+      </c>
+      <c r="F158" t="s">
+        <v>106</v>
+      </c>
+      <c r="G158" t="s">
+        <v>400</v>
+      </c>
+      <c r="H158" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="4"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" t="s">
+        <v>85</v>
+      </c>
+      <c r="F159" t="s">
+        <v>362</v>
+      </c>
+      <c r="G159" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="4"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="F160" t="s">
+        <v>363</v>
+      </c>
+      <c r="G160" t="s">
+        <v>402</v>
+      </c>
+      <c r="H160" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="4"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="G161" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="4"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+      <c r="D162" s="4"/>
+      <c r="F162" t="s">
+        <v>109</v>
+      </c>
+      <c r="G162" t="s">
+        <v>404</v>
+      </c>
+      <c r="H162" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="4"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="G163" t="s">
+        <v>405</v>
+      </c>
+      <c r="H163" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="4"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="F164" t="s">
+        <v>364</v>
+      </c>
+      <c r="G164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="4"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="H165" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="4"/>
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="F166" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="4"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="H167" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="4"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="F168" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="4"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="F169" t="s">
+        <v>366</v>
+      </c>
+      <c r="H169" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="4"/>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="F170" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="4"/>
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="F171" t="s">
+        <v>368</v>
+      </c>
+      <c r="H171" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="4"/>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="4"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="F173" t="s">
+        <v>116</v>
+      </c>
+      <c r="H173" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="H174" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="4"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="F175" t="s">
+        <v>253</v>
+      </c>
+      <c r="H175" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="4"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" s="4"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="F177" t="s">
+        <v>369</v>
+      </c>
+      <c r="H177" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="4"/>
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" s="4"/>
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="H179" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" s="4"/>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="4"/>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="H181" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="4"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="4"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="H183" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>9</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E184" t="s">
+        <v>439</v>
+      </c>
+      <c r="F184" t="s">
+        <v>87</v>
+      </c>
+      <c r="G184" t="s">
+        <v>493</v>
+      </c>
+      <c r="H184" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" s="4"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" s="4"/>
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" t="s">
+        <v>441</v>
+      </c>
+      <c r="F186" t="s">
+        <v>479</v>
+      </c>
+      <c r="G186" t="s">
+        <v>494</v>
+      </c>
+      <c r="H186" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" s="4"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" s="4"/>
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" t="s">
+        <v>443</v>
+      </c>
+      <c r="F188" t="s">
+        <v>228</v>
+      </c>
+      <c r="G188" t="s">
+        <v>495</v>
+      </c>
+      <c r="H188" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" s="4"/>
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+      <c r="D189" s="4"/>
+      <c r="E189" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" s="4"/>
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+      <c r="D190" s="4"/>
+      <c r="E190" t="s">
+        <v>445</v>
+      </c>
+      <c r="F190" t="s">
+        <v>480</v>
+      </c>
+      <c r="G190" t="s">
+        <v>496</v>
+      </c>
+      <c r="H190" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" s="4"/>
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" s="4"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" t="s">
+        <v>447</v>
+      </c>
+      <c r="F192" t="s">
+        <v>91</v>
+      </c>
+      <c r="G192" t="s">
+        <v>497</v>
+      </c>
+      <c r="H192" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" s="4"/>
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" s="4"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" t="s">
+        <v>449</v>
+      </c>
+      <c r="F194" t="s">
+        <v>481</v>
+      </c>
+      <c r="G194" t="s">
+        <v>498</v>
+      </c>
+      <c r="H194" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" s="4"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" t="s">
+        <v>450</v>
+      </c>
+      <c r="F195" t="s">
+        <v>482</v>
+      </c>
+      <c r="H195" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" s="4"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" t="s">
+        <v>451</v>
+      </c>
+      <c r="F196" t="s">
+        <v>483</v>
+      </c>
+      <c r="G196" t="s">
+        <v>499</v>
+      </c>
+      <c r="H196" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" s="4"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" t="s">
+        <v>453</v>
+      </c>
+      <c r="F198" t="s">
+        <v>94</v>
+      </c>
+      <c r="G198" t="s">
+        <v>500</v>
+      </c>
+      <c r="H198" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" t="s">
+        <v>455</v>
+      </c>
+      <c r="F200" t="s">
+        <v>484</v>
+      </c>
+      <c r="G200" t="s">
+        <v>501</v>
+      </c>
+      <c r="H200" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" t="s">
+        <v>456</v>
+      </c>
+      <c r="F201" t="s">
+        <v>485</v>
+      </c>
+      <c r="H201" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" t="s">
+        <v>457</v>
+      </c>
+      <c r="G202" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" t="s">
+        <v>456</v>
+      </c>
+      <c r="F203" t="s">
+        <v>98</v>
+      </c>
+      <c r="H203" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" t="s">
+        <v>458</v>
+      </c>
+      <c r="G204" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" t="s">
+        <v>459</v>
+      </c>
+      <c r="F205" t="s">
+        <v>486</v>
+      </c>
+      <c r="H205" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" t="s">
+        <v>460</v>
+      </c>
+      <c r="F206" t="s">
+        <v>487</v>
+      </c>
+      <c r="G206" t="s">
+        <v>504</v>
+      </c>
+      <c r="H206" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" t="s">
+        <v>461</v>
+      </c>
+      <c r="F207" t="s">
+        <v>488</v>
+      </c>
+      <c r="H207" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" t="s">
+        <v>462</v>
+      </c>
+      <c r="G208" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" s="4"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" t="s">
+        <v>463</v>
+      </c>
+      <c r="F209" t="s">
+        <v>109</v>
+      </c>
+      <c r="H209" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" s="4"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" t="s">
+        <v>464</v>
+      </c>
+      <c r="G210" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" s="4"/>
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
+      <c r="E211" t="s">
+        <v>465</v>
+      </c>
+      <c r="F211" t="s">
+        <v>489</v>
+      </c>
+      <c r="H211" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" s="4"/>
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+      <c r="D212" s="4"/>
+      <c r="E212" t="s">
+        <v>466</v>
+      </c>
+      <c r="G212" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" t="s">
+        <v>467</v>
+      </c>
+      <c r="F213" t="s">
+        <v>249</v>
+      </c>
+      <c r="H213" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" s="4"/>
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" t="s">
+        <v>468</v>
+      </c>
+      <c r="G214" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" t="s">
+        <v>469</v>
+      </c>
+      <c r="F215" t="s">
+        <v>490</v>
+      </c>
+      <c r="H215" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" s="4"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" t="s">
+        <v>470</v>
+      </c>
+      <c r="G216" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" t="s">
+        <v>471</v>
+      </c>
+      <c r="F217" t="s">
+        <v>251</v>
+      </c>
+      <c r="H217" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" s="4"/>
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" t="s">
+        <v>472</v>
+      </c>
+      <c r="G218" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" t="s">
+        <v>473</v>
+      </c>
+      <c r="F219" t="s">
+        <v>491</v>
+      </c>
+      <c r="H219" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" s="4"/>
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+      <c r="D220" s="4"/>
+      <c r="E220" t="s">
+        <v>474</v>
+      </c>
+      <c r="G220" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" t="s">
+        <v>475</v>
+      </c>
+      <c r="F221" t="s">
+        <v>253</v>
+      </c>
+      <c r="H221" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" s="4"/>
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" t="s">
+        <v>476</v>
+      </c>
+      <c r="G222" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" t="s">
+        <v>477</v>
+      </c>
+      <c r="F223" t="s">
+        <v>492</v>
+      </c>
+      <c r="H223" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" s="4"/>
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" t="s">
+        <v>478</v>
+      </c>
+      <c r="G224" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A226" s="4"/>
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="G226" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A228" s="4"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="G228" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A230" s="4"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="G230" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A231" s="4"/>
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A232" s="4"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="G232" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A233" s="4"/>
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A234" s="4"/>
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="G234" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A235" s="4"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A236" s="4"/>
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+      <c r="D236" s="4"/>
+      <c r="G236" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A237" s="4"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A238" s="4"/>
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="G238" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A239" s="4"/>
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A240" s="4"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="G240" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A241" s="4"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A242" s="4"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="G242" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A243" s="4"/>
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A244" s="4"/>
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="G244" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A245" s="4"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A246" s="4"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="G246" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A247" s="4"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A248" s="4"/>
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="G248" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A249" s="4"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A250" s="4"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="G250" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A251" s="4"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="G252" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A253" s="4"/>
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A254" s="4"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="G254" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255" s="4"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256" s="4"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="G256" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" s="4"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" s="4"/>
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="G258" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" s="4"/>
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" s="4"/>
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="G260" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" s="4"/>
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" s="4"/>
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="G262" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" s="4"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" s="4"/>
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="G264" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" s="4">
+        <v>10</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E265" t="s">
+        <v>544</v>
+      </c>
+      <c r="F265" t="s">
+        <v>87</v>
+      </c>
+      <c r="G265" t="s">
+        <v>583</v>
+      </c>
+      <c r="H265" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" s="4"/>
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" t="s">
+        <v>545</v>
+      </c>
+      <c r="G266" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" s="4"/>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" t="s">
+        <v>546</v>
+      </c>
+      <c r="F267" t="s">
+        <v>571</v>
+      </c>
+      <c r="G267" t="s">
+        <v>585</v>
+      </c>
+      <c r="H267" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" s="4"/>
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" t="s">
+        <v>547</v>
+      </c>
+      <c r="G268" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" s="4"/>
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" t="s">
+        <v>548</v>
+      </c>
+      <c r="F269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G269" t="s">
+        <v>587</v>
+      </c>
+      <c r="H269" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" s="4"/>
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" t="s">
+        <v>549</v>
+      </c>
+      <c r="G270" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" s="4"/>
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+      <c r="D271" s="4"/>
+      <c r="E271" t="s">
+        <v>550</v>
+      </c>
+      <c r="F271" t="s">
+        <v>572</v>
+      </c>
+      <c r="G271" t="s">
+        <v>589</v>
+      </c>
+      <c r="H271" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" s="4"/>
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+      <c r="D272" s="4"/>
+      <c r="E272" t="s">
+        <v>551</v>
+      </c>
+      <c r="G272" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" s="4"/>
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+      <c r="D273" s="4"/>
+      <c r="E273" t="s">
+        <v>552</v>
+      </c>
+      <c r="F273" t="s">
+        <v>89</v>
+      </c>
+      <c r="G273" t="s">
+        <v>591</v>
+      </c>
+      <c r="H273" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" s="4"/>
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+      <c r="D274" s="4"/>
+      <c r="E274" t="s">
+        <v>553</v>
+      </c>
+      <c r="G274" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" s="4"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+      <c r="E275" t="s">
+        <v>554</v>
+      </c>
+      <c r="F275" t="s">
+        <v>573</v>
+      </c>
+      <c r="G275" t="s">
+        <v>593</v>
+      </c>
+      <c r="H275" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" s="4"/>
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" t="s">
+        <v>555</v>
+      </c>
+      <c r="G276" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" s="4"/>
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" t="s">
+        <v>556</v>
+      </c>
+      <c r="F277" t="s">
+        <v>235</v>
+      </c>
+      <c r="G277" t="s">
+        <v>595</v>
+      </c>
+      <c r="H277" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" s="4"/>
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+      <c r="D278" s="4"/>
+      <c r="E278" t="s">
+        <v>557</v>
+      </c>
+      <c r="G278" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" s="4"/>
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+      <c r="D279" s="4"/>
+      <c r="E279" t="s">
+        <v>558</v>
+      </c>
+      <c r="F279" t="s">
+        <v>574</v>
+      </c>
+      <c r="G279" t="s">
+        <v>597</v>
+      </c>
+      <c r="H279" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" s="4"/>
+      <c r="B280" s="4"/>
+      <c r="C280" s="4"/>
+      <c r="D280" s="4"/>
+      <c r="E280" t="s">
+        <v>559</v>
+      </c>
+      <c r="G280" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" s="4"/>
+      <c r="B281" s="4"/>
+      <c r="C281" s="4"/>
+      <c r="D281" s="4"/>
+      <c r="E281" t="s">
+        <v>560</v>
+      </c>
+      <c r="F281" t="s">
+        <v>91</v>
+      </c>
+      <c r="G281" t="s">
+        <v>599</v>
+      </c>
+      <c r="H281" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" s="4"/>
+      <c r="B282" s="4"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" t="s">
+        <v>561</v>
+      </c>
+      <c r="G282" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" s="4"/>
+      <c r="B283" s="4"/>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4"/>
+      <c r="E283" t="s">
+        <v>562</v>
+      </c>
+      <c r="F283" t="s">
+        <v>575</v>
+      </c>
+      <c r="G283" t="s">
+        <v>601</v>
+      </c>
+      <c r="H283" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" s="4"/>
+      <c r="B284" s="4"/>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4"/>
+      <c r="E284" t="s">
+        <v>563</v>
+      </c>
+      <c r="G284" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" s="4"/>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
+      <c r="E285" t="s">
+        <v>564</v>
+      </c>
+      <c r="F285" t="s">
+        <v>94</v>
+      </c>
+      <c r="G285" t="s">
+        <v>603</v>
+      </c>
+      <c r="H285" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" s="4"/>
+      <c r="B286" s="4"/>
+      <c r="C286" s="4"/>
+      <c r="D286" s="4"/>
+      <c r="E286" t="s">
+        <v>565</v>
+      </c>
+      <c r="G286" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" s="4"/>
+      <c r="B287" s="4"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" t="s">
+        <v>566</v>
+      </c>
+      <c r="F287" t="s">
+        <v>576</v>
+      </c>
+      <c r="G287" t="s">
+        <v>605</v>
+      </c>
+      <c r="H287" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" s="4"/>
+      <c r="B288" s="4"/>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4"/>
+      <c r="E288" t="s">
+        <v>567</v>
+      </c>
+      <c r="G288" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" s="4"/>
+      <c r="B289" s="4"/>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4"/>
+      <c r="E289" t="s">
+        <v>568</v>
+      </c>
+      <c r="F289" t="s">
+        <v>98</v>
+      </c>
+      <c r="G289" t="s">
+        <v>607</v>
+      </c>
+      <c r="H289" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" s="4"/>
+      <c r="B290" s="4"/>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4"/>
+      <c r="E290" t="s">
+        <v>569</v>
+      </c>
+      <c r="G290" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" s="4"/>
+      <c r="B291" s="4"/>
+      <c r="C291" s="4"/>
+      <c r="D291" s="4"/>
+      <c r="E291" t="s">
+        <v>570</v>
+      </c>
+      <c r="F291" t="s">
+        <v>577</v>
+      </c>
+      <c r="G291" t="s">
+        <v>609</v>
+      </c>
+      <c r="H291" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" s="4"/>
+      <c r="B292" s="4"/>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4"/>
+      <c r="F292" t="s">
+        <v>578</v>
+      </c>
+      <c r="G292" t="s">
+        <v>610</v>
+      </c>
+      <c r="H292" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" s="4"/>
+      <c r="B293" s="4"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="G293" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" s="4"/>
+      <c r="B294" s="4"/>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4"/>
+      <c r="F294" t="s">
+        <v>109</v>
+      </c>
+      <c r="G294" t="s">
+        <v>612</v>
+      </c>
+      <c r="H294" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" s="4"/>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="G295" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" s="4"/>
+      <c r="B296" s="4"/>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4"/>
+      <c r="F296" t="s">
+        <v>579</v>
+      </c>
+      <c r="G296" t="s">
+        <v>614</v>
+      </c>
+      <c r="H296" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" s="4"/>
+      <c r="B297" s="4"/>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4"/>
+      <c r="G297" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" s="4"/>
+      <c r="B298" s="4"/>
+      <c r="C298" s="4"/>
+      <c r="D298" s="4"/>
+      <c r="F298" t="s">
+        <v>249</v>
+      </c>
+      <c r="G298" t="s">
+        <v>616</v>
+      </c>
+      <c r="H298" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" s="4"/>
+      <c r="B299" s="4"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" s="4"/>
+      <c r="B300" s="4"/>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4"/>
+      <c r="F300" t="s">
+        <v>580</v>
+      </c>
+      <c r="H300" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" s="4"/>
+      <c r="B301" s="4"/>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" s="4"/>
+      <c r="B302" s="4"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="F302" t="s">
+        <v>251</v>
+      </c>
+      <c r="H302" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" s="4"/>
+      <c r="B303" s="4"/>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" s="4"/>
+      <c r="B304" s="4"/>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4"/>
+      <c r="F304" t="s">
+        <v>581</v>
+      </c>
+      <c r="H304" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" s="4"/>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" s="4"/>
+      <c r="B306" s="4"/>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4"/>
+      <c r="F306" t="s">
+        <v>253</v>
+      </c>
+      <c r="H306" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" s="4"/>
+      <c r="B307" s="4"/>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" s="4"/>
+      <c r="B308" s="4"/>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="F308" t="s">
+        <v>582</v>
+      </c>
+      <c r="H308" t="s">
+        <v>633</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A265:A308"/>
+    <mergeCell ref="B265:B308"/>
+    <mergeCell ref="C265:C308"/>
+    <mergeCell ref="D265:D308"/>
+    <mergeCell ref="A125:A183"/>
+    <mergeCell ref="B125:B183"/>
+    <mergeCell ref="C125:C183"/>
+    <mergeCell ref="D125:D183"/>
+    <mergeCell ref="A184:A264"/>
+    <mergeCell ref="B184:B264"/>
+    <mergeCell ref="C184:C264"/>
+    <mergeCell ref="D184:D264"/>
+    <mergeCell ref="A7:A65"/>
+    <mergeCell ref="B7:B65"/>
+    <mergeCell ref="C7:C65"/>
+    <mergeCell ref="D7:D65"/>
+    <mergeCell ref="A66:A124"/>
+    <mergeCell ref="B66:B124"/>
+    <mergeCell ref="C66:C124"/>
+    <mergeCell ref="D66:D124"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data_raw/medgemma.xlsx
+++ b/data_raw/medgemma.xlsx
@@ -699,7 +699,7 @@
           <t>CHIEF COMPLAINT
   Left wrist and hand pain.
   HISTORY OF PRESENT ILLNESS
-  George Lewis is a pleasant 57-year-old male who presents to the clinic today for evaluation of left wrist and hand pain. He reports an onset of a few months ago but denies any specific injury. However, the patient notes he often engages in repetitive motions while performing his work duties. His symptoms are worse at night, and he wakes with numbness in the bilateral hands. He experiences numbness in all fingers, but states it is the most noticeable in the left thumb and index finger. He affirms intermittent numbness in the left little finger. For relief, he shakes his hands upon waking. The patient also experiences weakness in his left hand. He reports he drops objects and explains â€œI have a hard time feeling it.â€_x009d_
+  George Lewis is a pleasant 57-year-old male who presents to the clinic today for evaluation of left wrist and hand pain. He reports an onset of a few months ago but denies any specific injury. However, the patient notes he often engages in repetitive motions while performing his work duties. His symptoms are worse at night, and he wakes with numbness in the bilateral hands. He experiences numbness in all fingers, but states it is the most noticeable in the left thumb and index finger. He affirms intermittent numbness in the left little finger. For relief, he shakes his hands upon waking. The patient also experiences weakness in his left hand. He reports he drops objects and explains â€œI have a hard time feeling it.â€
   MEDICAL HISTORY
   The patient denies a history of rheumatoid arthritis.
   SOCIAL HISTORY
@@ -2205,7 +2205,11 @@
   The patient will follow up with me after his MRI for results.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>test1_aci_asrcorr</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>[ڈاکٹر] ہی برانڈن، آپ کو آج یہاں دیکھ کر خوشی ہوئی۔ مجھے آپ کے ریکارڈ میں نظر آیا ہے کہ آپ کو گردن میں کچھ درد ہو رہا ہے۔ کیا آپ مجھے بتا سکتے ہیں کہ کیا ہوا؟
@@ -2400,7 +2404,11 @@
   The patient will follow up with me in 2 weeks to assess his progress and for possible repeat debridement. He has been advised to call the office if his symptoms worsen and we will get him in sooner, however, if he starts to develop a fever or necrosis he has been instructed to go to the ER.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>test1_aci_asrcorr</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>[ڈاکٹر] ہی گریگوری، آج آپ سے مل کر خوشی ہوئی۔ تو میرے نوٹس دیکھیں۔ مجھے پتہ چلا ہے کہ آپ یہاں آئے ہیں کیونکہ آپ کو ٹھیک نہ ہونے والا پاؤں کا السر ہے۔ کیا آپ مجھے بتا سکتے ہیں کہ آپ کی حالت کیسی ہے؟ یہ کب سے ہے؟ اس کے ساتھ کیا مسئلہ ہے؟

--- a/data_raw/medgemma.xlsx
+++ b/data_raw/medgemma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10912,6 +10912,1957 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>g_aci_051</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>virtscribe</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VS036</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[doctor] tyler nelson , date of birth : 3 , 6 , 1949 , mrn , 385729 . he is here today for ongoing management of rheumatoid arthritis . last time he was here , he received a steroid injection in his right knee . hello mr. nelson , how are you ?
+[patient] um , about the same as last time . my knee is still swollen .
+[doctor] that was your right knee , correct ? i take it the injection did n't help ?
+[patient] it did , maybe for a couple of weeks .
+[doctor] that's it ? and is it still painful ?
+[patient] yeah , it's pretty painful , and now the whole leg is getting swollen .
+[doctor] okay , what would you say your pain level is ?
+[patient] i mean , right now it's about a 3 or so , but , typically on a normal day it's around 6 .
+[doctor] okay , and its been swollen like that for how long now ?
+[patient] since i was last here a couple weeks after that . so about , maybe two months now .
+[doctor] okay , but before it was just the knee ?
+[patient] yeah , the whole thing was n't swollen like this , but i tried to wear compression socks a lot of the time , but it has n't been helping .
+[doctor] okay , okay , so that has n't been working for you ?
+[patient] i mean , it helps to some degree , but it's still swollen , especially around the knee .
+[doctor] hmm . has it been keeping you from doing things during the day ?
+[patient] well , i slowed down a little bit , and i found a few things too fast . but when it really hurts , is when i've been sitting for a while , and then i have to try and get up . i'm so stiff getting up i have to use a cane to get my bearings . i mean , after a little bit , it loosens up , but that first getting up is real difficult .
+[doctor] yeah , i can see , that makes sense . have you been taking your medication regularly ? your on xeljanz right ?
+[patient] yeah , the xr , i think its , uhm , 11 milligrams a day ? yeah , but i'm taking it everyday , and i'm also taking celebrex which i started maybe 2 months ago .
+[doctor] yes , the 200mgs daily . how's that working for you ?
+[patient] pretty good , up until it started swelling again .
+[doctor] okay , well come sit over here , and if you could take of your socks and shoes , and we'll take a look at your knee . and just to let you know , i have a service now that writes my note about the visit , so you'll hear me call things out and describe what i see fully .
+[patient] okay , gotcha .
+[doctor] right , so let's check your leg . can you straighten it , and does it hurt ?
+[patient] yeah , when i try to straighten it all the way it does .
+[doctor] okay , range of motion slightly diminished . i'm going to press here , okay ? and how about here , hmm , i see some pitting around the knee and ankle . normal capillary refill in the toes . does any of this area hurt ?
+[patient] um , just kinda sore , like an old bruise ?
+[doctor] so , i can feel that the knee is hot , and that means there's something going on , like some inflammation . so we can give you another steroid injection for that . i also want to get an x-ray of that knee , so we can see where all the swelling is coming from .
+[patient] yeah . let's do it . sounds go to me .
+[doctor] okay , and did we set up physical therapy for you last time you were here ?
+[patient] yeah , that was some years ago , but that was the other knee .
+[doctor] okay . so i think we'll set that up for you now . we'll also do an x-ray on that knee . i can send you for a physical therapy , and if nothing is helping , then we really might need to get a surgery consult to see what we can do with that knee .
+[patient] okay , sounds like a plan .
+[doctor] all right , so for today we'll go ahead and we'll give you the steroid shot . i'll try to see if i can get a little bit of fluid out before i do give you the injection . there might be no fluid , but i'll see if i can get anything out regardless .
+[patient] okay . and that's a procedure you're going to do right now ?
+[doctor] yep . once we're done talking here , and as far as the edema in your legs , uh , we'll take an x-ray to look for the cause , but there is a lot you can do as well . the compression socks are a good start . um , and also , do you eat a lot of salt ?
+[patient] i mean , um , i mean i love my salty snacks .
+[doctor] okay . well , salt does have a tendency to make your body hold on to water , reducing your salt intake could help with some of the swelling . you can also prop your feet up any time you get a chance , especially at night . and have you talked to your private care doctor about this at all ?
+[patient] no , i figured i would just come here first .
+[doctor] okay . so i think , try some of those things out first , and if it does n't help , definitely make an appointment with them , also , as you know , xeljanz is a high-risk medication , so we need to check your cmp levels every couple of months . so this time your levels are good , but do make sure to make an appointment for the blood work for next time .
+[patient] all right . i can do that . thank you so much doc .
+[doctor] yes , of course . well let me go ahead and get supplies and we'll get to work on your knee .
+[doctor] fluid aspiration and steroid injection procedure . the risks , benefits , and alternatives were explained . the risks of steroid injection were explained , including , but not limited to : hypopigmentation , soft tissue atrophy , tendon ruptures , and transient hypoglycemia among others . verbal consent was attained . the right knee was , uh , um , accessed through the lateral approach with 3 milliliters of initially clear fluid , then bloo- blood tinged fluid . then the right knee was prepped in a standard-fashion . the right knee was injected with 80 milligrams of triamcinolone , and one milliliter of lidocaine . the procedure was tolerated well , with no complications . post-procedure instructions were given . patient will follow up with his pcp . thank you .</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+Rheumatoid arthritis management.
+HISTORY OF PRESENT ILLNESS
+Mr. Nelson is a 72-year-old male who presents today for ongoing management of rheumatoid arthritis. He was last seen by me on 03/04/2021, where he received a steroid injection to his right knee. He continues to experience right knee pain and swelling. The pain level is 6/10. He notes when he stands after he has been sitting for a while, he has to use a cane to "get his bearings." The injection he received to the right knee at the last visit was only beneficial for a few weeks. The patient notes whole right leg swelling since the last visit. He usually wears support hose, which helps to some degree. He has not attended physical therapy.
+PHYSICAL EXAM
+Musculoskeletal
+Lower right extremity: Swollen right knee, slightly reduced range of motion. Skin warm to touch. Lower right leg pits with pressure.
+PROCEDURE
+Fluid aspiration and Steroid injection.
+Risks, benefits, and alternatives were explained. The risks of steroid injection were explained, including but not limited to, hypopigmentation, soft tissue atrophy, tendon ruptures, and transient hyperglycemia among others. Verbal consent was obtained. The right knee was accessed through the lateral approach with 3 mL of initially clear fluid then blood-tinged fluid. Then the right knee was prepped in a standard fashion. The right knee was injected with 80 mg triamcinolone and 1 mL lidocaine. The procedure was tolerated well with no complications. Post procedure instructions were given.
+ASSESSMENT
+â€¢ Rheumatoid arthritis management.
+â€¢ High risk medication use.
+â€¢ Right knee pain.
+â€¢ Lower extremity pitting edema.
+PLAN
+Rheumatoid arthritis management.
+The patient will continue Xeljanz XR 11 mg daily. He will also continue Celebrex 200 mg daily.
+High-risk medication use.
+The patient is currently on the high-risk medication Xeljanz. We will check his CMP levels and monitor periodically every couple of months.
+Right knee pain.
+He has right knee pain and swelling, with pain level 6/10. On exam today, the right knee continues to be hot, which is ongoing inflammation. We performed a fluid aspiration of the right knee today, see procedure note above. A steroid injection to the right knee was given today, see procedure note above. We will arrange for x-ray of the right knee and refer his to physical therapy.
+Lower extremity pitting edema.
+The patient notes whole right leg swelling since the last visit. He usually wears support hose, which helps to some degree. He has not seen his PCP. We discussed compression stockings, elevate feet, and a low salt diet. He will check with his PCP for further instructions.</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>test2_virtscribe_humantrans</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ٹائلر نیلسن، تاریخ پیدائش: 3، 6، 1949، MRN، 385729۔ وہ آج ریمیٹائڈ آرتھرائٹس کے مسلسل علاج کے لیے یہاں آئے ہیں۔ جب وہ آخری بار یہاں آئے تھے، تو انھیں اپنے دائیں گھٹنے میں سٹیرائڈ کا انجیکشن لگایا گیا تھا۔ ہیلو مسٹر نیلسن، آپ کیسے ہیں؟
+[مریض] امم، گزشتہ بار کی طرح ہی۔ میرا گھٹنا اب بھی سوجا ہوا ہے۔
+[ڈاکٹر] یہ آپ کا دائیں گھٹنا تھا، درست؟ کیا آپ کہہ سکتے ہیں کہ انجیکشن نے مدد نہیں کی؟
+[مریض] اس نے کی، شاید دو ہفتوں تک۔
+[ڈاکٹر] بس یہی؟ اور کیا یہ اب بھی تکلیف دہ ہے؟
+[مریض] ہاں، یہ بہت تکلیف دہ ہے، اور اب پورا پاؤں سوج رہا ہے۔
+[ڈاکٹر] ٹھیک ہے، آپ درد کی سطح کو کیا کہیں گے؟
+[مریض] میرا مطلب ہے، ابھی یہ تقریباً 3 کے آس پاس ہے، لیکن، عام دنوں میں یہ تقریباً 6 کے آس پاس ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اور یہ کب سے سوجا ہوا ہے؟
+[مریض] جب سے میں آخری بار یہاں آیا تھا، دو ہفتوں بعد۔ تو تقریباً، شاید دو مہینے ہو گئے ہیں۔
+[ڈاکٹر] ٹھیک ہے، لیکن اس سے پہلے صرف گھٹنا تھا؟
+[مریض] ہاں، پورا پاؤں اس طرح سوجا نہیں تھا، لیکن میں زیادہ تر وقت کمپریشن موزے پہننے کی کوشش کرتا تھا، لیکن اس سے کوئی مدد نہیں ہوئی۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، تو یہ آپ کے لیے کام نہیں کر رہا ہے؟
+[مریض] میرا مطلب ہے، یہ کچھ حد تک مدد کرتا ہے، لیکن یہ پھر بھی سوجا ہوا ہے، خاص طور پر گھٹنے کے ارد گرد۔
+[ڈاکٹر] ہمم۔ کیا اس نے آپ کو دن کے دوران کچھ کرنے سے روکا ہے؟
+[مریض] ٹھیک ہے، میں تھوڑا سست ہو گیا ہوں، اور میں نے کچھ چیزیں بہت تیز پائی ہیں۔ لیکن جب واقعی تکلیف ہوتی ہے، تو یہ تب ہوتا ہے جب میں کچھ دیر بیٹھا رہتا ہوں، اور پھر مجھے اٹھنے کی کوشش کرنی پڑتی ہے۔ میں اٹھنے میں اتنا سخت ہوں کہ مجھے اپنا توازن برقرار رکھنے کے لیے کینے کا استعمال کرنا پڑتا ہے۔ میرا مطلب ہے، تھوڑی دیر بعد، یہ کھل جاتا ہے، لیکن وہ پہلی اٹھنا واقعی مشکل ہے۔
+[ڈاکٹر] ہاں، میں دیکھ سکتا ہوں، یہ سمجھ میں آتا ہے۔ کیا آپ اپنی دوائیں باقاعدگی سے لے رہے ہیں؟ آپ Xeljanz پر ہیں، درست؟
+[مریض] ہاں، XR، مجھے لگتا ہے کہ یہ، امم، 11 ملی گرام روزانہ ہے؟ ہاں، لیکن میں اسے روزانہ لے رہا ہوں، اور میں Celebrex بھی لے رہا ہوں جسے میں شاید 2 ماہ پہلے شروع کیا تھا۔
+[ڈاکٹر] ہاں، 200 ملی گرام روزانہ۔ یہ آپ کے لیے کیسا کام کر رہا ہے؟
+[مریض] کافی اچھا، جب تک کہ یہ دوبارہ سوجنا شروع نہیں ہوا۔
+[ڈاکٹر] ٹھیک ہے، تو یہاں بیٹھ جائیں، اور اگر آپ اپنے موزے اور جوتے اتار سکتے ہیں، تو ہم آپ کے گھٹنے کو دیکھیں گے۔ اور آپ کو صرف یہ معلوم کرنے کے لیے کہ، میرے پاس اب ایک سروس ہے جو میری وزٹ کے نوٹ لکھتی ہے، لہذا آپ مجھے چیزیں پکارتے ہوئے سنیں گے اور جو میں دیکھتا ہوں اسے پوری طرح بیان کروں گا۔
+[مریض] ٹھیک ہے، سمجھ گیا۔
+[ڈاکٹر] ٹھیک ہے، تو آئیے آپ کے پاؤں کی جانچ کریں۔ کیا آپ اسے سیدھا کر سکتے ہیں، اور کیا اس سے درد ہوتا ہے؟
+[مریض] ہاں، جب میں اسے پوری طرح سیدھا کرنے کی کوشش کرتا ہوں تو ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، حرکت کی حد تھوڑی کم ہے۔ میں یہاں دباؤ ڈالوں گا، ٹھیک ہے؟ اور یہاں کیسے ہے، ہمم، مجھے گھٹنے اور ٹخنے کے ارد گرد کچھ پیٹنگ نظر آرہی ہے۔ انگلیوں میں کیپیلری ریفل نارمل ہے۔ کیا اس علاقے کا کوئی حصہ درد کرتا ہے؟
+[مریض] امم، بس تھوڑا درد، جیسے پرانا چوٹ؟
+[ڈاکٹر] تو، میں محسوس کر سکتا ہوں کہ گھٹنا گرم ہے، اور اس کا مطلب ہے کہ کچھ ہو رہا ہے، جیسے کہ کچھ سوزش۔ تو ہم اس کے لیے آپ کو ایک اور سٹیرائڈ انجیکشن دے سکتے ہیں۔ میں اس گھٹنے کا ایکس-رے بھی لینا چاہتا ہوں، تاکہ ہم دیکھ سکیں کہ ساری سوجن کہاں سے آ رہی ہے۔
+[مریض] ہاں۔ آئیے کریں گے۔ مجھے یہ اچھا لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اور کیا ہم نے آپ کے آخری دورے کے وقت آپ کے لیے فزیکل تھیراپی کا اہتمام کیا تھا؟
+[مریض] ہاں، وہ کچھ سال پہلے تھا، لیکن وہ دوسرا گھٹنا تھا۔
+[ڈاکٹر] ٹھیک ہے۔ تو مجھے لگتا ہے کہ ہم اب آپ کے لیے اس کا اہتمام کریں گے۔ ہم اس گھٹنے کا ایکس-رے بھی کریں گے۔ میں آپ کو فزیکل تھیراپی کے لیے بھیج سکتا ہوں، اور اگر کچھ مدد نہیں کر رہا ہے، تو ہمیں واقع میں اس گھٹنے کے لیے سرجری کنسلٹ حاصل کرنے کی ضرورت پڑ سکتی ہے۔
+[مریض] ٹھیک ہے، یہ ایک منصوبہ لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے، تو آج کے لیے ہم آگے بڑھیں گے اور آپ کو سٹیرائڈ شاٹ دیں گے۔ میں انجیکشن دینے سے پہلے تھوڑا سا سیال نکالنے کی کوشش کروں گا۔ ہو سکتا ہے کوئی سیال نہ ہو، لیکن میں اس کے باوجود کچھ بھی نکالنے کی کوشش کروں گا۔
+[مریض] ٹھیک ہے۔ اور کیا یہ ایک طریقہ کار ہے جو آپ ابھی کرنے جا رہے ہیں؟
+[ڈاکٹر] ہاں۔ جب ہم یہاں بات کرنا ختم کر لیں گے، اور جہاں تک آپ کے پاؤں میں سوزش کا تعلق ہے، ہم وجہ دیکھنے کے لیے ایکس-رے لیں گے، لیکن آپ بہت کچھ کر سکتے ہیں۔ کمپریشن موزے ایک اچھی شروعات ہیں۔ امم، اور یہ بھی، کیا آپ زیادہ نمک کھاتے ہیں؟
+[مریض] میرا مطلب ہے، امم، میرا مطلب ہے کہ مجھے اپنے نمکین ناشتے پسند ہیں۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے، نمک واقع میں آپ کے جسم کو پانی ধরে رکھنے کا باعث بنتا ہے، نمک کی مقدار کو کم کرنے سے سوجن میں کچھ مدد مل سکتی ہے۔ آپ اپنے پاؤں کو کسی بھی وقت اٹھا بھی سکتے ہیں، خاص طور پر رات میں۔ اور کیا آپ نے اس بارے میں اپنے پرائیویٹ کیئر ڈاکٹر سے بات کی ہے؟
+[مریض] نہیں، میں نے سوچا کہ میں پہلے یہاں آؤں گا۔
+[ڈاکٹر] ٹھیک ہے۔ تو میں سوچتا ہوں، پہلے ان چیزوں کو آزمائیں، اور اگر یہ مدد نہیں کرتا ہے، تو یقینی طور پر ان سے اپائنٹمنٹ لیں، نیز، جیسا کہ آپ جانتے ہیں، Xeljanz ایک اعلیٰ خطرے والی دوا ہے، لہذا ہمیں ہر چند مہینوں میں آپ کے CMP لیولز کی جانچ کرنے کی ضرورت ہے۔ تو اس وقت آپ کے لیولز ٹھیک ہیں، لیکن اگلے دورے کے لیے بلڈ ورک کے لیے اپائنٹمنٹ لینا یقینی بنائیں۔
+[مریض] ٹھیک ہے۔ میں وہ کر سکتا ہوں۔ بہت بہت شکریہ ڈاکٹرم۔
+[ڈاکٹر] ہاں، بالکل۔ ٹھیک ہے، آئیے میں سامان لے کر آؤں اور ہم آپ کے گھٹنے پر کام شروع کریں۔
+[ڈاکٹر] سیال کی خواہش اور سٹیرائڈ انجیکشن کا طریقہ کار۔ خطرات، فوائد، اور متبادلوں کی وضاحت کی گئی۔ سٹیرائڈ انجیکشن کے خطرات کی وضاحت کی گئی، بشمول، لیکن ان تک محدود نہیں: ہائپوپیگمینٹیشن، سافٹ ٹشو ایٹروفی، ٹینڈن رپچرز، اور دیگر میں عارضی ہائپوگلائسینیا۔ زبانی رضامندی حاصل کی گئی۔ دائیں گھٹنے کو، امم، امم، لیٹرل اپروچ کے ذریعے 3 ملی لیٹر کے ابتدائی طور پر صاف سیال، پھر بلو- خون ملے ہوئے سیال کے ساتھ رسائی حاصل کی گئی۔ پھر دائیں گھٹنے کو معیاری فیشن میں تیار کیا گیا۔ دائیں گھٹنے میں 80 ملی گرام ٹرائیامسولون اور ایک ملی لیٹر لائیڈوکین کا انجیکشن لگایا گیا۔ طریقہ کار اچھی طرح سے برداشت کیا گیا، کوئی پیچیدگیاں نہیں تھیں۔ طریقہ کار کے بعد ہدایات دی گئیں۔ مریض اپنے PCP کے ساتھ فالو اپ کرے گا۔ شکریہ۔</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ
+روماتوائڈ آرتھرائٹس کا انتظام۔
+موجودہ بیماری کی تاریخ
+مسٹر نیلسن ایک 72 سالہ مرد ہیں جو روماتوائڈ آرتھرائٹس کے مسلسل انتظام کے لیے آج پیش ہوئے ہیں۔ انہیں آخری بار 03/04/2021 کو دیکھا گیا تھا، جہاں انہیں دائیں گھٹنے میں سٹیرائڈ کا انجیکشن لگایا گیا تھا۔ انہیں دائیں گھٹنے میں درد اور سوجن کا سامنا جاری ہے۔ درد کی سطح 6/10 ہے۔ انہوں نے نوٹ کیا کہ جب وہ کچھ دیر بیٹھنے کے بعد کھڑے ہوتے ہیں، تو انہیں "اپنے آپ کو سنبھالنے" کے لیے کین کا استعمال کرنا پڑتا ہے۔ آخری دورے میں دائیں گھٹنے میں لگایا گیا انجیکشن صرف چند ہفتوں تک فائدہ مند رہا۔ مریض نے آخری دورے کے بعد سے پورے دائیں پاؤں میں سوجن نوٹ کی۔ وہ عام طور پر سپورٹ ہوس پہنتے ہیں، جو کچھ حد تک مدد کرتی ہے۔ وہ فزیکل تھیراپی میں شامل نہیں ہوئے۔
+جسمانی امتحان
+عضلاتی ہاضمہ
+نیچلا دایاں عضو: سوجا ہوا دایاں گھٹنا، تھوڑی کم حد حرکت۔ جلد چھونے پر گرم ہے۔ دایاں نچلا پاؤں دباؤ سے پیٹ جاتا ہے۔
+عمل
+مائع نکالنا اور سٹیرائڈ انجیکشن۔
+خطرات، فوائد اور متبادلوں کی وضاحت کی گئی۔ سٹیرائڈ انجیکشن کے خطرات کی وضاحت کی گئی، بشمول لیکن ان تک محدود نہیں، ہائپوپیگمنٹیشن، نرم بافتوں کا سکڑنا، ٹینڈون پھٹنا، اور عارضی ہائیپرگلیسمیا۔ زبانی رضامندی حاصل کی گئی۔ دائیں گھٹنے تک لیٹرل اپروچ کے ذریعے 3 ملی لیٹر پہلے صاف مائع پھر خون ملے ہوئے مائع کے ساتھ رسائی حاصل کی گئی۔ پھر دائیں گھٹنے کو معیاری طریقے سے تیار کیا گیا۔ دائیں گھٹنے میں 80 ملی گرام ٹرائیامسینولون اور 1 ملی لیٹر لائیڈوکین انجیکٹ کیا گیا۔ عمل اچھی طرح سے برداشت کیا گیا اور کوئی پیچیدگیاں نہیں تھیں۔ طریقہ کار کے بعد کی ہدایات دی گئیں۔
+تشخیص
+• روماتوائڈ آرتھرائٹس کا انتظام۔
+• زیادہ خطرہ والی دوائیوں کا استعمال۔
+• دایاں گھٹنے کا درد۔
+• نچلے عضو میں پیٹنگ ایڈیمہ۔
+ منصوبہ
+روماتوائڈ آرتھرائٹس کا انتظام۔
+مریض روزانہ Xeljanz XR 11 mg جاری رکھیں گے۔ وہ روزانہ Celebrex 200 mg بھی جاری رکھیں گے۔
+ زیادہ خطرہ والی دوائیوں کا استعمال۔
+مریض فی الحال زیادہ خطرہ والی دوا Xeljanz پر ہیں۔ ہم ان کے CMP لیول چیک کریں گے اور ہر چند مہینوں میں وقتاً فوقتاً نگرانی کریں گے۔
+دایاں گھٹنے کا درد۔
+انہیں دایاں گھٹنے کا درد اور سوجن ہے، درد کی سطح 6/10 ہے۔ آج کے امتحان پر، دائیں گھٹنا گرم رہتا ہے، جو مسلسل سوزش ہے۔ آج دائیں گھٹنے کا مائع نکالنے کا عمل کیا گیا، اوپر طریقہ کار نوٹ دیکھیں۔ آج دائیں گھٹنے میں سٹیرائڈ انجیکشن لگایا گیا، اوپر طریقہ کار نوٹ دیکھیں۔ ہم دائیں گھٹنے کا ایکس-رے کروانے کا انتظام کریں گے اور ان کو فزیکل تھیراپی کے لیے ریفر کریں گے۔
+نچلے عضو میں پیٹنگ ایڈیمہ۔
+مریض نے آخری دورے کے بعد سے پورے دائیں پاؤں میں سوجن نوٹ کی۔ وہ عام طور پر سپورٹ ہوس پہنتے ہیں، جو کچھ حد تک مدد کرتی ہے۔ وہ اپنے PCP سے نہیں ملے ہیں۔ ہم نے کمپریشن اسٹاکنگز، پاؤں اٹھانے اور کم نمک والے کھانے پر بات کی۔ وہ مزید ہدایات کے لیے اپنے PCP سے رابطہ کریں گے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>g_aci_052</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>virtassist</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>VA040</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[doctor] thanks , rachel . nice , nice to meet you .
+ [patient] yeah .
+ [doctor] um , as my nurse told you , we're using dax . so i'm just gon na tell dax a little bit about you .
+ [patient] mm-hmm .
+ [doctor] so rachel is a 48-year-old female here for shortness of breath . she has a history of depression , smoking , and chronic back pain . so tell me about this shortness of breath .
+ [patient] okay . so there are times when i'm either doing very , very mild exercises or just walking , even if i'm just walking up , you know , my driveway , i find myself palpitating a lot , and there's a little bit of shortness of breath .
+ [doctor] mm-hmm .
+ [patient] i do n't know if it's got to do with the back pain , you know , whether that gets triggered as well at the same time .
+ [doctor] right .
+ [patient] but definitely i feel it happens more often lately .
+ [doctor] okay . and anything else change recently ? like , have you changed lifestyle , like you're exercising more than you used to , having any allergies , anything like that ?
+ [patient] probably exercising more to get rid of the covid 15 .
+ [doctor] the covid 15 . yeah . now last time i saw you , you were smoking two packs a day . how much are you smoking now ?
+ [patient] um , it's gone down quite a bit because , yeah , we said we have to make some , you know , changes as you get older .
+ [doctor] yeah .
+ [patient] so i would say it's probably , um , maybe , maybe a couple ... probably a coup- i do n't know . probably once or day or something .
+ [doctor] just couple cigarettes a day ?
+ [patient] probably once a day , yeah .
+ [doctor] we're getting close .
+ [patient] yeah .
+ [doctor] that's awesome .
+ [patient] mm-hmm .
+ [doctor] that's great news . um , and then how's your depression doing ?
+ [patient] i have my moments .
+ [doctor] yeah .
+ [patient] there are some days when i feel , you know , i wake up and everything was great .
+ [doctor] uh- .
+ [patient] and then there are times , i do n't , i do n't know whether it's got to do with the weather or what else kind of triggers it .
+ [doctor] yeah .
+ [patient] there are some days when i feel extremely low .
+ [doctor] okay . and you had been taking the effexor for your depression . are you still taking that ?
+ [patient] yes , i am .
+ [doctor] okay , great . and then , um the chronic back pain , we've been giving you the gabapentin neurontin for that . is that helping control the pain ?
+ [patient] i think it is .
+ [doctor] yeah .
+ [patient] it is ... it's definitely , um , i feel better .
+ [doctor] uh- .
+ [patient] but it does come every now and then .
+ [doctor] right . what do you do when it's really bad ?
+ [patient] um , i try to just get as much rest as i can .
+ [doctor] okay . and you had talked about doing yoga . are you doing yoga anymore ?
+ [patient] i wish i said yes , but i have n't really made it a habit .
+ [doctor] okay . okay . well , um , you know , said ... you said you were coming in with shortness of breath , so we sent you to get some pulmonary function tests .
+ [patient] mm-hmm .
+ [doctor] so let's just look at those . hey , dragon , show me the pulmonary function tests . okay , so it looks like ... , it's interesting . it says that you might be having a little bit of asthma or , uh , copd . and if you are , we'll talk about that .
+ [patient] mm-hmm .
+ [doctor] let's look at our x-ray . hey , dragon , show me the most recent x-ray . okay , i said it wrong . hey , dragon , show me the most recent chest x-ray . okay , this is interesting . your ... kind of your diaphragm is a little bit flatter , and we'll see that in some , uh , copd , which happens with smokers often . so let's just do a quick physical exam . i know my nurse did the review of systems with you . is there anything else bothering you that we need to talk about today ?
+ [patient] no other issues .
+ [doctor] okay . great . let's do the exam . all right , so your physical exam looks pretty normal other than you've got kind of these mild wheezes in all your lung fields . and so i think you do have copd from your pulmonary function tests , your x-ray , and that . so i'm gon na diagnose you with copd . chronic obstructive pulmonary disease . it means you're not able to exhale appropriately .
+ [patient] mm-hmm .
+ [doctor] so we're gon na put you on a medicine called combivent . okay , you're gon na do two puffs twice a day . it's gon na help open up your lungs . it's an inhaler .
+ [patient] mm-hmm .
+ [doctor] i'm also gon na prescribe albuterol , which you use when you get really short of breath . it's like a rescue thing .
+ [patient] mm-hmm .
+ [doctor] um , and then i'm gon na prescribe some steroids to help , also some prednisone . so let me just order those .
+ [patient] okay .
+ [doctor] hey , dragon , order combivent , uh , two puffs twice a day . order albuterol , two puffs as needed . and order , uh , prednisone uh taper pack . okay , so and then it sounds like your depression's stable , so we're not gon na change anything . you're gon na keep taking the effexor . um , do yoga for depression and your back pain , so for your back pain , stay on the neurontin , and we just wo n't do anything different . any questions for me .
+ [patient] no , i think this is good . thank you .
+ [doctor] perfect . hey , dragon , finalize the note . why do n't you ...</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Shortness of breath.
+ HISTORY OF PRESENT ILLNESS
+ The patient is a 48-year-old female who presents for shortness of breath. She has a history of depression, smoking and chronic back pain.
+ The patient reports shortness of breath with mild exercise and walking. She also notes some palpitations at times. She is not sure if it is due to her back pain or not. The patient states she has been exercising more. She continues to smoke but has decreased from two packs a day down to a couple of cigarettes daily.
+ Regarding her depression, the patient feels that it is well managed on Effexor.
+ Regarding her chronic back pain, the patient has been taking Neurontin, which she states is helping control her pain. She states she tries to get as much rest as she can. She is no longer doing yoga as she has not made it a habit.
+ REVIEW OF SYSTEMS
+ â€¢ Cardiovascular: Endorses dyspnea on exertion. Endorses palpitations.
+ â€¢ Respiratory: Endorses shortness of breath.
+ â€¢ Musculoskeletal: Endorses back pain.
+ â€¢ Integumentary:
+ â€¢ Psychiatric: Endorses depression.
+ PHYSICAL EXAMINATION
+ â€¢ Respiratory: Mild wheezes bilaterally.
+ RESULTS
+ Pulmonary function test demonstrates mild asthma and the appearance of COPD.
+ X-ray of the chest demonstrates flattening of the diaphragm which is consistent with COPD.
+ ASSESSMENT AND PLAN
+ COPD.
+ â€¢ Medical Reasoning: The patient presents today with shortness of breath with exertion. Her pulmonary function tests suggest asthma or COPD and her most recent chest x-ray and physical examination today are also consistent with COPD.
+ â€¢ Patient Education and Counseling: I counseled the patient on the importance of smoking cessation.
+ â€¢ Medical Treatment: We will start the patient on Combivent, 2 puffs twice a day. I will also prescribe an albuterol inhaler, 2 puffs as needed, and a prednisone taper pack.
+ Depression.
+ â€¢ Medical Reasoning: It sounds like her depression is stable, so we will not change anything at this time.
+ â€¢ Patient Education and Counseling: She will keep taking the Effexor. I encouraged her to practice yoga for depression relief as well as her back pain.
+ Chronic back pain.
+ â€¢ Medical Reasoning: The patient says she is doing well on Neurontin with only occasional exacerbation of the pain.
+ â€¢ Medical Treatment: She can continue Neurontin as is. I also encouraged her to practice yoga for her back pain.
+ Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] شکریہ، راچیل۔ بہت اچھا، آپ سے مل کر خوشی ہوئی۔
+[مریض] جی۔
+[ڈاکٹر] اوہ، جیسا کہ میری نرس نے آپ کو بتایا، ہم ڈی اے ایکس (DAX) استعمال کر رہے ہیں۔ تو میں صرف ڈی اے ایکس کو آپ کے بارے میں کچھ معلومات دوں گا۔
+[مریض] ہممم۔
+[ڈاکٹر] تو راچیل ایک 48 سالہ خاتون ہیں جو سانس کی قلت کی شکایت لے کر آئی ہیں۔ انہیں افسردگی (depression)، سگریت نوشی اور دائمی کمر درد کی تاریخ ہے۔ تو مجھے اس سانس کی قلت کے بارے میں بتائیں ۔
+[مریض] ٹھیک ہے۔ تو ایسے اوقات ہوتے ہیں جب میں بہت، بہت ہلکی ہلکی ورزش کر رہی ہوتی ہوں یا صرف چل رہی ہوتی ہوں، یہاں تک کہ اگر میں صرف اپنے گھر کے لان میں چل رہی ہوں، تو مجھے بہت زیادہ دل کی دھڑکن تیز محسوس ہوتی ہے، اور تھوڑی سانس کی قلت ہوتی ہے۔
+[ڈاکٹر] ہممم۔
+[مریض] مجھے نہیں معلوم کہ آیا یہ کمر درد سے متعلق ہے، یعنی کیا وہ بھی اسی وقت شروع ہوجاتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] لیکن یقینی طور پر مجھے لگتا ہے کہ یہ حال ہی میں زیادہ بار ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا حال ہی میں کوئی اور چیز بدلی ہے؟ جیسے، کیا آپ نے طرز زندگی میں تبدیلی کی ہے، جیسے آپ پہلے سے زیادہ ورزش کر رہی ہیں، یا کوئی الرجیاں ہیں، یا اس جیسی کوئی چیز؟
+[مریض] شاید کووڈ 15 سے چھٹکارے کے لیے زیادہ ورزش کر رہی ہوں۔
+[ڈاکٹر] کووڈ 15۔ ہاں۔ اب آخری بار جب میں نے آپ کو دیکھا تھا، تو آپ روزانہ دو پیک سگریٹ پیتے تھے۔ اب آپ کتنی پی رہے ہیں؟
+[مریض] اوہ، یہ کافی کم ہو گیا ہے کیونکہ، ہاں، ہم نے کہا تھا کہ عمر کے ساتھ کچھ، یعنی کچھ تبدیلیاں کرنی پڑیں گی۔
+[ڈاکٹر] ہاں۔
+[مریض] تو میں کہوں گی کہ یہ شاید، اوہ، شاید... شاید ایک یا دو... شاید ایک... مجھے نہیں معلوم۔ شاید دن میں ایک بار یا کچھ ایسا۔
+[ڈاکٹر] صرف دن میں دو سگریٹ؟
+[مریض] شاید دن میں ایک بار، ہاں۔
+[ڈاکٹر] ہم قریب پہنچ رہے ہیں۔
+[مریض] ہاں۔
+[ڈاکٹر] یہ بہت زبردست ہے۔
+[مریض] ہممم۔
+[ڈاکٹر] یہ بہت اچھی خبر ہے۔ اوہ، اور پھر آپ کی افسردگی کیسی چل رہی ہے؟
+[مریض] میرے کچھ لمحات ہوتے ہیں۔
+[ڈاکٹر] ہاں۔
+[مریض] کچھ دن ایسے ہوتے ہیں جب مجھے لگتا ہے، یعنی میں جاگتی ہوں اور سب کچھ بہت اچھا ہوتا ہے۔
+[ڈاکٹر] اوہ۔
+[مریض] اور پھر ایسے اوقات ہوتے ہیں، مجھے نہیں معلوم، مجھے نہیں معلوم کہ کیا یہ موسم سے متعلق ہے یا کسی اور چیز سے جو اسے شروع کرتی ہے۔
+[ڈاکٹر] ہاں۔
+[مریض] کچھ دن ایسے ہوتے ہیں جب مجھے بہت زیادہ مایوسی محسوس ہوتی ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور آپ اپنی افسردگی کے لیے ایفیکسار (Effexor) لے رہے تھے۔ کیا آپ اب بھی اسے لے رہے ہیں؟
+[مریض] جی، میں لے رہی ہوں۔
+[ڈاکٹر] ٹھیک ہے، بہت اچھا۔ اور پھر، اوہ دائمی کمر درد، ہم آپ کو اس کے لیے گیباپینٹین (Gabapentin) نیورونٹین (Neurontin) دے رہے تھے۔ کیا وہ درد کو کنٹرول کرنے میں مدد کر رہا ہے؟
+[مریض] مجھے لگتا ہے کہ کر رہا ہے۔
+[ڈاکٹر] ہاں۔
+[مریض] یہ... یہ یقینی طور پر، اوہ، مجھے بہتر محسوس ہوتا ہے۔
+[ڈاکٹر] اوہ۔
+[مریض] لیکن یہ کبھی کبھار ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ جب یہ بہت زیادہ خراب ہو تو آپ کیا کرتی ہیں؟
+[مریض] اوہ، میں بس اتنا آرام کرنے کی کوشش کرتی ہوں جتنا میں کر سکتی ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ اور آپ نے یوگا کرنے کی بات کی تھی۔ کیا آپ اب بھی یوگا کر رہی ہیں؟
+[مریض] کاش میں ہاں کہہ سکتی، لیکن میں نے اسے عادت نہیں بنایا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ تو، اوہ، آپ نے کہا تھا کہ آپ سانس کی قلت کے ساتھ آئی تھیں، اس لیے ہم نے آپ کو کچھ پلمونری فنکشن ٹیسٹ (pulmonary function tests) کروانے کے لیے بھیجا تھا۔
+[مریض] ہممم۔
+[ڈاکٹر] تو آئیے ان کو دیکھتے ہیں۔ ہی ڈریگن (Dragon)، مجھے پلمونری فنکشن ٹیسٹ دکھاؤ۔ ٹھیک ہے، تو ایسا لگتا ہے... ، یہ دلچسپ ہے۔ یہ کہتا ہے کہ آپ کو شاید تھوڑا سا دمہ (asthma) یا، اوہ، سی او پی ڈی (COPD) ہو۔ اور اگر آپ کو ہے، تو ہم اس کے بارے میں بات کریں گے۔
+[مریض] ہممم۔
+[ڈاکٹر] آئیے ہمارے ایکس رے (x-ray) کو دیکھتے ہیں۔ ہی ڈریگن، مجھے سب سے حالیہ ایکس رے دکھاؤ۔ ٹھیک ہے، میں نے غلط کہا۔ ہی ڈریگن، مجھے سب سے حالیہ چیسٹ ایکس رے (chest x-ray) دکھاؤ۔ ٹھیک ہے، یہ دلچسپ ہے۔ آپ کی... تقریباً آپ کی ڈایافرام (diaphragm) تھوڑی سی چپٹی ہے، اور ہم اسے کچھ، اوہ، سی او پی ڈی میں دیکھیں گے، جو اکثر سگریت نوشوں میں ہوتا ہے۔ تو آئیے ایک جلدی جسمانی معائنہ کریں۔ مجھے معلوم ہے کہ میری نرس نے آپ کے ساتھ سسٹم کا جائزہ لیا ہے۔ کیا کوئی اور چیز پریشان کر رہی ہے جس کے بارے میں ہمیں آج بات کرنے کی ضرورت ہے؟
+[مریض] کوئی اور مسائل نہیں۔
+[ڈاکٹر] ٹھیک ہے۔ بہت اچھا۔ آئیے معائنہ کریں۔ ٹھیک ہے، تو آپ کا جسمانی معائنہ کافی عام لگتا ہے سوائے اس کے کہ آپ کے تمام پھیپھڑوں کے علاقوں میں ہلکی سی ویزز (wheezes) ہیں۔ اور تو مجھے لگتا ہے کہ آپ کو پلمونری فنکشن ٹیسٹ، آپ کے ایکس رے، اور اس سب کے سبب سی او پی ڈی ہے۔ تو میں آپ کو سی او پی ڈی تشخیص کر رہا ہوں۔ کرونیک ابسٹرکٹیو پلمونری ڈیزیز (chronic obstructive pulmonary disease)। اس کا مطلب ہے کہ آپ مناسب طریقے سے سانس چھوڑنے میں قادر نہیں ہیں۔
+[مریض] ہممم۔
+[ڈاکٹر] تو ہم آپ کو ایک دوا دیں گے جس کا نام کومبینٹ (Combivent) ہے۔ ٹھیک ہے، آپ دن میں دو بار دو پف لیں گے۔ یہ آپ کے پھیپھڑوں کو کھولنے میں مدد کرے گا۔ یہ ایک ان ہیلر (inhaler) ہے۔
+[مریض] ہممم۔
+[ڈاکٹر] میں آپ کو البیوٹیرول (Albuterol) بھی تجویز کر رہا ہوں، جسے آپ تب استعمال کریں گے جب آپ کو بہت زیادہ سانس کی قلت ہو۔ یہ ایک ریسکیو (rescue) چیز کی طرح ہے۔
+[مریض] ہممم۔
+[ڈاکٹر] اوہ، اور پھر میں کچھ سٹیرایڈز (steroids) بھی تجویز کر رہا ہوں، یعنی کچھ پریڈنسون (Prednisone)۔ تو آئیے انہیں آرڈر کر لیں۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ہی ڈریگن، کومبینٹ آرڈر کریں، دن میں دو بار دو پف۔ البیوٹیرول آرڈر کریں، ضرورت کے مطابق دو پف۔ اور، اوہ، پریڈنسون ٹیپر پیک (taper pack) آرڈر کریں۔ ٹھیک ہے، تو اور پھر ایسا لگتا ہے کہ آپ کی افسردگی مستحکم ہے، تو ہم کچھ بھی نہیں بدلیں گے۔ آپ ایفیکسار لیتے رہیں گے۔ اوہ، افسردگی اور آپ کے کمر درد کے لیے یوگا کریں، تو آپ کے کمر درد کے لیے، نیورونٹین لیتے رہیں، اور ہم کچھ بھی مختلف نہیں کریں گے۔ کیا میرے لیے کوئی سوالات ہیں؟
+[مریض] نہیں، مجھے لگتا ہے یہ اچھا ہے۔ شکریہ۔
+[ڈاکٹر] بہترین۔ ہی ڈریگن، نوٹ کو حتمی شکل دیں۔ آپ کیوں نہیں...</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ (Chief Complaint)
+دم گھٹنا (Shortness of breath).
+موجودہ بیماری کی تاریخ (History of Present Illness)
+مریضہ 48 سالہ خاتون ہیں جو دم گھٹنے کی شکایت کے ساتھ آئی ہیں۔ انہیں ڈپریشن، سگریٹ نوشی اور دائمی کمر درد کی تاریخ ہے۔
+مریضہ ہلکی ورزش اور چلنے پھرنے کے ساتھ دم گھٹنے کی شکایت کرتی ہیں۔ وہ کبھی کبھار دل کی دھڑکن تیز ہونے کی شکایت بھی کرتی ہیں۔ انہیں یقین نہیں ہے کہ آیا یہ ان کے کمر درد کی وجہ سے ہے یا نہیں۔ مریضہ کا بیان ہے کہ وہ زیادہ ورزش کر رہی ہیں۔ وہ سگریٹ نوشی جاری رکھے ہوئے ہیں لیکن دو پیکٹ یومیہ سے گھٹا کر اب روزانہ چند سگریٹ تک محدود کر دی ہے۔
+اپنے ڈپریشن کے حوالے سے، مریضہ کا احساس ہے کہ وہ Effexor پر اچھی طرح کنٹرول کر رہی ہیں۔
+اپنی دائمی کمر درد کے حوالے سے، مریضہ Neurontin لے رہی ہیں، جو ان کے بیان کے مطابق ان کے درد کو کنٹرول کرنے میں مدد کر رہی ہے۔ وہ بیان کرتی ہیں کہ وہ جتنا ہو سکے آرام کرنے کی کوشش کرتی ہیں۔ وہ اب یوگا نہیں کرتیں کیونکہ انہوں نے اسے عادت نہیں بنایا۔
+سسٹمز کا جائزہ (Review of Systems)
+â€¢ کارڈیوواسکولر (Cardiovascular): مشق پر ڈسپنیا (dyspnea on exertion) کی تصدیق۔ دل کی دھڑکن تیز ہونے (palpitations) کی تصدیق۔
+â€¢ ریسپریٹری (Respiratory): دم گھٹنے (shortness of breath) کی تصدیق۔
+â€¢ مسکولو سکیلیٹل (Musculoskeletal): کمر درد (back pain) کی تصدیق۔
+â€¢ انٹیگمینٹری (Integumentary):
+â€¢ سائی کیٹرک (Psychiatric): ڈپریشن (depression) کی تصدیق۔
+جسمانی معائنہ (Physical Examination)
+â€¢ ریسپریٹری (Respiratory): دونوں اطراف ہلکی سی سوتیاں (Mild wheezes bilaterally).
+نتائج (Results)
+پلمونری فنکشن ٹیسٹ (Pulmonary function test) ہلکی دمہ (mild asthma) اور COPD کی موجودگی ظاہر کرتا ہے۔
+سینے کا ایکس-رے (X-ray of the chest) ڈیافراگم کے چپٹے ہونے کو ظاہر کرتا ہے، جو COPD کے مطابق ہے۔
+تشخیص اور منصوبہ (Assessment and Plan)
+COPD.
+â€¢ میڈیکل ریزننگ (Medical Reasoning): مریضہ آج مشق کے ساتھ دم گھٹنے کی شکایت کے ساتھ پیش ہوئی ہیں۔ ان کے پلمونری فنکشن ٹیسٹ دمہ یا COPD کی نشاندہی کرتے ہیں اور ان کا حالیہ سینے کا ایکس-رے اور آج کا جسمانی معائنہ بھی COPD کے مطابق ہیں۔
+â€¢ مریض کی تعلیم اور مشاورت (Patient Education and Counseling): میں نے مریض کو سگریٹ چھوڑنے کے اہمیت کے بارے میں مشورہ دیا۔
+â€¢ طبی علاج (Medical Treatment): ہم مریض کو Combivent، دن میں دو بار 2 پف شروع کریں گے۔ میں ایک البیوٹیرول ان ہیلر (albuterol inhaler)، ضرورت پڑنے پر 2 پف، اور ایک پریڈنسون ٹیپر پیک (prednisone taper pack) بھی تجویز کروں گا۔
+ڈپریشن (Depression).
+â€¢ میڈیکل ریزننگ (Medical Reasoning): ایسا لگتا ہے کہ ان کا ڈپریشن مستحکم ہے، لہذا ہم اس وقت کچھ نہیں بدلیں گے۔
+â€¢ مریض کی تعلیم اور مشاورت (Patient Education and Counseling): وہ Effexor لینا جاری رکھیں گی۔ میں نے ڈپریشن اور کمر درد دونوں سے راحت کے لیے یوگا کرنے کی حوصلہ افزائی کی۔
+دائمی کمر درد (Chronic back pain).
+â€¢ میڈیکل ریزننگ (Medical Reasoning): مریض کا کہنا ہے کہ وہ Neurontin پر اچھا کر رہی ہیں جس میں درد کے کبھی کبھار بڑھنے کے علاوہ کچھ نہیں ہے۔
+â€¢ طبی علاج (Medical Treatment): وہ Neurontin جاری رکھ سکتی ہیں۔ میں نے ان کے کمر درد کے لیے یوگا کرنے کی حوصلہ افزائی بھی کی۔
+مریض کی رضامندی (Patient Agreements): مریض تجویز کردہ طبی علاج کے منصوبے کو سمجھتی ہے اور اس سے اتفاق کرتی ہے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>g_aci_053</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ACI027</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[doctor] hey gabriel i'm doctor scott good to see you today i know you've heard about dax is it okay if i tell dax a little bit about you
+  [patient] sure
+  [doctor] okay so gabriel is a 43 -year-old male today here for back pain evaluation and also has a past medical history of diabetes high blood pressure and high cholesterol so gabriel tell me what's going on with your back
+  [patient] well i was working in the yard and you know bent over to pick something up and i got this pain and you know across the lower part of my back and then it went down my left leg and you know it's been going on for about four days and just does n't seem to be getting any better
+  [doctor] okay are you a big gardener or this is something that you just started working in the yard
+  [patient] yeah i know my wife held a gun to my head make me go out there work in the yard and carry some stuff around it's not my not my first choice but
+  [doctor] sure sure
+  [patient] but that day i i lost the i lost the argument
+  [doctor] yeah yeah that happens to all of this so when this back pain happened so it was basically you were lifting you were bending down to lift something up and you had the sharp pain going down your right leg you said
+  [patient] left leg
+  [doctor] left leg okay got it sorry and any weakness or numbness in your legs or just the pain mostly
+  [patient] in in certain positions i get some tingling but no mostly just pain
+  [doctor] okay and any loss of bowel or bladder function at all or anything like that
+  [patient] no
+  [doctor] okay and have you had any back surgeries or back problems in the past or this is kind of the first time
+  [patient] no surgeries you know i've i've had back pain occasionally over the years
+  [doctor] okay have you had any any have you tried anything for pain for this have you tried any any medications at all
+  [patient] i've had ibuprofen it it helped some
+  [doctor] okay got it alright well i'll i'll examine you in a second but before we do that let's talk about some of the other conditions that we're kinda following you for i'm looking at your problem list now and you've got a history of diabetes and you're on metformin five hundred milligram twice a day and your how are you doing with your blood sugars and your and your diet and exercise
+  [patient] yeah i i check my sugar two or three times a week most of the time it's in that one twenty to one forty range
+  [doctor] okay
+  [patient] yeah i take my medicine okay my diet is alright you know i could be fifteen pounds lighter that would be alright but
+  [doctor] sure
+  [patient] i i i think the sugar has been okay
+  [doctor] okay we checked your hemoglobin a1c last time i'm looking at your records in epic and it showed that it was you know seven . one so it's it's it's good but it could be better any you know we talked about it controlling your diet or improving your diet and trying to have a balanced meal and not eating some of these sweets and high sugar items how is that going i know you had talked about your wife being a great cook and making cookies and that's hard to stay away from obviously how are things going with that
+  [patient] yeah she still makes cookies and i still eat them but you know we are trying to trying to do better trying to stay away from more of those carbs and focus on you know less carby less sweet stuff
+  [doctor] okay alright yeah that's always a struggle i certainly understand but you know really important with your diabetes just to prevent some of the complications like kidney failure and eye problems and just keep your sugar under balance so i'll order another hemoglobin a1c today we'll check that again today and and you know just reemphasizing the controlling your diet and exercise is super important and then we'll have those results back we'll we'll see if we need to make any modifications okay
+  [patient] okay
+  [doctor] for your high blood pressure your blood pressure in the clinic looks pretty good it's about one twenty over seventy right now we have you on norvasc five milligrams once a day how are things going with that are you are you checking that periodically or any issues with that at all
+  [patient] yeah i guess i check it maybe once a week or two or three times a month and it it the vast majority of the time when i check it it's good usually either that one twenty to one thirty over seventy to eighty range i i think the blood pressure's okay
+  [doctor] okay
+  [patient] i have n't had any real problems there i i have had some some swelling in my ankles though
+  [doctor] okay is that new or is that been going on for a while
+  [patient] well it it started maybe i do n't know a month or two after i started the norvasc
+  [doctor] okay
+  [patient] and i was just wondering if the two might be related
+  [doctor] yeah i mean certainly it could be it is you know sometimes that medication can cause that so i'll i'll examine you in a second and see if we need to make any modifications okay
+  [patient] okay
+  [doctor] alright so and your anything else bothering you today
+  [patient] no i'm we're doing okay i think
+  [doctor] so let me examine you for a second i'm gon na go ahead and gabriel i'm gon na do my magic exam now let's pretend i i'm just gon na verbalize some of my findings as i do my exam and so
+  [patient] these are like my video visit exams
+  [doctor] exactly so your neck exam has no jvd there is no bruits that i can hear your lung exam no rales no wheezing on your heart exam you do have a two over six systolic ejection murmur you had that in the past so i'm not too worried about that otherwise regular rate and rhythm on your heart exam on your on your on your belly exam is nice and soft on your back exam you do have some tenderness on the left paraspinal area right where i'm pressing right there your straight leg raise test is negative your reflexes are normal you have some just some tenderness in the lower back in the paraspinal area of your back when i palpate there otherwise your neurological exam is normal on your extremity exam you do have this one plus nonpitting edema of your lower extremities which is a little bit of swelling in your ankles no calf tenderness negative homans sign no signs of blood clot that's what that means so let me just review what you know explain what all this means so the back pain the first problem that you're here today for i think this is more of a muscular sprain i'm gon na recommend we start you on some anti-inflammatory naprosyn five hundred five hundred milligrams twice a day and flexeril ten milligrams twice a day as well i'm gon na refer you to for for physical therapy to help strengthen some of the muscles in your lower back i do n't think you need an x-ray at this stage why do n't we start with physical therapy and the muscle relaxers and the pain medicines if it does n't get better then we can get an x-ray but right now i would start with that if that's okay with you any questions about that
+  [patient] no
+  [doctor] okay for the diabetes the the second problem that we talked about today i'm gon na order another hemoglobin a1c continue the metformin five hundred milligrams twice a day why do n't we have you come back in about two weeks and we should have some of the results back and we can discuss if we need to make any modifications for that but right now we will continue the course and we will go from there okay for the high blood pressure you do have this one plus edema in your legs i'm gon na go ahead and order some blood work today i'm gon na go ahead and stop the norvasc and we'll put you on some hydrochlorothiazide ten milligrams once a day and if that does n't get if the swelling does n't go away i'm gon na do some more testing for right now let's get some sort off with some cbc and a bmp i'm gon na check your kidney function i'm gon na get another ekg and also i'm gon na get a chest x-ray and we'll go from there but hopefully this will go away once we stop this medication since it started around that time okay okay and i think that's it anything else we forgot about do you need refills for anything
+  [patient] no i i think i'm okay you gave me a year's worth of refills last time we were together
+  [doctor] okay sounds great alright thanks gabriel good seeing you again
+  [patient] good to see you thanks</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+  Back pain evaluation.
+  MEDICAL HISTORY
+  The patient has a history of diabetes, hypertension, and high cholesterol.
+  SURGICAL HISTORY
+  He denies previous back surgeries.
+  MEDICATIONS
+  The patient currently utilizes metformin 500 mg twice daily and Norvasc.
+  REVIEW OF SYSTEMS
+  Cardiovascular: Reports ankle swelling.
+  Musculoskeletal: Reports lower back pain.
+  Neurological: Reports tingling in left leg. Denies weakness or numbness in legs, or loss of bowl or bladder function.
+  PHYSICAL EXAM
+  Neurological
+  - Orientation: Alert and oriented x3. Cranial nerves grossly intact. Normal gait.
+  Neck
+  - General Examination: No JVD. No bruits.
+  Respiratory
+  - Auscultation of Lungs: No wheezes, rales.
+  Cardiovascular
+  - Auscultation of Heart: Regular rate and rhythm. 2/6 systolic ejection murmur. Otherwise, regular rate and rhythm.
+  Musculoskeletal
+  - Examination: Tenderness on the left paraspinal area. Straight leg raise test is negative. Reflexes are normal. 1+ nonpitting edema of lower extremities. No calf tenderness. Negative Homan's sign.
+  ASSESSMENT AND PLAN
+  1. Lower back pain.
+  - Medical Reasoning: I believe this is more of a muscular sprain.
+  - Patient Education and Counseling: We discussed treatment options today.
+  - Medical Treatment: I am going to start him on Naprosyn 500 mg twice a day and Flexeril 10 mg twice a day. I will refer him for physical therapy to help strengthen some of the muscles in his lower back.
+  - Additional Testing: I do not think he needs an x-ray at this stage, however if he does not improve, we will order one for further evaluation.
+  2. Diabetes.
+  - Medical Reasoning: His most recent A1c was 7.1 and his blood sugar levels are typically between 120-140.
+  - Patient Education and Counseling: We discussed treatment options today.
+  - Medical Treatment: He will continue the metformin 500 mg twice a day.
+  - Additional Testing: I am going to order another hemoglobin A1c.
+  3. Hypertension.
+  - Medical Reasoning: He does have 1+ edema in his legs.
+  - Patient Education and Counseling: We discussed treatment options today. I explained that his edema is likely caused by the Norvasc.
+  - Medical Treatment: The patient will discontinue the use of Norvasc and we will start him on hydrochlorothiazide 10 mg once a day.
+  - Additional Testing: I will order a CBC and BMP. Additionally, I will order a repeat EKG, as well as a chest x-ray.
+  Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.
+  INSTRUCTIONS
+  The patient will follow up in 2 weeks.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>train_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہیے گیبریل، میں ڈاکٹر اسکاٹ ہوں۔ آج آپ سے مل کر اچھا لگا۔ مجھے معلوم ہے کہ آپ نے ڈیکس کے بارے میں سنا ہے۔ کیا میں ڈیکس کو آپ کے بارے میں کچھ بتا سکتا ہوں؟
+ [مریض] ضرور
+ [ڈاکٹر] ٹھیک ہے تو گیبریل ایک 43 سالہ مرد ہیں جو آج پیٹھ درد کے جائزے کے لیے آئے ہیں اور ان کی طبی تاریخ میں ذیابیطس، بلند فشار خون اور بلند کولیسٹرول کا بھی ذکر ہے۔ تو گیبریل، مجھے بتائیں کہ آپ کی پیٹھ میں کیا مسئلہ ہے؟
+ [مریض] اچھا، میں باغ میں کام کر رہا تھا اور آپ جانتے ہیں کہ کچھ اٹھانے کے لیے جھکا اور مجھے یہ درد ہوا۔ اور آپ جانتے ہیں کہ میری پیٹھ کے نچلے حصے میں درد ہوا اور پھر یہ میرے بائیں پاؤں تک چلا گیا اور آپ جانتے ہیں کہ یہ تقریباً چار دنوں سے جاری ہے اور ایسا نہیں لگتا کہ یہ بہتر ہو رہا ہے۔
+ [ڈاکٹر] ٹھیک ہے، کیا آپ ایک اچھے باغبان ہیں یا یہ کچھ ایسا ہے جو آپ نے حال ہی میں باغ میں کام کرنا شروع کیا ہے؟
+ [مریض] ہاں، مجھے معلوم ہے کہ میری بیوی نے مجھے گن پوائنٹ پر مجبور کیا کہ میں باہر جا کر باغ میں کام کروں اور کچھ چیزیں اٹھاؤں۔ یہ میری پہلی پسند نہیں ہے، لیکن
+ [ڈاکٹر] ضرور، ضرور
+ [مریض] لیکن اس دن میں نے بحث ہار گئی۔
+ [ڈاکٹر] ہاں، ہاں، یہ سب کے ساتھ ہوتا ہے۔ تو جب یہ پیٹھ درد شروع ہوا، تو بنیادی طور پر آپ کچھ اٹھانے کے لیے جھک رہے تھے اور آپ کو اپنے دائیں پاؤں میں شدید درد ہوا۔
+ [مریض] بائیں پاؤں
+ [ڈاکٹر] بائیں پاؤں، ٹھیک ہے۔ معذرت خواہ ہوں۔ اور آپ کے پاؤں میں کوئی کمزوری یا سنسناہٹ ہے یا صرف درد زیادہ تر ہے؟
+ [مریض] کچھ مخصوص حالتوں میں مجھے سنسناہٹ ہوتی ہے، لیکن زیادہ تر صرف درد ہے۔
+ [ڈاکٹر] ٹھیک ہے، اور کیا آپ کو آنتوں یا مثانے کے فعل میں کوئی کمی ہے یا اس جیسی کوئی چیز ہے؟
+ [مریض] نہیں
+ [ڈاکٹر] ٹھیک ہے، اور کیا آپ نے ماضی میں کوئی پیٹھ کی سرجری کروائی ہے یا پیٹھ کی کوئی پریشانی ہے، یا یہ پہلی بار ہے؟
+ [مریض] کوئی سرجری نہیں، آپ جانتے ہیں کہ مجھے سالوں سے کبھی کبھار پیٹھ درد ہوتا رہا ہے۔
+ [ڈاکٹر] ٹھیک ہے، کیا آپ نے اس درد کے لیے کچھ بھی استعمال کیا ہے؟ کیا آپ نے کوئی دوا استعمال کی ہے؟
+ [مریض] میں نے آئبوپروفین لیا، اس نے کچھ مدد کی۔
+ [ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ تو میں آپ کا معائنہ کروں گا، لیکن اس سے پہلے، آئیے ان دیگر حالات کے بارے میں بات کرتے ہیں جنہیں ہم دیکھ رہے ہیں۔ میں آپ کی پریشانیوں کی فہرست دیکھ رہا ہوں اور آپ کو ذیابیطس کی تاریخ ہے اور آپ میٹفورمین 500 ملی گرام روزانہ دو بار لیتے ہیں۔ آپ اپنے بلڈ شوگر اور اپنی غذا اور ورزش کے ساتھ کیسے کام کر رہے ہیں؟
+ [مریض] ہاں، میں اپنا شوگر ہفتے میں دو یا تین بار چیک کرتا ہوں۔ زیادہ تر وقت یہ 120 سے 140 کی حد میں رہتا ہے۔
+ [ڈاکٹر] ٹھیک ہے۔
+ [مریض] ہاں، میں اپنی دوا ٹھیک سے لیتا ہوں۔ میری غذا ٹھیک ہے۔ آپ جانتے ہیں کہ میں 15 پاؤنڈ ہلکا ہو سکتا تھا، وہ ٹھیک ہو جائے گا، لیکن
+ [ڈاکٹر] ضرور
+ [مریض] مجھے لگتا ہے کہ شوگر ٹھیک ہے۔
+ [ڈاکٹر] ٹھیک ہے، ہم نے آخری بار آپ کا ہیموگلوبن A1c چیک کیا تھا، میں ایپک میں آپ کے ریکارڈ دیکھ رہا ہوں اور یہ ظاہر ہوا کہ یہ 7.1 تھا، تو یہ اچھا ہے، لیکن یہ بہتر ہو سکتا ہے۔ کیا ہم نے آپ کی غذا کو کنٹرول کرنے یا اسے بہتر بنانے اور متوازن کھانا کھانے اور ان میٹھوں اور زیادہ چینی والی اشیاء کو نہ کھانے کے بارے میں بات کی تھی؟ اس سلسلے میں کیا ہو رہا ہے؟ مجھے معلوم ہے کہ آپ نے بتایا تھا کہ آپ کی بیوی ایک بہترین کک ہے اور وہ کوکیز بناتی ہے اور ان سے دور رہنا مشکل ہے۔ اس سلسلے میں کیا ہو رہا ہے؟
+ [مریض] ہاں، وہ اب بھی کوکیز بناتی ہے اور میں اب بھی انہیں کھاتا ہوں، لیکن آپ جانتے ہیں کہ ہم بہتر کرنے کی کوشش کر رہے ہیں، زیادہ کاربس سے دور رہنے کی کوشش کر رہے ہیں اور کم کاربی، کم میٹھی چیزوں پر توجہ مرکوز کر رہے ہیں۔
+ [ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ ہاں، یہ ہمیشہ ایک جدوجہد ہے۔ مجھے یقیناً سمجھ میں آتا ہے، لیکن آپ کے ذیابیطس کے ساتھ یہ بہت اہم ہے تاکہ گردے کی ناکامی اور آنکھوں کی پریشانیوں جیسی بعض پیچیدگیوں کو روکا جا سکے اور اپنے شوگر کو متوازن رکھا جا سکے۔ میں آج ایک اور ہیموگلوبن A1c کا آرڈر دوں گا، ہم اسے آج دوبارہ چیک کریں گے، اور آپ جانتے ہیں، صرف آپ کی غذا اور ورزش کو کنٹرول کرنے پر دوبارہ زور دینا بہت ضروری ہے، اور پھر ہمارے پاس وہ نتائج ہوں گے، ہم دیکھیں گے کہ آیا ہمیں کوئی تبدیلی کرنے کی ضرورت ہے، ٹھیک ہے۔
+ [مریض] ٹھیک ہے۔
+ [ڈاکٹر] آپ کے بلند فشار خون کے لیے، کلینک میں آپ کا بلڈ پریشر کافی اچھا نظر آتا ہے، یہ ابھی تقریباً 120 اوور 70 ہے۔ ہم آپ کو Norvasc 5 ملی گرام روزانہ ایک بار دیتے ہیں۔ اس سلسلے میں کیا ہو رہا ہے؟ کیا آپ اسے وقتاً فوقتاً چیک کرتے ہیں یا اس سے متعلق کوئی مسئلہ ہے؟
+ [مریض] ہاں، مجھے لگتا ہے کہ میں اسے ہفتے میں ایک بار یا مہینے میں دو یا تین بار چیک کرتا ہوں، اور زیادہ تر وقت جب میں اسے چیک کرتا ہوں تو یہ اچھا ہوتا ہے، عام طور پر وہ 120 سے 130 اوور 70 سے 80 کی حد میں رہتا ہے۔ مجھے لگتا ہے کہ بلڈ پریشر ٹھیک ہے۔
+ [ڈاکٹر] ٹھیک ہے۔
+ [مریض] مجھے اس سلسلے میں کوئی خاص مسئلہ نہیں آیا ہے۔ میرے ٹخنوں میں کچھ سوجن آئی ہے، تاہم۔
+ [ڈاکٹر] ٹھیک ہے، کیا یہ نیا ہے یا یہ کچھ عرصے سے جاری ہے؟
+ [مریض] اچھا، یہ Norvasc شروع کرنے کے ایک ماہ یا دو ماہ بعد شروع ہوا تھا۔
+ [ڈاکٹر] ٹھیک ہے۔
+ [مریض] اور میں صرف سوچ رہا تھا کہ کیا یہ دونوں چیزیں ایک دوسرے سے جڑی ہوئی ہو سکتی ہیں۔
+ [ڈاکٹر] ہاں، میرا مطلب ہے کہ یہ یقینی طور پر ہو سکتا ہے۔ یہ آپ جانتے ہیں کہ کبھی کبھی یہ دوا اس کا باعث بن سکتی ہے۔ میں آپ کا ایک لمحے میں معائنہ کروں گا اور دیکھیں گے کہ آیا ہمیں کوئی تبدیلی کرنے کی ضرورت ہے۔
+ [مریض] ٹھیک ہے۔
+ [ڈاکٹر] ٹھیک ہے۔ اور کیا آج آپ کو کوئی اور چیز پریشان کر رہی ہے؟
+ [مریض] نہیں، ہم ٹھیک چل رہے ہیں، مجھے لگتا ہے۔
+ [ڈاکٹر] تو مجھے آپ کا معائنہ کرنے دیں، میں آگے بڑھ کر گیبریل، میں اپنا جادو کا معائنہ کروں گا۔ آئیے میں اپنے معائنے کے دوران اپنے کچھ نتائج کو بیان کروں گا۔
+ [مریض] یہ میری ویڈیو وزٹ کے معائنوں کی طرح ہیں۔
+ [ڈاکٹر] بالکل درست۔ تو آپ کے گردن کے معائنے میں کوئی JVD نہیں ہے، میں کوئی شور نہیں سن سکتا، آپ کے پھیپھڑوں کے معائنے میں کوئی رالز یا وہزنگ نہیں ہے، آپ کے دل کے معائنے میں آپ کے پاس دو اوور چھ سسٹولک ایجیکشن مرمر ہے۔ آپ کے پاس ماضی میں یہ تھا، اس لیے مجھے اس کی زیادہ فکر نہیں ہے۔ دل کی باقاعدہ شرح اور تال۔ آپ کے پیٹ کے معائنے میں یہ اچھا اور نرم ہے۔ آپ کے پیٹھ کے معائنے میں، آپ کے پاس بائیں پاراسپائنل علاقے میں کچھ نرمی ہے، بالکل اسی جگہ پر جہاں میں دبا رہا ہوں، آپ کا سیدھا ٹانگ اٹھانے کا ٹیسٹ منفی ہے، آپ کی ریفلیکسرز نارمل ہیں، آپ کے پاس نچلی پیٹھ میں کچھ نرمی ہے، آپ کی پیٹھ کے پاراسپائنل علاقے میں جب میں وہاں چھوتا ہوں۔ بصورت دیگر، آپ کا اعصابی معائنہ نارمل ہے۔ آپ کے اعضاء کے معائنے میں، آپ کے نچلے اعضاء میں ایک پلس نان پیٹنگ ایڈیمہ ہے، جو آپ کے ٹخنوں میں تھوڑی سی سوجن ہے۔ کوئی بھیڑ کا درد نہیں، منفی ہومنز سائن، خون کے جمنے کے کوئی نشان نہیں، اسی کا مطلب ہے۔ تو آئیے صرف جائزہ لیتے ہیں جو آپ جانتے ہیں، ان تمام چیزوں کا کیا مطلب ہے، تو پیٹھ کا درد، پہلی پریشانی جس کے لیے آپ آج یہاں آئے ہیں، مجھے لگتا ہے کہ یہ زیادہ تر عضلاتی تناؤ ہے۔ میں تجویز کروں گا کہ ہم آپ کو کچھ سوزش-روधी، Naprosyn 500، 500 ملی گرام روزانہ دو بار، اور Flexeril 10 ملی گرام روزانہ دو بار شروع کریں۔ میں آپ کو جسمانی تھراپی کے لیے بھیجوں گا تاکہ آپ کی نچلی پیٹھ کی کچھ عضلات کو مضبوط بنانے میں مدد مل سکے۔ مجھے نہیں لگتا کہ اس مرحلے پر آپ کو ایکس-رے کی ضرورت ہے۔ آئیے جسمانی تھراپی اور عضلات کے آرام دہ اور درد کی دوائیوں سے شروع کرتے ہیں۔ اگر یہ بہتر نہیں ہوتا ہے تو ہم ایکس-رے کروا سکتے ہیں، لیکن فی الحال، میں اس سے شروع کروں گا۔ کیا آپ کے اس سے متعلق کوئی سوالات ہیں؟
+ [مریض] نہیں۔
+ [ڈاکٹر] ٹھیک ہے۔ ذیابیطس کے لیے، دوسری پریشانی جس کے بارے میں ہم نے آج بات کی، میں ایک اور ہیموگلوبن A1c کا آرڈر دوں گا، میٹفورمین 500 ملی گرام روزانہ دو بار جاری رکھیں گے۔ آئیے تقریباً دو ہفتوں میں واپس آئیں اور ہمارے پاس کچھ نتائج ہوں گے اور ہم بات کر سکتے ہیں کہ آیا ہمیں کوئی تبدیلی کرنے کی ضرورت ہے یا نہیں۔ فی الحال، ہم اس سلسلے میں جاری رہیں گے اور وہاں سے جائیں گے۔ ٹھیک ہے۔ بلند فشار خون کے لیے، آپ کے پاؤں میں ایک پلس ایڈیمہ ہے۔ میں آج کچھ خون کا کام کرنے کا آرڈر دوں گا۔ میں Norvasc بند کر دوں گا اور ہم آپ کو Hydrochlorothiazide 10 ملی گرام روزانہ ایک بار دیں گے۔ اگر یہ سوجن دور نہیں ہوتی ہے تو میں مزید ٹیسٹنگ کرواؤں گا۔ فی الحال، آئیے کچھ CBC اور BMP حاصل کریں، میں آپ کے گردے کے فنکشن کو چیک کروں گا، میں ایک اور EKG اور ایک چیسٹ ایکس-رے بھی کرواؤں گا۔ ہم وہاں سے جائیں گے، لیکن امید ہے کہ یہ دوا بند کرنے کے بعد دور ہو جائے گی، کیونکہ یہ اس وقت شروع ہوا تھا۔ ٹھیک ہے۔ ٹھیک ہے۔ اور مجھے لگتا ہے کہ یہی ہے۔ کیا ہم کچھ بھول گئے ہیں؟ کیا آپ کو کسی چیز کے لیے ریفلز کی ضرورت ہے؟
+ [مریض] نہیں۔ مجھے لگتا ہے کہ میں ٹھیک ہوں۔ آپ نے ہمیں آخری بار ملنے پر ایک سال کی ریفلز دیں۔
+ [ڈاکٹر] ٹھیک ہے۔ بہت اچھا۔ ٹھیک ہے، گیبریل، دوبارہ مل کر اچھا لگا۔
+ [مریض] آپ سے مل کر اچھا لگا، شکریہ۔</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ (Chief Complaint)
+  پیٹھ درد کی تشخیص۔
+  میڈیکل ہسٹری (Medical History)
+  مریض کو ذیابطیس، ہائی بلڈ پریشر اور ہائی کولیسٹرول کا مرض ہے۔
+  سرجیکل ہسٹری (Surgical History)
+  انہوں نے پہلے پیٹھ کی سرجری کروانے سے انکار کیا ہے۔
+  میڈیکیشنز (Medications)
+  مریض فی الحال میٹفورمین 500 ملی گرام روزانہ دو بار اور Norvasc استعمال کر رہے ہیں۔
+  ریو آف سسٹمز (Review of Systems)
+  کارڈیوواسکولر (Cardiovascular): ٹخنوں میں سوجن کی رپورٹ۔
+  مسکلوسکیلیٹل (Musculoskeletal): نچلے پیٹھ درد کی رپورٹ۔
+  نیورولوجیکل (Neurological): بائیں ٹانگ میں چٹکنے کی رپورٹ۔ ٹانگوں میں کمزوری یا بے حسی، یا آنت یا مثانے کے فعل کا نقصان سے انکار۔
+  فزیکل ایگزام (Physical Exam)
+  نیورولوجیکل (Neurological)
+  - اورینٹیشن (Orientation): ہوش میں اور x3 اورینٹڈ۔ کرینیئل اعصاب کلی طور پر صحیح۔ نارمل چال۔
+  گردن (Neck)
+  - جنرل امتحان (General Examination): کوئی JVD نہیں۔ کوئی برائٹس نہیں۔
+  ریسپریٹری (Respiratory)
+  - پھیپھڑوں کا جائزہ (Auscultation of Lungs): کوئی وھیز، رالز نہیں۔
+  کارڈیوواسکولر (Cardiovascular)
+  - دل کا جائزہ (Auscultation of Heart): باقاعدہ شرح اور تال۔ 2/6 سسٹولک ایجیکشن مرمر۔ دوسری صورت میں، باقاعدہ شرح اور تال۔
+  مسکلوسکیلیٹل (Musculoskeletal)
+  - امتحان (Examination): بائیں پیرا اسپائنل علاقے میں نرمی۔ اسٹریٹ لیگ ریز ٹیسٹ منفی ہے۔ ریفلیکسر نارمل ہیں۔ نچلے اعضاء کی 1+ نان پیٹنگ ایڈیمہ۔ کسی بھی بچھڑے میں نرمی نہیں۔ نیگیٹیو ہومنز سائن (Negative Homan's sign)।
+  اسیسمنٹ اینڈ پلان (Assessment and Plan)
+  1. نچلے پیٹھ کا درد۔
+  - میڈیکل ریزننگ (Medical Reasoning): مجھے یقین ہے کہ یہ زیادہ تر عضلاتی موچ ہے۔
+  - پیشنت ایجوکیشن اینڈ کونسلنگ (Patient Education and Counseling): آج ہم نے علاج کے اختیارات پر بات کی۔
+  - میڈیکل ٹریٹمنٹ (Medical Treatment): میں انہیں Naprosyn 500 ملی گرام روزانہ دو بار اور Flexeril 10 ملی گرام روزانہ دو بار سے شروع کروں گا۔ میں نچلے پیٹھ کی کچھ عضلات کو مضبوط بنانے میں مدد کے لیے انہیں فزیکل تھیراپی کے لیے ریفر کروں گا۔
+  - ایڈیشنل ٹیسٹنگ (Additional Testing): مجھے نہیں لگتا کہ اس مرحلے پر انہیں ایکس ری کی ضرورت ہے، تاہم اگر ان کی حالت میں بہتری نہیں ہوتی ہے، تو ہم مزید تشخیص کے لیے ایک آرڈر کریں گے۔
+  2. ذیابطیس۔
+  - میڈیکل ریزننگ (Medical Reasoning): ان کا تازہ ترین A1c 7.1 تھا اور ان کے بلڈ شوگر لیول عام طور پر 120-140 کے درمیان ہوتے ہیں۔
+  - پیشنت ایجوکیشن اینڈ کونسلنگ (Patient Education and Counseling): آج ہم نے علاج کے اختیارات پر بات کی۔
+  - میڈیکل ٹریٹمنٹ (Medical Treatment): وہ میٹفورمین 500 ملی گرام روزانہ دو بار جاری رکھیں گے۔
+  - ایڈیشنل ٹیسٹنگ (Additional Testing): میں ایک اور ہیموگلوبن A1c کا آرڈر کروں گا۔
+  3. ہائی بلڈ پریشر۔
+  - میڈیکل ریزننگ (Medical Reasoning): ان کے پاؤں میں 1+ ایڈیمہ ہے۔
+  - پیشنت ایجوکیشن اینڈ کونسلنگ (Patient Education and Counseling): آج ہم نے علاج کے اختیارات پر بات کی۔ میں نے وضاحت کی کہ ان کی ایڈیمہ کا سبب Norvasc ہے۔
+  - میڈیکل ٹریٹمنٹ (Medical Treatment): مریض Norvasc کا استعمال بند کر دیں گے اور ہم انہیں ہائیڈروکلورتھیازائیڈ 10 ملی گرام روزانہ ایک بار سے شروع کریں گے۔
+  - ایڈیشنل ٹیسٹنگ (Additional Testing): میں ایک CBC اور BMP کا آرڈر کروں گا۔ اس کے علاوہ، میں ایک ریپیٹ EKG کے ساتھ ساتھ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>g_aci_054</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>virtassist</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>VA022</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[doctor] hi , ms. thompson . i'm dr. moore . how are you ?
+[patient] hi , dr. moore .
+[doctor] hi .
+[patient] i'm doing okay except for my knee .
+[doctor] all right , hey , dragon , ms. thompson is a 43 year old female here for right knee pain . so tell me what happened with your knee ?
+[patient] well , i was , um , trying to change a light bulb , and i was up on a ladder and i kinda had a little bit of a stumble and kinda twisted my knee as i was trying to catch my fall .
+[doctor] okay . and did you injure yourself any place else ?
+[patient] no , no . it just seems to be the knee .
+[doctor] all right . and when did this happen ?
+[patient] it was yesterday .
+[doctor] all right . and , uh , where does it hurt mostly ?
+[patient] it hurts like in , in , in the inside of my knee .
+[doctor] okay .
+[patient] right here .
+[doctor] all right . and anything make it better or worse ?
+[patient] i have been putting ice on it , uh , and i've been taking ibuprofen , but it does n't seem to help much .
+[doctor] okay . so it sounds like you fell a couple days ago , and you've hurt something inside of your right knee .
+[patient] mm-hmm .
+[doctor] and you've been taking a little bit of ice , uh , putting some ice on it , and has n't really helped and some ibuprofen . is that right ?
+[patient] that's right . yeah .
+[doctor] okay , let's review your past history for a second . it looks like , uh , do you have any other past medical history ?
+[patient] uh , afib .
+[doctor] okay , and are you taking any medications for that ?
+[patient] yeah , i am . um , begins with a d.
+[doctor] uh , digoxin ?
+[patient] that's it . yeah , that's it .
+[doctor] okay , all right . how about any surgeries in the past ?
+[patient] i have had a nose job .
+[doctor] all right . um , let's do your exam , okay ? so is it tender ... where is it mostly tender right now ?
+[patient] right on the inside of my knee . right here .
+[doctor] all right , so if i bend your knee forward , does that seem to hurt ?
+[patient] yes , that hurts .
+[doctor] all right , how about if i twist it a little bit that way .
+[patient] that hurts a lot .
+[doctor] okay , okay . and how about down here ? do you feel me touch you down here ?
+[patient] yes .
+[doctor] all right . any other pain down here in your calves ?
+[patient] no .
+[doctor] no , okay . so on exam you do have some tenderness over the medial portion of your knee over the medial meniscus area . uh , there is no , uh , there is a little bit of tenderness when i flex your , uh , when i , uh , uh , do some valgus stressing on your , on your leg . um , you have normal sensation . so let's take a look at your x-rays .
+[patient] okay .
+[doctor] okay . hey dragon , show me the x-rays . so looking at the x-ray , um , of your left knee , uh , it appears to be there's no fractures there right now . i do n't see any , uh , there's a little bit of , uh , fluid , uh , but there is no , uh , there's no , um , fracture or there's no dislocation . everything else seems to be lined up properly , okay ?
+[patient] okay .
+[doctor] so in summary after my exam , uh , looking at your knee , uh , on the x-ray and your exam , you have some tenderness over the medial meniscus , so i think you have probably an acute medial meniscus sprain right now or strain . uh , at this point , my recommendation would be to put you in a knee brace , uh , and we'll go ahead and have you use some crutches temporarily for the next couple days . we'll have you come back in about a week and see how you're doing , and if it's not better , we'll get an mri at that time .
+[patient] okay .
+[doctor] i'm going to recommend we give you some motrin , 800 milligrams . uh , you can take it about every six hours , uh , with food . uh , and we'll give you about a two week supply .
+[patient] okay .
+[doctor] okay . uh , do you have any questions ?
+[patient] no , i think i'm good .
+[doctor] all right . hey , dragon , order the medications and procedures discussed , and finalize the report . okay , come with me and we'll get you checked out .</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CC:
+Right knee pain.
+HPI:
+Ms. Thompson is a 43-year-old female who presents today for an evaluation of right knee pain. She states she was trying to change a lightbulb on a ladder, and she twisted her knee when she stumbled and caught herself from falling yesterday. She has been applying ice and taking Ibuprofen without relief.
+CURRENT MEDICATIONS:
+Ibuprofen, digoxin.
+PAST MEDICAL HISTORY:
+Atrial fibrillation.
+PAST SURGICAL HISTORY:
+Rhinoplasty.
+EXAM
+Examination of the right knee shows pain with flexion. Tenderness over the medial joint line. No pain in the calf. Pain with valgus stress. Sensation is intact.
+RESULTS
+X-rays of the right knee show no obvious signs of acute fracture or dislocation. Mild effusion is noted.
+IMPRESSION
+Right knee acute medial meniscus sprain.
+PLAN
+At this point, I discussed the diagnosis and treatment options with the patient. I have recommended a knee brace. She will take Motrin 800 mg, every 6 hours with food, for two weeks. She will use crutches for the next couple of days. She will follow up with me in 1 week for a repeat evaluation. If she is not better at that time, we will obtain an MRI. All questions were answered.
+</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>valid</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہیلو، مسز تھومسن۔ میں ڈاکٹر مور ہوں۔ آپ کیسی ہیں؟
+[مریض] ہیلو، ڈاکٹر مور۔
+[ڈاکٹر] ہیلو۔
+[مریض] میں ٹھیک ہوں، سوائے میرے گھٹنے کے۔
+[ڈاکٹر] ٹھیک ہے۔ تو سنیے، ڈریگن، مسز تھومسن 43 سالہ خاتون ہیں جو دائیں گھٹنے میں درد کی شکایت لے کر آئی ہیں۔ تو مجھے بتائیں کہ آپ کے گھٹنے میں کیا ہوا؟
+[مریض] اچھا، میں، اوہ، ایک لائٹ بلب بدل رہی تھی، اور میں سیڑھی پر تھی اور میں تھوڑی سی لڑھک گئی اور گرنے کی کوشش میں اپنا گھٹنا مروڑ گئی۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ کو کسی اور جگہ کوئی چوٹ آئی ہے؟
+[مریض] نہیں، نہیں، صرف گھٹنے میں ہی لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور یہ کب ہوا؟
+[مریض] یہ کل ہوا تھا۔
+[ڈاکٹر] ٹھیک ہے۔ اور، اوہ، زیادہ تر کہاں درد ہوتا ہے؟
+[مریض] یہ میرے گھٹنے کے اندرونی حصے میں درد کرتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] یہاں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا کوئی چیز اسے بہتر یا بدتر کرتی ہے؟
+[مریض] میں اس پر برف لگا رہی ہوں، اوہ، اور میں آئیبوپروفین لے رہی ہوں، لیکن اس سے زیادہ مدد نہیں مل رہی ہے۔
+[ڈاکٹر] ٹھیک ہے۔ تو ایسا لگتا ہے کہ آپ چند دن پہلے گر گئیں تھیں، اور آپ نے اپنے دائیں گھٹنے کے اندر کچھ چوٹ پہنچائی ہے۔
+[مریض] ہمم۔
+[ڈاکٹر] اور آپ نے تھوڑی سی برف لگائی ہے، اوہ، اس پر کچھ برف لگائی ہے، اور زیادہ مدد نہیں ملی ہے اور کچھ آئیبوپروفین۔ کیا یہ درست ہے؟
+[مریض] یہ درست ہے۔ ہاں۔
+[ڈاکٹر] ٹھیک ہے، آئیے ایک لمحے کے لیے آپ کی ماضی کی طبی تاریخ کا جائزہ لیتے ہیں۔ ایسا لگتا ہے کہ، اوہ، کیا آپ کو کوئی دوسری ماضی کی طبی تاریخ ہے؟
+[مریض] اوہ، AFib۔
+[ڈاکٹر] ٹھیک ہے، اور کیا آپ اس کے لیے کوئی دوائیں لے رہی ہیں؟
+[مریض] ہاں، میں لیتi ہوں۔ اوہ، جو D سے شروع ہوتی ہے۔
+[ڈاکٹر] اوہ، ڈیجیٹالیس؟
+[مریض] وہی ہے۔ ہاں، وہی ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ ماضی میں کوئی سرجری ہوئی ہے؟
+[مریض] میں نے ایک نوس جاب کروائی ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، آئیے آپ کا معائنہ کرتے ہیں، ٹھیک ہے؟ تو کیا یہ نرم ہے... ابھی زیادہ تر کہاں نرم ہے؟
+[مریض] میرے گھٹنے کے اندرونی حصے پر۔ بالکل یہاں۔
+[ڈاکٹر] ٹھیک ہے، تو اگر میں آپ کے گھٹنے کو آگے کی جانب موڑوں، تو کیا اس سے درد ہوتا ہے؟
+[مریض] ہاں، اس سے درد ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اگر میں اسے تھوڑا سا اس طرف مروڑوں تو کیا ہوگا۔
+[مریض] اس سے بہت زیادہ درد ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور یہاں نیچے کیسے ہے؟ کیا آپ کو مجھے یہاں نیچے چھوتے ہوئے محسوس ہو رہا ہے؟
+[مریض] ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ کیا آپ کے پنڈلیوں میں نیچے کوئی اور درد ہے؟
+[مریض] نہیں.
+[ڈاکٹر] نہیں، ٹھیک ہے۔ تو معائنے پر، آپ کے گھٹنے کے میڈیل حصے پر، میڈیل مینیسکس کے علاقے پر کچھ نرمی ہے۔ اوہ، کوئی، اوہ، جب میں آپ کے، اوہ، جب میں، اوہ، آپ کے پاؤں پر کچھ ویلگس اسٹریسنگ کروں تو تھوڑی سی نرمی ہے۔ آپ کی حس عام ہے۔ تو آئیے آپ کے ایکس رے دیکھیں۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، ڈریگن، مجھے ایکس رے دکھائیں۔ تو ایکس رے دیکھ رہے ہیں، اوہ، آپ کے بائیں گھٹنے کا، اوہ، ایسا لگتا ہے کہ ابھی وہاں کوئی فریکچر نہیں ہے۔ میں کوئی، اوہ، تھوڑی سی، اوہ، سیال، اوہ، ہے، لیکن کوئی، اوہ، کوئی فریکچر نہیں ہے اور کوئی dislocation نہیں ہے۔ باقی سب کچھ صحیح طریقے سے سیدھ میں لگ رہا ہے، ٹھیک ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] تو خلاصہ یہ ہے کہ میرے معائنے کے بعد، اوہ، آپ کے گھٹنے کو دیکھتے ہوئے، اوہ، ایکس رے پر اور آپ کے معائنے پر، آپ کے میڈیل مینیسکس پر کچھ نرمی ہے، تو مجھے لگتا ہے کہ آپ کو ابھی ایک تیز میڈیل مینیسکس اسپرین یا سٹیرن ہے۔ اوہ، اس وقت، میری سفارش ہوگی کہ آپ کو گھٹنے کے برے میں رکھا جائے، اوہ، اور ہم اگلے چند دنوں کے لیے کچھ کرچز استعمال کریں گے۔ ہم آپ کو تقریباً ایک ہفتے بعد واپس بلائیں گے اور دیکھیں گے کہ آپ کیسی ہیں، اور اگر یہ بہتر نہیں ہوتی ہے، تو ہم اس وقت ایک MRI کروائیں گے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] میں تجویز کروں گا کہ ہم آپ کو موٹرین، 800 ملی گرام دیں۔ اوہ، آپ اسے تقریباً ہر چھ گھنٹے بعد، اوہ، کھانے کے ساتھ لے سکتے ہیں۔ اوہ، اور ہم آپ کو تقریباً دو ہفتوں کی سپلائی دیں گے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، کیا آپ کے کوئی سوالات ہیں؟
+[مریض] نہیں، مجھے لگتا ہے کہ میں ٹھیک ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، ڈریگن، تجویز کردہ دوائیں اور طریقہ کار کا آرڈر دیں، اور رپورٹ کو حتمی شکل دیں۔ ٹھیک ہے، میرے ساتھ آئیے اور ہم آپ کا چیک اپ کرائیں گے۔</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CC:
+دائیں گھٹنے کا درد۔
+HPI:
+مسز تھومسن 43 سالہ خاتون ہیں جو آج دائیں گھٹنے کے درد کے جائزے کے لیے پیش ہوئی ہیں۔ وہ بیان کرتی ہیں کہ وہ سیڑھی پر بلب بدلنے کی کوشش کر رہی تھیں، اور کل لڑکھڑا کر گرنے سے بچانے کے لیے انہوں نے اپنا گھٹنا موڑ لیا۔ انہوں نے درد سے راحت کے لیے برف لگائی ہے اور Ibuprofen استعمال کی ہے۔
+CURRENT MEDICATIONS:
+Ibuprofen, digoxin.
+PAST MEDICAL HISTORY:
+Atrial fibrillation.
+PAST SURGICAL HISTORY:
+Rhinoplasty.
+EXAM
+دائیں گھٹنے کا معائنہ کرنے پر، خم ہونے پر درد ظاہر ہوتا ہے۔ میڈیل جائنٹ لائن پر نرمی۔ پنڈلی میں کوئی درد نہیں۔ ویلگس اسٹریس پر درد۔ حس درست ہے۔
+RESULTS
+دائیں گھٹنے کے X-rays سے کسی واضح شدید فریکچر یا dislocation کے نشانات ظاہر نہیں ہوتے ہیں۔ ہلکی effusion نوٹ کی گئی ہے۔
+IMPRESSION
+دائیں گھٹنے کا شدید میڈیل مینسکِس اسپرین (acute medial meniscus sprain).
+PLAN
+اس وقت، میں نے مریض کے ساتھ تشخیص اور علاج کے اختیارات پر بات کی۔ میں نے گھٹنے کے برائس (knee brace) کی سفارش کی ہے۔ وہ دو ہفتوں تک Motrin 800 mg، ہر 6 گھنٹے بعد کھانے کے ساتھ لیں گی۔ وہ اگلے چند دنوں تک کرچز (crutches) استعمال کریں گی۔ وہ ایک ہفتے بعد دوبارہ جائزے کے لیے مجھ سے رابطہ کریں گی۔ اگر اس وقت تک ان کی طبیعت بہتر نہیں ہوتی ہے، تو ہم MRI کرائیں گے۔ تمام سوالات کا جواب دیا گیا۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>g_aci_055</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ACI093</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[doctor] hi jeremy how are you
+ [patient] i'm really good thank you how are you
+ [doctor] i'm okay the the medical assistant told me that you had this ulcer on your foot that's been there for a couple of weeks
+ [patient] yes
+ [doctor] going away
+ [patient] yeah it's been there gosh it's like six or so weeks right now and it's and it's on my right foot and it's just yeah it's just not going away i'm not sure if it maybe even gotten a little worse from when i first noticed it
+ [doctor] okay and how long did you say it's going on for
+ [patient] probably about
+ [doctor] six eight weeks maybe
+ [patient] okay and do you have any pain in your foot no no no pain at all okay now i know that you're a diabetic and you are on some insulin have your sugars been running okay yeah they have been running
+ [doctor] okay
+ [patient] you know on the most part they seem to be running a little higher than normal
+ [doctor] your sugars are running higher than normal okay do you recall what your last hemoglobin a1c was was it above nine
+ [patient] yes it it it definitely was higher than nine
+ [doctor] okay alright now what do you think caused this ulcer were you wearing some tight fitting shoes or did you have some trauma to your foot or
+ [patient] yeah i was you know i think initially i'm you know i was out in the backyard you know kind of you know doing some work and you know i know i you know i could've stepped on a nail or you know there was some other work but you know i'm always outside so i do n't know if that kind of led to anything or caused anything
+ [doctor] okay alright and have you had any fever or chills
+ [patient] no no no fever or chills you know i kinda you know get headaches pretty often i do n't know if that you know i do n't know if that's a stress or but you know always have like the tension headaches in the front
+ [doctor] okay and do you have do you have neuropathy where you get like numbing and tingling in your feet
+ [patient] occasionally yeah occasionally especially when it's like colder outside
+ [doctor] mm-hmm kinda feels like it takes a little longer to
+ [patient] warm up but yeah i kinda have some sensation in in all my extremities
+ [doctor] okay alright and then are you are you a smoker or did you smoke
+ [patient] i did back you know kind of years ago i did but yeah i have n't smoked anything in in good number of years
+ [doctor] okay alright when did you stop smoking
+ [patient] couple years ago maybe four or so years ago
+ [doctor] okay alright and how many packs a day would you smoke
+ [patient] gosh back then yeah was at least two
+ [doctor] okay alright how many years did you smoke for like twenty
+ [patient] yeah at least twenty yeah twenty plus years
+ [doctor] okay alright now any other symptoms do you have any problems when you walk down the street do you get any pain in your calves at all when you walk
+ [patient] no no no no pain you know just kind of you know it's just i know that it's there
+ [doctor] okay and you said you're active you're out in the yard and things like that do you go on long walks at all or no
+ [patient] no no you know it's you know i just kinda feel like i've been just trying to take it easy lately
+ [doctor] mm-hmm
+ [patient] but yeah most most of the stuff i've been doing is just kind of hanging around the house
+ [doctor] okay alright so we talked a little bit about your diabetes let's talk about your heart disease now your heart disease you had a heart attack in twenty eighteen we put a stent into your right coronary artery you're still taking your medications for that you're still on your aspirin
+ [patient] i am yes yeah i do the baby aspirin every day
+ [doctor] okay alright and any chest pain or shortness of breath or anything like that no no yeah no nothing more than yeah i would n't attribute anything
+ [patient] okay and do you have a podiatrist for your yearly foot exams
+ [doctor] no i i i do n't okay alright alright well let's go ahead i wan na just do a quick physical exam i'm just gon na be calling out some of my exam findings so your vital signs here in the office you do n't have any fever so that's good your blood pressure is great it's like one twenty seven over eighty and your heart rate is nice and slow in the sixties on your neck exam i do n't appreciate any jugular venous distention or any carotid bruits on your lung exam your lungs are clear to auscultation bilaterally on your heart exam you do have a two out of six systolic ejection murmur heard at the left base and on your lower extremity exam i do n't appreciate any palpable dorsalis pedis or posterior tibial pulses there is a two by three centimeter ulcerated lesion on the right lateral foot near the fifth metacarpal metatarsophalangeal joint there is no associated cellulitis does it hurt when i press here
+ [patient] no
+ [doctor] there is no pain to palpation of the right foot there is associated granulation tissue and some slight purulent discharge from the wound okay so what does all that mean that just means that you have this ulcer that's you know fairly sizable with i think we need to do some good wound care on it let's talk a little bit about my assessment and plan so you know i you have a nonhealing ulcer of your right foot so we need to do some studies on you to see if you have an adequate blood supply to heal this foot wound and since you since you probably do n't because of your diabetes you're here in a vascular surgeon's office we may have to go ahead and talk about being able to open up some of your arteries to improve the blood supply to your foot so that might mean getting a stent to one of your arteries in your legs to open up the blood supply it might mean mean that we might have to do some bypass surgery to to improve the blood supply to your foot in order to heal that that wound i do think that you'll be able to heal it i do n't think that we need to do anything drastic i want you to continue with your aspirin because that will help
+ [patient] any questions
+ [doctor] yeah i mean is this do we have to do any more tests or anything what are you we're gon na do an arterial ultrasound i'm going to go ahead and order an arterial ultrasound of your lower extremities to see what the blood supply is like and then i'm gon na go ahead and order a podiatry consult because i want them to see this wound and improve the wound care that you're doing and then for your next problem your diabetes i wan na go ahead and talk to your primary care physician we need to get your diabetes better controlled because that impacts your wound healing as well okay
+ [patient] sure
+ [doctor] sure understood alright and for your last issue your coronary artery disease continue with your statin and i will talk to your cardiologist in case you need a procedure to see if you're cleared from a medical standpoint okay
+ [patient] okay perfect
+ [doctor] alright
+ [patient] perfect thank you so much
+ [doctor] okay bye</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Right foot ulcer.
+ HISTORY OF PRESENT ILLNESS
+ Jeremy Roberts is a 79-year-old male who presents today for evaluation of a right foot ulcer. He reports an ulcer on his right foot has been present for approximately 6 to 8 weeks. He first noticed the ulcer after working outside. There is no associated pain, however, he feels the ulcer may have worsened from when he first noticed it. He denies experiencing any fevers or chills. He does however experience tension headaches quite frequently. He denies any pain in his calves when he walks. At this time the patient does not have a podiatrist for yearly foot exams.
+ He is a diabetic and takes insulin. His blood sugar has been running higher than normal and his last hemoglobin A1c was higher than 9. Occasionally he will also experience numbness and tingling in his feet, especially with colder weather.
+ In terms of his heart disease, the patient sustained a heart attack in 2018 and underwent stent placement at the right coronary artery. He is currently taking aspirin 81 mg daily. He denies chest pain or shortness of breath.
+ MEDICAL HISTORY
+ Patient reports history of diabetes and heart disease. He sustained a heart attack in 2018.
+ SURGICAL HISTORY
+ Patient reports undergoing stent placement at the right coronary artery.
+ SOCIAL HISTORY
+ Patient reports he is a former smoker. He previously smoked 2 packs a day for 20 years and was able to stop smoking approximately 4 years ago. Currently he is not very active but he does work around the house.
+ MEDICATIONS
+ Patient reports taking aspirin 81 mg daily and insulin.
+ REVIEW OF SYSTEMS
+ Constitutional: Denies fevers and chills.
+ Cardiovascular: Denies chest pain.
+ Respiratory: Denies dyspnea.
+ Skin: Patient reports right foot ulcer.
+ Neurological: Patient reports headaches and numbness and tingling in feet.
+ VITALS
+ No fever.
+ Blood pressure: 127/80
+ Heart rate: 60s
+ PHYSICAL EXAM
+ CV: 2/6 systolic ejection murmur heard at the left base.
+ RESPIRATORY: Clear to auscultation bilaterally
+ NECK: No jugular venous distention or carotid bruits
+ MSK: Examination of the right lower extremity: No palpable dorsalis pedis or posterior tibial pulses. There is a 2 x 3 cm ulcerated lesion on the right lateral foot near the 5th metacarpal metatarsophalangeal joint. No associated cellulitis. No pain to palpation of the right foot. There is associated granulation tissue and some slight purulent discharge from the wound.
+ ASSESSMENT
+ 1. Non-healing ulcer, right foot
+ 2. Diabetes
+ 3. Coronary artery disease
+ PLAN
+ After reviewing the patient's examination findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. We discussed that his right foot ulcer is fairly sizable and will require wound care. I advised him that the ulcer does not appear to be healing and that further studies will be needed to assess if he has adequate blood supply to heal his foot wound. He was advised that due to his diabetes it is possible surgical intervention such as stent placement or bypass surgery may be required to improve his blood supply. I also advised him that I believe we will be able to heal his wound. At this time, I have recommended continued wound care and for him to also continue taking aspirin 81 mg daily. We will order an arterial ultrasound of the lower extremities. He will also be referred to podiatry for a consult.
+ Regarding his diabetes, this appears to be unstable as the patient reports his last hemoglobin a1c was greater than 9 and is now experiencing a non-healing right foot ulcer. We discussed the importance of blood sugar control as this will impact his wound healing. At this time, I have recommended that he follow-up with his primary care physician for further care.
+ The patient's coronary artery disease is currently stable. It is recommended that he continue to take his statin as prescribed. I will contact his cardiologist for medical clearance should surgical intervention be required for his non-healing right foot ulcer.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>train_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی جیرمی، آپ کیسے ہیں؟
+[مریض] میں بہت اچھا ہوں، شکریہ۔ آپ کیسے ہیں؟
+[ڈاکٹر] میں ٹھیک ہوں۔ میڈیکل اسسٹنٹ نے مجھے بتایا کہ آپ کے پاؤں پر یہ السر ہے جو کچھ ہفتوں سے موجود ہے۔
+[مریض] جی ہاں۔
+[ڈاکٹر] ٹھیک ہو رہا ہے۔
+[مریض] جی ہاں، یہ وہاں موجود ہے، اوہ خدا، یہ اب تقریباً چھ ہفتوں کا ہو چکا ہے اور یہ میرے دائیں پاؤں پر ہے اور بس، یہ ٹھیک نہیں ہو رہا ہے۔ مجھے یقین نہیں ہے کہ یہ پہلی بار دیکھنے کے مقابلے میں شاید تھوڑا بگڑ گیا ہے۔
+[ڈاکٹر] ٹھیک ہے اور آپ نے کہا کہ یہ کتنے عرصے سے چل رہا ہے؟
+[مریض] شاید کے بارے میں
+[ڈاکٹر] چھ آٹھ ہفتے شاید۔
+[مریض] ٹھیک ہے اور کیا آپ کے پاؤں میں کوئی درد ہے؟ نہیں، بالکل کوئی درد نہیں ٹھیک اب مجھے معلوم ہے کہ آپ ذیابیطس کے مریض ہیں اور آپ کچھ انسولین پر ہیں، کیا آپ کی شوگر ٹھیک چل رہی ہے؟ جی ہاں، وہ چل رہی ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] آپ جانتے ہیں، زیادہ تر حصے میں، وہ عام سے تھوڑی زیادہ چل رہی ہیں۔
+[ڈاکٹر] آپ کی شوگر عام سے زیادہ چل رہی ہے۔ ٹھیک ہے، کیا آپ کو یاد ہے کہ آپ کا آخری ہیموگلوبن A1c کیا تھا؟ کیا یہ نو سے زیادہ تھا؟
+[مریض] جی ہاں، یہ یقینی طور پر نو سے زیادہ تھا۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اب آپ کو کیا لگتا ہے کہ اس السر کا سبب کیا ہوا؟ کیا آپ تنگ فٹنگ جوتے پہن رہے تھے یا آپ کے پاؤں پر کوئی چوٹ آئی تھی؟
+[مریض] جی ہاں، آپ تھے۔ آپ جانتے ہیں، مجھے لگتا ہے کہ ابتدا میں، میں آپ جانتے ہیں، میں گھر کے پیچھے تھا، آپ جانتے ہیں، کچھ کام کر رہا تھا اور میں جانتا ہوں کہ میں آپ جانتے ہیں، میں شاید کسی کیل پر قدم رکھ سکتا تھا یا آپ جانتے ہیں، کوئی دوسرا کام تھا۔ لیکن میں ہمیشہ باہر رہتا ہوں، چنانچہ مجھے نہیں معلوم کہ آیا اس سے کچھ ہوا یا کسی چیز کا باعث بنا۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور کیا آپ کو بخار یا ٹھنڈ لگ رہی ہے؟
+[مریض] نہیں، نہیں، کوئی بخار یا ٹھنڈ نہیں، آپ جانتے ہیں، مجھے کافی بار سر درد ہوتا ہے، مجھے نہیں معلوم کہ کیا، مجھے نہیں معلوم کہ کیا یہ تناؤ ہے، لیکن میرے سامنے ہمیشہ قسم کے ٹینشن سردرد ہوتے ہیں۔
+[ڈاکٹر] ٹھیک ہے اور کیا آپ کو نیوروپیتھی ہے جہاں آپ کے پاؤں میں سنسناہٹ اور چٹکنے کا احساس ہوتا ہے؟
+[مریض] کبھی کبھار، ہاں، کبھی کبھار، خاص طور پر جب باہر زیادہ سردی ہو۔
+[ڈاکٹر] مم-ہیم، ایسا لگتا ہے کہ اسے گرم ہونے میں تھوڑا زیادہ وقت لگتا ہے۔
+[مریض] لیکن ہاں، میرے تمام اعضاء میں کچھ احساس ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اور کیا آپ سگریٹ نوش ہیں یا سگریٹ نوش تھے؟
+[مریض] میں تھا، آپ جانتے ہیں، کچھ سال پہلے میں تھا، لیکن ہاں، میں نے کئی سالوں سے کچھ بھی سگریٹ نوش نہیں کیا۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ آپ نے سگریٹ نوشی کب چھوڑ دی؟
+[مریض] چند سال پہلے، شاید چار سال کے آس پاس۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ آپ روزانہ کتنے پیک سگریٹ نوشی کرتے تھے؟
+[مریض] اوہ خدا، تب، ہاں، کم سے کم دو تھے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ آپ کتنے سالوں تک سگریٹ نوشی کرتے تھے، جیسے بیس؟
+[مریض] جی ہاں، کم سے کم بیس، ہاں، بیس سال سے زیادہ۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اب کوئی دوسرا علامات ہیں؟ کیا آپ کو سڑک پر چلتے وقت کوئی مسئلہ ہے؟ کیا آپ چلتے وقت اپنے پنڈلیوں میں کوئی درد محسوس کرتے ہیں؟
+[مریض] نہیں، نہیں، کوئی درد نہیں، آپ جانتے ہیں، یہ بس ہے، میں جانتا ہوں کہ یہ وہاں ہے۔
+[ڈاکٹر] ٹھیک ہے اور آپ نے کہا کہ آپ سرگرم ہیں، آپ گھر کے باہر ہیں اور اس طرح کی چیزیں کرتے ہیں، کیا آپ لمبے لمبے چہل قدمی پر جاتے ہیں یا نہیں؟
+[مریض] نہیں، نہیں، آپ جانتے ہیں، مجھے بس ایسا لگتا ہے کہ میں حال ہی میں آرام کرنے کی کوشش کر رہا ہوں۔
+[ڈاکٹر] مم-ہیم۔
+[مریض] لیکن ہاں، زیادہ تر چیزیں جو میں کر رہا ہوں وہ صرف گھر کے آس پاس گھومنا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ تو ہم نے آپ کے ذیابیطس کے بارے میں تھوڑی بات کی، آئیے اب آپ کے دل کی بیماری کے بارے میں بات کریں۔ آپ کی دل کی بیماری، آپ کو 2018 میں ہارٹ اٹیک آیا تھا، ہم نے آپ کی دائیں کارونری آرٹری میں ایک سٹنٹ ڈالا تھا۔ آپ اب بھی اس کے لیے اپنی دوائیں لے رہے ہیں، آپ اب بھی اپنی ایسپرین پر ہیں۔
+[مریض] میں ہوں، جی ہاں، میں روزانہ بیبی ایسپرین لیتا ہوں۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اور کیا کوئی سینے میں درد یا سانس کی تکلیف یا اس طرح کی کوئی چیز ہے؟ نہیں، نہیں، ہاں، کچھ نہیں، اس سے زیادہ، ہاں، میں کسی چیز کو منسوب نہیں کروں گا۔
+[مریض] ٹھیک ہے اور کیا آپ اپنے سالانہ فٹ امتحانات کے لیے کسی پوڈیاٹرسٹ کے پاس جاتے ہیں؟
+[ڈاکٹر] نہیں، میں نہیں جاتا۔ ٹھیک ہے۔ ٹھیک ہے۔ ٹھیک ہے، آئیے آگے بڑھتے ہیں، میں صرف ایک فوری جسمانی امتحان کرنا چاہتا ہوں، میں اپنے امتحان کے نتائج میں سے کچھ کو آواز دیتے رہوں گا، چنانچہ یہاں دفتر میں آپ کے وائٹل سائنز ہیں، آپ کو کوئی بخار نہیں ہے، چنانچہ یہ اچھا ہے۔ آپ کا بلڈ پریشر بہت اچھا ہے، یہ 127 اوور 80 جیسا ہے اور آپ کی دل کی دھڑکن 60s میں اچھی اور سست ہے۔ آپ کے گردن کے امتحان پر، میں کسی جوگولر وینس ڈسٹینشن یا کسی کیروٹڈ بروٹیز کو نہیں دیکھتا۔ آپ کے پھیپھڑوں کے امتحان پر، آپ کے پھیپھڑے دوطرفہ طور پر سننے کے لیے صاف ہیں۔ آپ کے دل کے امتحان پر، آپ کو بائیں اڈے پر سنا گیا 2 میں سے 6 سسٹولک ایجیکشن مرمر ہے اور آپ کے نچلے اعضاء کے امتحان پر، میں کسی قابل ڈورسالس پیڈس یا پوسٹیریر ٹبیئل نبضوں کو نہیں دیکھتا۔ دائیں جانب کے پاؤں کے پاس پانچویں میٹا کارپل میٹاٹارسال فیلنجل جوائنٹ کے قریب دو سینٹی میٹر کا السر شدہ گھاو ہے۔ اس سے وابستہ سیلولائٹس نہیں ہے۔ کیا مجھے یہاں دبانے پر درد ہوتا ہے؟
+[مریض] نہیں
+[ڈاکٹر] دائیں پاؤں کے درد کے لیے کوئی درد نہیں ہے۔ اس سے وابستہ گرانولیشن ٹشو اور زخم سے کچھ ہلکا پیورولینٹ ڈسچارج ہے۔ ٹھیک ہے تو اس کا کیا مطلب ہے کہ آپ کو یہ السر ہے جو، آپ جانتے ہیں، کافی سائز کا ہے اور مجھے لگتا ہے کہ ہمیں اس پر کچھ اچھا زخم کا خیال رکھنے کی ضرورت ہے۔ آئیے میرے جائزے اور منصوبہ کے بارے میں تھوڑی بات کریں، چنانچہ آپ جانتے ہیں، آپ کے دائیں پاؤں کا ایک غیر معالج السر ہے، چنانچہ ہمیں آپ پر کچھ مطالعے کرنے کی ضرورت ہے تاکہ یہ دیکھا جا سکے کہ اس پاؤں کے زخم کو ٹھیک کرنے کے لیے آپ کے پاس کافی خون کی فراہمی ہے یا نہیں۔ اور چونکہ آپ چونکہ آپ کے ذیابیطس کی وجہ سے شاید نہیں کرتے ہیں، آپ ایک عروقی سرجن کے دفتر میں ہیں، ہمیں آگے بڑھ کر آپ کی شریانوں کو کھولنے کے بارے میں بات کرنے کی ضرورت ہو سکتی ہے تاکہ آپ کے پاؤں کو خون کی فراہمی کو بہتر بنایا جا سکے۔ اس کا مطلب ہو سکتا ہے کہ آپ کے پاؤں میں خون کی فراہمی کھولنے کے لیے آپ کی ٹانگوں میں ایک شریان میں سٹنٹ لگایا جائے گا۔ اس کا مطلب ہو سکتا ہے کہ ہمیں خون کی فراہمی کو بہتر بنانے کے لیے آپ کے پاؤں میں بائی پاس سرجری کرنی پڑ سکتی ہے تاکہ وہ زخم ٹھیک ہو سکے۔ مجھے لگتا ہے کہ آپ اسے ٹھیک کر سکیں گے، مجھے نہیں لگتا کہ ہمیں کچھ زیادہ شدید کرنے کی ضرورت ہے، میں چاہتا ہوں کہ آپ اپنی ایسپرین جاری رکھیں کیونکہ یہ مدد کرے گا۔
+[مریض] کوئی سوالات؟
+[ڈاکٹر] جی ہاں، میرا مطلب ہے، کیا ہمیں کوئی اور ٹیسٹ کرنے کی ضرورت ہے یا کچھ بھی؟ ہم کیا کر رہے ہیں؟ ہم ایک آرٹیریل الٹراساؤنڈ کریں گے، میں آپ کے نچلے اعضاء کے آرٹیریل الٹراساؤنڈ کا آرڈر دینے جا رہا ہوں تاکہ یہ دیکھا جا سکے کہ خون کی فراہمی کیسی ہے۔ اور پھر میں پوڈیاٹری مشورہ کا آرڈر دینے جا رہا ہوں کیونکہ میں چاہتا ہوں کہ وہ اس زخم کو دیکھیں اور آپ جو زخم کا خیال کر رہے ہیں اسے بہتر بنائیں۔ اور پھر آپ کی اگلی پریشانی، آپ کے ذیابیطس کے لیے، میں آپ کے پرائمری کیئر فزیشن سے بات کرنا چاہتا ہوں، ہمیں آپ کے ذیابیطس کو بہتر طور پر کنٹرول کرنے کی ضرورت ہے کیونکہ یہ آپ کے زخم کے ٹھیک ہونے کو بھی متاثر کرتا ہے۔ ٹھیک ہے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ سمجھ لیا۔ ٹھیک ہے اور آپ کے آخری مسئلے، آپ کی کارونری آرٹری بیماری کے لیے، اپنے اسٹٹن کے ساتھ جاری رکھیں اور میں آپ کے کارڈولوجسٹ سے بات کروں گا تاکہ یہ دیکھا جا سکے کہ کیا آپ کو کسی طریقہ کار کی ضرورت ہے تاکہ یہ دیکھا جا سکے کہ کیا آپ طبی نقطہ نظر سے کلیئر ہیں۔ ٹھیک ہے۔
+[مریض] ٹھیک ہے۔ بہترین۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] بہترین، بہت بہت شکریہ۔
+[ڈاکٹر] ٹھیک ہے، الوداع۔</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ (Chief Complaint)
+دائیں پاؤں کا السر (Right foot ulcer).
+موجودہ مرض کی تاریخ (History of Present Illness)
+جیرمی رابرٹس، 79 سالہ مرد، آج دائیں پاؤں کے السر کے جائزے کے لیے پیش ہوئے ہیں۔ انہوں نے بتایا کہ ان کے دائیں پاؤں پر تقریباً 6 سے 8 ہفتوں سے السر موجود ہے۔ انہوں نے پہلی بار یہ السر باہر کام کرنے کے بعد دیکھا۔ اس کے ساتھ کوئی درد نہیں ہے، تاہم، انہیں احساس ہے کہ یہ السر پہلی بار دیکھنے کے وقت سے بڑھ گیا ہے۔ وہ بخار یا ٹھنڈ لگنے کا انکار کرتے ہیں۔ تاہم، انہیں اکثر کشیدگی کے سر درد (tension headaches) ہوتے ہیں۔ وہ چلنے کے دوران اپنے پنڈلیوں میں کوئی درد محسوس کرنے کا انکار کرتے ہیں۔ اس وقت مریض کے پاس سالانہ پاؤں کے امتحانات کے لیے کوئی پوڈیاٹرسٹ (podiatrist) نہیں ہے۔
+وہ ذیابیطس کے مریض ہیں اور انسولین لیتے ہیں۔ ان کا بلڈ شوگر معمول سے زیادہ رہا ہے اور ان کا آخری ہیموگلوبن A1c 9 سے زیادہ تھا۔ کبھی کبھار انہیں اپنے پاؤں میں سن numbness اور چٹکنے (tingling) کا تجربہ بھی ہوتا ہے، خاص طور پر سرد موسم میں۔
+ان کے دل کی بیماری کے حوالے سے، مریض کو 2018 میں ہارٹ اٹیک ہوا تھا اور انہوں نے دائیں کارونری آرٹری (right coronary artery) میں سٹنٹ پلیسمنٹ کروائی تھی۔ وہ فی الحال روزانہ 81 mg کی اسپرین لے رہے ہیں۔ وہ سینے میں درد یا سانس کی قلت کا انکار کرتے ہیں۔
+طبی تاریخ (Medical History)
+مریض ذیابیطس اور دل کی بیماری کی تاریخ بتاتے ہیں۔ انہیں 2018 میں ہارٹ اٹیک ہوا تھا۔
+سرجیکل تاریخ (Surgical History)
+مریض نے دائیں کارونری آرٹری میں سٹنٹ پلیسمنٹ کروائی تھی۔
+سماجی تاریخ (Social History)
+مریض بتاتے ہیں کہ وہ سابق سگریہ پینے والے ہیں۔ وہ پہلے 20 سال تک روزانہ 2 پیک سگریٹ پیتے تھے اور تقریباً 4 سال پہلے سگریٹ نوشی چھوڑنے میں کامیاب رہے۔ فی الحال وہ زیادہ فعال نہیں ہیں لیکن گھر کے آس پاس کام کرتے ہیں۔
+دوائیں (Medications)
+مریض بتاتے ہیں کہ وہ روزانہ 81 mg کی اسپرین اور انسولین لیتے ہیں۔
+سسٹمز کا جائزہ (Review of Systems)
+Constitutional: بخار اور ٹھنڈ لگنے کا انکار کرتے ہیں۔
+Cardiovascular: سینے میں درد کا انکار کرتے ہیں۔
+Respiratory: سانس کی قلت کا انکار کرتے ہیں۔
+Skin: مریض دائیں پاؤں کے السر کی رپورٹ کرتے ہیں۔
+Neurological: مریض سر درد اور پاؤں میں سن numbness اور چٹکنے (tingling) کی رپورٹ کرتے ہیں۔
+وائٹلز (Vitals)
+بخار نہیں ہے۔
+بلڈ پریشر: 127/80
+ہارٹ ریٹ: 60s
+جسمانی امتحان (Physical Exam)
+CV: بائیں بیس پر 2/6 سسٹولک ایجیکشن مرمر سنا گیا۔
+RESPIRATORY: دونوں طرف سننے پر صاف ہے۔
+NECK: جگرular venous distention یا کیروٹڈ برویٹس (carotid bruits) نہیں ہیں۔
+MSK: دائیں نچلے عضو کا جائزہ: ڈورسالس پیڈس (dorsalis pedis) یا پوسٹیریئر ٹبیئل (posterior tibial) نبضیں محسوس نہیں ہو رہیں۔ دائیں جانب کے پاؤں کے بیرونی حصے پر 5ویں میٹاکارپل میٹاٹارسوفالنجیل جوائنٹ (5th metacarpal metatarsophalangeal joint) کے قریب 2 x 3 سینٹی میٹر کا السر شدہ گھاو ہے۔ اس کے ساتھ سیلولائٹس (cellulitis) نہیں ہے۔ دائیں پاؤں کو چھونے پر کوئی درد نہیں ہے۔ گھاو سے جھرنے والے ٹشیو (granulation tissue) اور تھوڑا سا پیورولینٹ ڈسچارج (purulent discharge) موجود ہے۔
+تشخیص (Assessment)
+1. غیر صحت یاب ہونے والا السر، دائیں پاؤں (Non-healing ulcer, right foot)
+2. ذیابیطس (Diabetes)
+3. کارونری آرٹری بیماری (Coronary artery disease)
+ منصوبہ (Plan)
+مریض کے آج کے امتحان کے نتائج کا جائزہ لینے کے بعد، میں نے مریض کے موجودہ علامات کے سلسلے میں ان سے طویل گفتگو کی ہے۔ ہم نے بات کی کہ ان کا دائیں</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>g_aci_056</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>ACI092</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[doctor] hey matthew how're you doing
+ [patient] hey doc i'm doing pretty good how are you
+ [doctor] i'm doing pretty good hey i see here in the nurse's notes it looks like you hurt your left ankle can you tell me a little bit more about that
+ [patient] yeah i did my wife and i were on a walk yesterday and i was just talking to her and and stepped off the curb and landed on it wrong it's kind of embarrassing but yeah it's been killing me for a couple days now
+ [doctor] okay now when you fell did you feel or hear a pop or anything like that
+ [patient] i would n't say i really heard a pop it was just kind of really kind of felt extended and stretched and it it's just been really bothering me ever since kind of on the outside of it
+ [doctor] okay and then were you able to walk on it after the incident
+ [patient] i was able to get back to the house because i did n't wan na you know make my wife carry me but it was it was painful
+ [doctor] okay and then have you done any or had any injuries to that ankle before
+ [patient] nothing substantial that i would say in the past
+ [doctor] okay and then what have you been doing for that left ankle since then have you done anything to help make it make the pain less
+ [patient] i have taken some ibuprofen and then i just tried to elevate it and ice it a little bit and keep my weight off of it
+ [doctor] okay so let's talk real quick about your pain level zero being none ten being the worst pain you've been in in your life without any medication on board can you rate your pain for me
+ [patient] i would say it's about an eight
+ [doctor] okay and then when you do take that ibuprofen or tylenol what what's your relief level what's your pain look like then
+ [patient] maybe a seven it it's a little
+ [doctor] okay now you mentioned going for a walk my wife and i've been on on back behind the new rex center where the new trails are have you guys been back there
+ [patient] we have n't yet but i'm sure we'll check it out ever since i feel like working at home during covid we we we take walks all the time
+ [doctor] yeah i
+ [patient] no i have n't been there yet
+ [doctor] yeah those those trails are great there's like five miles of regular flat trails and then there's a bunch of hiking trails that they've opened up as well it's a really great place man you guys need to get out there we'll get you fixed up and we'll get you back out there okay
+ [patient] awesome
+ [doctor] so let's let's talk a little bit about my physical exam if it's okay with you i'm gon na do a quick physical exam on you your vitals look stable by the way a little elevated i know you're in pain on a focused exam of your left ankle now i do appreciate that there is ecchymosis or bruising over the lateral malleolus and there is some swelling i do i do appreciate some edema now you are positive for tenderness to palpation on the lateral side and the the soft tissue is swollen here the good news is i do not appreciate any laxity in the joint okay and i do n't feel any any type of bony tenderness to palpation of your foot now on the neurovascular exam of your left foot capillary refill is brisk less than three seconds and i do appreciate strong dorsalis pedis pulses and you do have motor and sensation intact which is good now it's important that they were compared bilaterally and they are yeah your your exam is the same bilaterally so that that's an important thing now we did do an x-ray of that left ankle when you came in so i'm gon na review those x-ray results with you now the good news is i do not appreciate a fracture or any bony abnormalities so that's a good thing right so let me talk to you a little bit about my assessment and plan so for your first problem of your left ankle pain your symptoms are consistent with an ankle sprain of the lateral ligament complex and the ligament on the outside of your ankle is what got stretched when you fell now the best treatment for this sprain is what you've kind of already been doing doing the elevation and compression and ice so we're gon na continue the rice protocol and i am gon na go ahead and give you an air cast just to stabilize that ankle i'm gon na prescribe you some crutches i want you to stay off that leg but i do want you to start walking as tolerated but it may be a few days before you feel like doing that now your symptoms are going to get better significantly over the first you know four five six seven days but i am gon na wan na follow up with you just to make sure you're doing okay so what i do is i would like to see you in two weeks and i'm gon na have you continue taking those nsaids as well to help reduce that pain and swelling any other questions comments or concerns before i have the nurse come in and get you fixed up
+ [patient] no i think that sounds like a plan
+ [doctor] okay sounds good like i said i will see you in two weeks if you have any questions or if you have a lot of pain come back in we'll reevaluate otherwise i think you're headed in the right direction and i'll see you again in two weeks
+ [patient] awesome thanks document
+ [doctor] alright thanks bye-bye</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ Left ankle pain.
+ HISTORY OF PRESENT ILLNESS
+ Matthew Murphy is a pleasant 20-year-old male who presents to the clinic today for the evaluation of left ankle pain. The onset of his pain began 2 days ago, when he stepped off of a curb and landed on his left ankle wrong. He denies hearing a pop at the time of the injury, however, he describes his ankle as feeling extended and stretched. He was able to ambulate back to his house after the incident but with pain. He denies any previous injuries to his left ankle. His pain is localized to the lateral aspect of his left ankle and can be rated at 8 out of 10 without medication. When taking ibuprofen his pain level is 7 out of 10. He states he has also iced and elevated his ankle.
+ SOCIAL HISTORY
+ Patient reports that he has been working from home since the start of COVID-19 and enjoys taking lots of walks.
+ MEDICATIONS
+ Patient reports taking ibuprofen.
+ REVIEW OF SYSTEMS
+ Musculoskeletal: Patient reports left ankle pain.
+ VITALS
+ Vitals are slightly elevated due to pain level but are otherwise stable.
+ PHYSICAL EXAM
+ NEURO: Normal strength and sensation bilaterally.
+ MSK: Examination of the left ankle: Ecchymosis noted over the lateral malleolus. Edema is present. Tenderness to palpation laterally. No joint laxity appreciated. No bony tenderness to palpation of the foot. Capillary refill is brisk at less than 3 seconds bilaterally. Strong dorsalis pedis pulses bilaterally.
+ RESULTS
+ These reveal no fracture or bony abnormalities.
+ ASSESSMENT
+ Left ankle sprain of the lateral ligament complex.
+ PLAN
+ After reviewing the patient's examination and radiographic findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. We discussed that his symptoms are consistent with an ankle sprain of the lateral ligament complex. The nature of the diagnosis and treatment options were discussed. At this time he will continue to follow the RICE protocol. He will continue to take NSAIDs as needed for pain and swelling. He will also be placed into an Aircast for ankle stabilization and will be provided crutches in order to remain non-weight-bearing. We discussed that it may be a few days before he feels able to tolerate walking. I also advised him that his symptoms will likely start to improve significantly over the next 4 to 6 days.
+ INSTRUCTIONS
+ The patient will follow up with me in 2 weeks to assess his progress, sooner if needed.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>train_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی میتھیو، آپ کیسے ہیں؟
+[مریض] ہی ڈاک، میں کافی بہتر ہوں۔ آپ کیسے ہیں؟
+[ڈاکٹر] میں بھی کافی بہتر ہوں۔ سنیں، نرس کے نوٹس میں دیکھا کہ آپ نے اپنا بائیں ٹخنے کو چوٹ پہنچائی ہے۔ کیا آپ مجھے اس کے بارے میں کچھ زیادہ بتا سکتے ہیں؟
+[مریض] جی ہاں، میں نے کیا۔ میں کل اپنی بیوی کے ساتھ سیر پر گیا تھا اور میں اس سے بات کر رہا تھا اور پھر فٹ پاتھ سے اتر گیا اور اس پر غلط طریقے سے لینڈ کیا۔ یہ تھوڑا شرمندگی کی بات ہے، لیکن جی ہاں، گزشتہ دو دنوں سے مجھے بہت درد ہو رہا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ تو جب آپ گرے تو کیا آپ نے کوئی پاپ سنا یا محسوس کیا؟
+[مریض] میں نہیں کہوں گا کہ میں نے واقعی کوئی پاپ سنا، یہ صرف بہت زیادہ ایکسپینڈڈ اور کھنچا ہوا محسوس ہوا۔ اور تب سے یہ مجھے بہت پریشان کر رہا ہے، خاص طور پر باہر کی جانب۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ واقعے کے بعد اس پر چل سکے؟
+[مریض] میں گھر واپس آ سکا کیونکہ میں نہیں چاہتا تھا کہ میری بیوی مجھے اٹھائے، لیکن یہ دردناک تھا۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا آپ نے پہلے کبھی اس ٹخنے کو کوئی چوٹ پہنچائی ہے؟
+[مریض] ماضی میں کوئی خاص چوٹ نہیں ہوئی۔
+[ڈاکٹر] ٹھیک ہے۔ تو اس کے بعد آپ نے اس بائیں ٹخنے کے لیے کیا کیا ہے؟ کیا آپ نے درد کو کم کرنے کے لیے کچھ کیا ہے؟
+[مریض] میں نے کچھ آئیبوپروفین لی ہے اور پھر میں نے اسے اونچا رکھنے کی کوشش کی ہے اور تھوڑی برف لگائی ہے اور اس پر وزن ڈالنے سے گریز کیا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ تو آئیے آپ کے درد کے معیار کے بارے میں جلدی سے بات کرتے ہیں۔ صفر کا مطلب کچھ نہ ہونا اور دس کا مطلب زندگی کا بدترین درد ہونا، بغیر کسی دوا کے، کیا آپ اپنے درد کی درجہ بندی کر سکتے ہیں؟
+[مریض] میں کہوں گا کہ یہ تقریباً آٹھ ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اور جب آپ آئیبوپروفین یا ٹیلینول لیتے ہیں تو آپ کو کتنی راحت ملتی ہے؟ تب آپ کا درد کیسا ہوتا ہے؟
+[مریض] شاید سات، یہ تھوڑا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اب آپ نے سیر پر جانے کا ذکر کیا، میری بیوی اور میں نے نئے ریکس سینٹر کے پیچھے سیر کی تھی جہاں نئے ٹریل ہیں۔ کیا آپ لوگ وہاں گئے ہیں؟
+[مریض] ہم ابھی تک نہیں گئے ہیں، لیکن مجھے یقین ہے کہ ہم جائیں گے۔ مجھے ایسا لگتا ہے کہ کووڈ کے دوران گھر پر کام کرنے کی وجہ سے ہم مسلسل سیر پر جاتے رہتے ہیں۔
+[ڈاکٹر] جی ہاں میں...
+[مریض] نہیں، میں ابھی تک وہاں نہیں گیا ہوں۔
+[ڈاکٹر] جی ہاں، وہ ٹریل بہت اچھے ہیں، تقریباً پانچ میل کے باقاعدہ فلیٹ ٹریل ہیں اور پھر بہت سارے ہائیکنگ ٹریل بھی کھولے گئے ہیں۔ یہ واقع میں ایک بہت اچھی جگہ ہے، آپ لوگوں کو وہاں جانا چاہیے۔ ہم آپ کو ٹھیک کر دیں گے اور آپ کو وہاں واپس لے جائیں گے۔ ٹھیک ہے؟
+[مریض] زبردست۔
+[ڈاکٹر] تو آئیے میرے جسمانی امتحان کے بارے میں تھوڑی بات کرتے ہیں۔ اگر آپ کو ٹھیک ہے تو میں آپ کا ایک فوری جسمانی امتحان کروں گا۔ آپ کے وائٹلز مستحکم ہیں، ویسے، تھوڑا زیادہ ہیں، مجھے معلوم ہے کہ آپ درد میں ہیں، بائیں ٹخنے کے مرکوز امتحان میں، میں اس بات کی قدر کرتا ہوں کہ لیٹرل میلےولس کے اوپر ایکائموئسس یا خوں بہنا ہے اور کچھ سوجن بھی ہے۔ میں ایڈیمہ کی قدر کرتا ہوں۔ آپ لیٹرل جانب پر چھونے پر درد کے لیے مثبت ہیں۔ نرم بافتیں یہاں سوجی ہوئی ہیں۔ اچھی خبر یہ ہے کہ مجھے جوڑ میں کوئی لکیسی نہیں محسوس ہوتی۔ اور میں آپ کے پاؤں کو چھونے پر کوئی ہڈی کا درد محسوس نہیں کرتا ہوں۔ نیورو وascular امتحان میں، بائیں پاؤں کی کیپیلری ریفل برک ہے، تین سیکنڈ سے کم ہے، اور میں ڈورسالس پیڈس پلس مضبوط محسوس کرتا ہوں، اور آپ کی موٹر اور حس پوری ہے، جو اچھی ہے۔ اب یہ ضروری ہے کہ ان کی دوطرفہ طور پر موازنہ کیا گیا تھا اور وہ ہیں، ہاں، آپ کا امتحان دوطرفہ طور پر ایک جیسا ہے۔ تو یہ ایک اہم چیز ہے۔ ہم نے آنے پر اس بائیں ٹخنے کا ایک ایکس-رے کیا تھا، چنانچہ میں ان ایکس-رے کے نتائج کا جائزہ لوں گا۔ اچھی خبر یہ ہے کہ مجھے کوئی فریکچر یا کوئی ہڈی کی غیر معمولی چیز نظر نہیں آتی، تو یہ اچھی بات ہے، ٹھیک ہے؟ تو آئیے میں آپ سے اپنے جائزے اور منصوبہ کے بارے میں تھوڑا بات کروں۔ تو آپ کی پہلی مشکل، آپ کے بائیں ٹخنے کا درد، آپ کے علامات لیٹرل لیگمنٹ کمپلیکس کے ٹخنے کی موچ کے مطابق ہیں، اور آپ کے ٹخنے کے باہر کی لیگمنٹ وہی ہے جو آپ گرنے پر کھنچ گئی تھی۔ اس موچ کا بہترین علاج وہی ہے جو آپ پہلے ہی کر رہے ہیں، یعنی الیویٹیشن اور کمپریشن اور برف لگانا۔ چنانچہ ہم RAISE پروٹوکول جاری رکھیں گے، اور میں آپ کو ٹخنے کو مستحکم کرنے کے لیے ایک ایئر کاسٹ دوں گا۔ میں آپ کو کرچز تجویز کروں گا۔ میں چاہتا ہوں کہ آپ اس ٹانگ سے دور رہیں، لیکن میں چاہتا ہوں کہ آپ برداشت کے مطابق چلنا شروع کریں، لیکن اس سے پہلے چند دن لگ سکتے ہیں کہ آپ ایسا محسوس کریں۔ آپ کے علامات پہلے چار، پانچ، چھ، سات دنوں میں نمایاں طور پر بہتر ہوں گے، لیکن میں آپ کے ساتھ فالو اپ کرنا چاہوں گا تاکہ یہ یقینی بنایا جا سکے کہ آپ ٹھیک ہیں۔ چنانچہ میں آپ کو دو ہفتوں میں دیکھنا چاہوں گا۔ اور میں آپ کو درد اور سوجن کو کم کرنے میں مدد کے لیے وہ NSAIDs لینا جاری رکھنے کے لیے کہوں گا۔ کیا کوئی اور سوالات، تبصرے یا خدشات ہیں اس سے پہلے کہ میں نرس کو بلائیں اور آپ کو ٹھیک کروں؟
+[مریض] نہیں، مجھے لگتا ہے کہ یہ ایک منصوبہ لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے، اچھا سنا۔ جیسا کہ میں نے کہا، میں دو ہفتوں میں آپ کو دیکھوں گا۔ اگر آپ کے کوئی سوالات ہیں یا اگر آپ کو بہت زیادہ درد ہے تو واپس آئیں۔ ورنہ، مجھے لگتا ہے کہ آپ صحیح سمت میں جا رہے ہیں، اور میں دو ہفتوں میں پھر آپ کو دیکھوں گا۔
+[مریض] زبردست، شکریہ ڈاک۔
+[ڈاکٹر] ٹھیک ہے، شکریہ، الوداع۔</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>چیف کمپلائنٹ
+بائیں ٹخنے میں درد۔
+موجودہ بیماری کی تاریخ
+میٹھیو مرفی 20 سالہ مرد ہیں جو آج بائیں ٹخنے کے درد کے جائزے کے لیے کلینک میں پیش ہوئے ہیں۔ ان کے درد کا آغاز 2 روز قبل ہوا، جب وہ ایک سڑک کے کنارے سے اترے اور اپنے بائیں ٹخنے پر غلط طریقے سے لینڈ کیا۔ انہوں نے چوٹ کے وقت کسی "پاپ" کی آواز سننے سے انکار کیا ہے، تاہم، انہوں نے اپنے ٹخنے کو پھیلا ہوا اور کھینچا ہوا محسوس کیا۔ وہ واقعے کے بعد درد کے ساتھ اپنے گھر واپس چل سکے تھے۔ انہوں نے اپنے بائیں ٹخنے کو پہلے کبھی چوٹ پہنچانے سے انکار کیا ہے۔ ان کا درد ان کے بائیں ٹخنے کے بیرونی حصے میں مرکوز ہے اور دوائی کے بغیر 10 میں سے 8 تک ریٹ کیا جا سکتا ہے۔ آئیبوپروفین لینے پر ان کا درد کا درجہ 10 میں سے 7 ہے۔ انہوں نے یہ بھی بتایا کہ انہوں نے اپنے ٹخنے پر برف لگائی ہے اور اسے بلند رکھا ہے۔
+سوشل ہسٹری
+مریض نے بتایا کہ وہ COVID-19 کے آغاز کے بعد سے گھر سے کام کر رہے ہیں اور بہت زیادہ سیر پر جانے کا لطف اندوز ہوتے ہیں۔
+دوائیں
+مریض نے بتایا کہ وہ آئیبوپروفین لے رہے ہیں۔
+سسٹم کا جائزہ
+مساؤسکلیٹل: مریض نے بائیں ٹخنے میں درد کی شکایت کی۔
+وائٹلز
+وائٹلز درد کے درجے کی وجہ سے قدرے بلند ہیں لیکن بصورت دیگر مستحکم ہیں۔
+جسمانی امتحان
+نیورو: دونوں اطراف میں عام طاقت اور احساس۔
+ایم ایس کے: بائیں ٹخنے کا جائزہ: بیرونی میلولس کے اوپر ایکائیموسس نوٹ کیا گیا۔ سوزش موجود ہے۔ بیرونی حصے میں چھونے پر درد۔ کوئی جوڑ کی نرمی محسوس نہیں ہوئی۔ پاؤں کی ہڈیوں کے چھونے پر کوئی ہڈی کا درد نہیں ہے۔ دونوں اطراف میں کیپیلری ریفل 3 سیکنڈ سے کم ہے۔ دونوں اطراف میں مضبوط ڈورسالس پیڈس نبضیں۔
+نتائج
+ان میں کوئی فریکچر یا ہڈی کی غیر معمولی حالت ظاہر نہیں ہوئی۔
+مؤائنہ
+بائیں ٹخنے میں بیرونی لیگمنٹ کمپلیکس کا موچ۔
+یोजना
+مریض کے آج کے امتحان اور ریڈیو گرافی نتائج کا جائزہ لینے کے بعد، میں نے ان کے موجودہ علامات کے سلسلے میں مریض کے ساتھ طویل گفتگو کی ہے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ ان کے علامات ٹخنے کے بیرونی لیگمنٹ کمپلیکس کے موچ کے مطابق ہیں۔ تشخیص اور علاج کے اختیارات کی نوعیت پر بحث کی گئی۔ اس وقت وہ RICE پروٹوکول پر عمل جاری رکھیں گے۔ وہ درد اور سوجن کے لیے ضرورت کے مطابق NSAIDs لینا جاری رکھیں گے۔ انہیں ٹخنے کے استحکام کے لیے ایئرکاسٹ میں بھی رکھا جائے گا اور انہیں نان ویٹ بیئرنگ رہنے کے لیے کرچز فراہم کیے جائیں گے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ وہ چلنے کو برداشت کرنے کے قابل محسوس کرنے سے پہلے چند دن لگ سکتے ہیں۔ میں نے انہیں یہ مشورہ بھی دیا کہ اگلے 4 سے 6 دنوں میں ان کے علامات میں نمایاں بہتری آنے کا امکان ہے۔
+ہدایات
+مریض 2 ہفتوں میں ان کی پیشرفت کا جائزہ لینے کے لیے مجھ سے فالو اپ کریں گے، اگر ضرورت پڑے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>g_aci_057</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>virtassist</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>VA032</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[doctor] hi keith , how are you ?
+ [patient] ah , not too good . my blood sugar is n't under control .
+ [doctor] and , uh , so keith is a 58-year-old male here for evaluation of high blood sugar . so , what happened ? ha- have you just been taking your blood sugars at home and noticed that they're really high ? or ?
+ [patient] yeah i've been taking them at home and i feel like they've been creeping up slightly .
+ [doctor] have- ... what have they been running , in like the 200's or 300's ?
+ [patient] 300's .
+ [doctor] they've been running in the 300's ? and tell me about your diet . have you been eating anything to spark- ... spike them up ?
+ [patient] to be honest my diet has n't changed much .
+ [doctor] okay . have you- ... go ahead .
+ [patient] actually it has n't changed at all . much of the same .
+ [doctor] okay and what do you con- consider the same ? are you eating lots of sugar ? like , teas and coffees and-
+ [patient] i do n't take sugar with my tea .
+ [doctor] okay , all right . and how about , um , like any added sugars into any kind of processed foods or anything like that ?
+ [patient] uh , i think most of my sugars come from fruit .
+ [doctor] from what ?
+ [patient] fruit .
+ [doctor] fruit , okay .
+ [patient] yeah .
+ [doctor] all right . um , and have you been feeling sick recently ? have you had any fever or chills ?
+ [patient] uh , i have not .
+ [doctor] body aches , joint pain ?
+ [patient] uh , a bit of joint pain .
+ [doctor] multiple joints , or just one joint ?
+ [patient] uh , my knee . uh , sorry , right knee to be more exact .
+ [doctor] your right knee ?
+ [patient] yeah .
+ [doctor] okay . and what happened ?
+ [patient] ah , to be honest , nothing much . i just noticed it when you said it .
+ [doctor] okay , all right . um , and how about any nausea or vomiting or belly pain ?
+ [patient] uh , i was nauseous a couple of days back but , uh , that's just because i was sitting in the back of a car . i hate that .
+ [doctor] okay . all right . and no burning when you urinate or anything like that ?
+ [patient] not at all .
+ [doctor] okay . all right . so , um ... you know , i know that you've had this reflux in the past . how are you doing with that ? are you still having a lot of reflux symptoms or do you feel like it's better since we've put you on the protonix ?
+ [patient] i think it's a bit better . uh , i do n't get up at night anymore with reflux and that's always a good thing .
+ [doctor] okay , all right . and i know you have this history of congestive heart failure . have you noticed any recent , uh , weight gain or fluid retention ?
+ [patient] um , not really .
+ [doctor] no ? okay . um , and any problems sleeping while laying flat ?
+ [patient] uh , i- i prefer to sleep on my side so i ca n't really say .
+ [doctor] okay , but even then , you're flat .
+ [patient] yup , yeah .
+ [doctor] okay . all right . and i know that we had an issue with your right rotator cuff , is that okay ?
+ [patient] it's surprisingly good now .
+ [doctor] okay , all right . all right , well let's go ahead and we'll do a quick physical exam . so ... feeling your neck , i do feel like your thyroid's a bit enlarged here . um , your heart is nice and regular . your lungs are clear . your abdomen , um , is nice and soft . your right knee shows that you have some erythema and- and an insect bite with associated fluctuants . and , um , you have some lower extremity edema on the right hand side . so let's go ahead and look at some of your results . i know the nurse had reported these things and we ordered some labs on you before you came in . hey dragon , show me the vital signs . okay , well your- your vital signs look good , which is good . hey dragon , show me the lyme titer . okay , so , you know , your lyme titer is a little elevated , so i think we'll have to go ahead and- and look into that a little bit , okay ?
+ [patient] makes sense .
+ [doctor] that can certainly cause your blood sugar to be elevated . um , hey dragon , uh , show me the rapid strep . and you also have , uh , positive for strep . so i think we have some reasons as to why your blood sugar is so high . so my impression of you , you know , you have this hyperglycemia , which is probably related to some infections going on in your body . um , from a- a- a rapid strep standpoint we're gon na go ahead and treat you with penicillin or , i'm sorry , amoxicillin , 500 milligrams , three times a day . uh , make sure you take it all , even if you start feeling better , okay ?
+ [patient] for sure .
+ [doctor] hey dragon , order amoxicillin , 500 milligrams , three times a day for 10 days . um ... okay . and from ... , and from all- ... a positive lyme titer aspect , we should go ahead and order a western blot , just pcr to see if you have any , um , to see if it's actually acute lyme , okay ?
+ [patient] okay .
+ [doctor] okay . um , hey dragon , order a western blot pcr for lyme . okay . all right . well we'll go ahead and , um , the nurse will come in soon and she'll set you up with these tests , okay ?
+ [patient] yeah . you said lyme . is that related to lyme disease ?
+ [doctor] yes it is , yeah .
+ [patient] you're certain i do n't have alpha-gal syndrome though , right ? i'm terrified of that one .
+ [doctor] have what ?
+ [patient] alpha-gal syndrome , the one where a tick bites you and you get an allergic reaction to meat .
+ [doctor] yeah , i do n't think so . have you eaten meat over the last couple of days ?
+ [patient] i have .
+ [doctor] okay . well i- ... it's , you know , your blood sugar's elevated so you might be having an inflammatory response to that , but we'll go ahead and order some tests to look into it , okay ?
+ [patient] that sounds good .
+ [doctor] all right . call me if anything happens , okay ?
+ [patient] definitely .
+ [doctor] all right . hey dragon , finalize the note .</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+ High blood sugar.
+ HISTORY OF PRESENT ILLNESS
+ The patient is a 58-year-old male who presents for evaluation of high blood sugar.
+ The patient states he has been taking his blood sugars at home, and they have been in the 300 's. He notes that his diet has not changed much. He does not eat processed food, nor does he put sugar in his tea. The patient reports that he thinks the sugar in his diet is from fruit. He denies any fever, chills, or body aches. He endorses joint pain in his right knee; however, he notes that he just noticed the joint pain when asked. He states he was nauseous for a couple of days but that was because he was sitting in the back of a car. He denies any burning with urination.
+ The patient has a history of congestive heart failure. He denies any recent weight gain or fluid retention. He has no problems laying flat.
+ The patient has a history of right rotator cuff issues which he notes are doing well.
+ He notes that his reflux is doing better. The patient reports that he no longer gets up at night from reflux.
+ REVIEW OF SYSTEMS
+ â€¢ Constitutional: Negative for fever, chills or unintentional weight changes.
+ â€¢ Musculoskeletal: Positive for right knee pain.
+ PHYSICAL EXAMINATION
+ Neck
+ â€¢ General Examination: Neck is supple, mild thyromegaly noted.
+ Respiratory
+ â€¢ Auscultation of Lungs: Clear bilaterally.
+ Cardiovascular
+ â€¢ Auscultation of Heart: Regular rate and rhythm.
+ Gastrointestinal
+ â€¢ Examination of Abdomen: Soft.
+ Musculoskeletal
+ â€¢ Examination: Right knee shows some erythema and insect bite with associated fluctuance. Trace edema in the right lower extremity.ÃŸ
+ RESULTS
+ Lyme titer: elevated.
+ Rapid strep test: positive.
+ ASSESSMENT AND PLAN
+ The patient is a 58-year-old male who presents for evaluation of high blood sugar.
+ Hyperglycemia
+ â€¢ Medical Reasoning: This is likely related to an inflammatory response as the patient had an elevated Lyme titer and positive rapid strep test.
+ â€¢ Additional Testing: We will order a western blot PCR to evaluate for Lyme disease.
+ â€¢ Medical Treatment: We are going to treat him with amoxicillin 500 mg 3 times a day for 10 days.
+ Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>train</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی کیتھ، آپ کیسے ہیں؟
+[مریض] آہ، بہت اچھا نہیں۔ میرا بلڈ شوگر کنٹرول میں نہیں ہے۔
+[ڈاکٹر] اور، اوہ، تو کیتھ یہاں 58 سالہ مرد ہے جو بلڈ شوگر کے بڑھنے کے جائزے کے لیے آیا ہے۔ تو، کیا ہوا؟ کیا آپ گھر پر اپنا بلڈ شوگر چیک کر رہے تھے اور دیکھا کہ وہ واقعی زیادہ ہے؟ یا؟
+[مریض] ہاں، میں گھر پر چیک کر رہا تھا اور مجھے ایسا لگتا ہے کہ وہ تھوڑی تھوڑی بڑھ رہے ہیں۔
+[ڈاکٹر] وہ کتنے رہے ہیں، جیسے 200s یا 300s میں؟
+[مریض] 300s میں۔
+[ڈاکٹر] وہ 300s میں رہے ہیں؟ اور اپنے کھانے کے بارے میں بتائیں تو۔ کیا آپ کچھ ایسا کھا رہے ہیں جس سے... وہ بڑھ جائے؟
+[مریض] ایمانداری سے کہوں تو میرے کھانے میں زیادہ تبدیلی نہیں آئی ہے۔
+[ڈاکٹر] ٹھیک ہے۔ کیا آپ نے... آگے بڑھیں۔
+[مریض] درحقیقت، بالکل تبدیل نہیں ہوا۔ زیادہ تر وہی۔
+[ڈاکٹر] ٹھیک ہے۔ اور آپ وہی کس چیز کو سمجھتے ہیں؟ کیا آپ بہت زیادہ چینی کھا رہے ہیں؟ جیسے، چائے اور کافی میں اور-
+[مریض] میں اپنی چائے میں چینی نہیں لیتے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور پروسیسڈ فوڈز یا اس جیسی کسی بھی چیز میں اضافی چینی کے بارے میں کیا خیال ہے؟
+[مریض] اوہ، مجھے لگتا ہے کہ میری زیادہ تر چینی پھلوں سے آتی ہے۔
+[ڈاکٹر] کس چیز سے؟
+[مریض] پھل۔
+[ڈاکٹر] پھل، ٹھیک ہے۔
+[مریض] ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، اور کیا آپ کو حال ہی میں کوئی بیماری محسوس ہوئی ہے؟ کیا آپ کو بخار یا ٹھنڈ لگ رہی ہے؟
+[مریض] اوہ، نہیں ہے۔
+[ڈاکٹر] جسم میں درد، جوڑوں کا درد؟
+[مریض] اوہ، تھوڑا سا جوڑوں کا درد ہے۔
+[ڈاکٹر] کئی جوڑ، یا صرف ایک جوڑ؟
+[مریض] اوہ، میرا گھٹنا۔ اوہ، معاف کیجیے، زیادہ درست ہونے کے لیے دائیں گھٹنے کا۔
+[ڈاکٹر] آپ کا دائیں گھٹنا؟
+[مریض] ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ اور کیا ہوا؟
+[مریض] آہ، ایمانداری سے کہوں تو، زیادہ کچھ نہیں۔ میں نے اسے تب دیکھا جب آپ نے کہا۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اوہ، اور پیٹ میں متلی، الٹی یا درد کے بارے میں کیا خیال ہے؟
+[مریض] اوہ، مجھے دو دن پہلے متلی آئی تھی لیکن، اوہ، یہ صرف اس لیے تھا کہ میں گاڑی کے پیچھے بیٹھا تھا۔ مجھے یہ پسند نہیں ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اور پیشاب کرتے وقت جلنے یا اس جیسی کوئی چیز نہیں؟
+[مریض] بالکل نہیں۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ تو، اوہ... آپ جانتے ہیں، مجھے معلوم ہے کہ آپ کو ماضی میں ریفلکس رہا ہے۔ اس کے بارے میں آپ کیسے ہیں؟ کیا آپ کو ابھی بھی بہت زیادہ ریفلکس کے علامات ہیں یا آپ کو لگتا ہے کہ یہ بہتر ہے کیونکہ ہم نے آپ کو پروٹونکس پر رکھا ہے؟
+[مریض] مجھے لگتا ہے کہ یہ تھوڑا بہتر ہے۔ اوہ، میں اب رات کو ریفلکس کی وجہ سے اٹھتا نہیں ہوں اور یہ ہمیشہ اچھی بات ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور مجھے معلوم ہے کہ آپ کو دل کی ناکافی بیماری کا مسئلہ ہے۔ کیا آپ نے حال ہی میں وزن بڑھنے یا پانی جمع ہونے کا کوئی نوٹس لیا ہے؟
+[مریض] اوہ، زیادہ تر نہیں۔
+[ڈاکٹر] نہیں؟ ٹھیک ہے۔ اوہ، اور سیدھے لیٹ کر سونے میں کوئی مشکل؟
+[مریض] اوہ، میں اپنی سائیڈ پر سونے کو ترجیح دیتا ہوں لہذا میں واقع میں نہیں کہہ سکتا۔
+[ڈاکٹر] ٹھیک ہے، لیکن اس کے باوجود، آپ سیدھے ہیں۔
+[مریض] یپ، ہاں۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے۔ اور مجھے معلوم ہے کہ ہمارے پاس آپ کے دائیں روٹیٹر کف کے ساتھ ایک مسئلہ تھا، کیا وہ ٹھیک ہے؟
+[مریض] یہ حیران کن طور پر اب اچھا ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ ٹھیک ہے، تو آگے بڑھتے ہیں اور ہم ایک تیز جسمانی امتحان کریں گے۔ تو... آپ کی گردن کو محسوس کرتے ہوئے، مجھے لگتا ہے کہ آپ کی تھائیرائیڈ تھوڑی بڑھی ہوئی ہے۔ اوہ، آپ کا دل اچھا اور باقاعدہ ہے۔ آپ کے پھیپھڑے صاف ہیں۔ آپ کا پیٹ، اوہ، اچھا اور نرم ہے۔ آپ کے دائیں گھٹنے سے پتہ چلتا ہے کہ آپ کو کچھ سوزش اور- اور ایک کیڑے کا کاٹنا ہے جس کے ساتھ ساتھ فلکچوانٹس ہیں۔ اور، اوہ، آپ کے نچلے جسم کے اعضاء میں دائیں جانب سوجن ہے۔ تو چلیں، اپنے کچھ نتائج دیکھتے ہیں۔ مجھے معلوم ہے کہ نرس نے یہ باتیں رپورٹ کی تھیں اور ہم نے آپ کے آنے سے پہلے آپ کے کچھ لیب آرڈر کیے تھے۔ اوہی ڈریگن، مجھے وائٹل سائن دکھائیں۔ ٹھیک ہے، تو آپ کے- آپ کے وائٹل سائن اچھے لگ رہے ہیں، جو اچھی بات ہے۔ اوہی ڈریگن، مجھے لائم ٹائٹر دکھائیں۔ ٹھیک ہے، تو، آپ جانتے ہیں، آپ کا لائم ٹائٹر تھوڑا بلند ہے، لہذا مجھے لگتا ہے کہ ہمیں آگے بڑھ کر- اور اس کی تھوڑی مزید تحقیق کرنی ہوگی، ٹھیک ہے؟
+[مریض] سمجھ میں آتا ہے۔
+[ڈاکٹر] یہ یقینی طور پر آپ کے بلڈ شوگر کو بلند کر سکتا ہے۔ اوہ، اوہی ڈریگن، تیز اسٹریپ دکھائیں۔ اور آپ کے پاس، اوہ، اسٹریپ کے لیے مثبت بھی ہے۔ لہذا مجھے لگتا ہے کہ ہمارے پاس کچھ وجوہات ہیں کہ آپ کا بلڈ شوگر اتنا زیادہ کیوں ہے۔ تو میرے تاثرات، آپ جانتے ہیں، آپ کو ہائپر گلیسمیا ہے، جو شاید آپ کے جسم میں کچھ انفیکشن سے متعلق ہے۔ اوہ، ایک تیز اسٹریپ کے نقطہ نظر سے ہم آگے بڑھ کر آپ کا پینسلن یا، معاف کیجیے، ایموکسیسلین، 500 ملی گرام، دن میں تین بار کے ساتھ علاج کریں گے۔ اوہ، یقینی بنائیں کہ آپ اسے سب لیں، چاہے آپ کو بہتر محسوس ہونا شروع ہو جائے، ٹھیک ہے؟
+[مریض] ضرور۔
+[ڈاکٹر] اوہی ڈریگن، ایموکسیسلین، 500 ملی گرام، دن میں تین بار 10 دنوں کے لیے آرڈر کریں۔ اوہ... ٹھیک ہے۔ اور... اور، اور مثبت لائم ٹائٹر کے پہلو سے، ہمیں آگے بڑھ کر ایک ویسٹرن بلاٹ، صرف پی سی آر آرڈر کرنا چاہیے تاکہ یہ دیکھنے کے لیے کہ کیا آپ کے پاس کوئی ہے، اوہ، یہ دیکھنے کے لیے کہ کیا یہ واقعی ایکٹیو لائم ہے، ٹھیک ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] ٹھیک ہے۔ اوہ، اوہی ڈریگن، لائم کے لیے ویسٹرن بلاٹ پی سی آر آرڈر کریں۔ ٹھیک ہے۔ ٹھیک ہے۔ تو ہم آگے بڑھیں گے اور، اوہ، نرس جلد ہی آئے گی اور وہ آپ کو ان ٹیسٹوں کے لیے تیار کرے گی، ٹھیک ہے؟
+[مریض] ہاں۔ آپ نے لائم کہا۔ کیا یہ لائم بیماری سے متعلق ہے؟
+[ڈاکٹر] ہاں، یہ ہے۔
+[مریض] کیا آپ یقین رکھتے ہیں کہ مجھے الفا-گیل سنڈروم نہیں ہے، ٹھیک ہے؟ میں اس سے خوفزدہ ہوں۔
+[ڈاکٹر] کیا؟
+[مریض] الفا-گیل سنڈروم، وہ جہاں ایک ٹک آپ کو کاٹتا ہے اور آپ کو گوشت پر الرجی کا رد عمل ہوتا ہے۔
+[ڈاکٹر] ہاں، مجھے نہیں لگتا۔ کیا آپ نے گزشتہ چند دنوں میں گوشت کھایا ہے؟
+[مریض] میں نے کھایا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ ٹھیک ہے، میں... یہ، آپ جانتے ہیں، آپ کا بلڈ شوگر بلند ہے لہذا آپ اس پر سوزش کا رد عمل کر رہے ہوں گے، لیکن ہم اسے دیکھنے کے لیے کچھ ٹیسٹ آرڈر کریں گے، ٹھیک ہے؟
+[مریض] یہ اچھا لگتا ہے۔
+[ڈاکٹر] ٹھیک ہے۔ کچھ بھی ہو تو مجھے فون کریں۔
+[مریض] ضرور۔
+[ڈاکٹر] ٹھیک ہے۔ اوہی ڈریگن، نوٹ کو حتمی بنائیں۔</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ (Chief Complaint)
+بلڈ شوگر کا زیادہ ہونا۔
+موجودہ بیماری کی تاریخ (History of Present Illness)
+مریض 58 سالہ مرد ہیں جو بلڈ شوگر کے زیادہ ہونے کے لیے جائزے کے لیے پیش ہوئے ہیں۔
+مریض بیان کرتے ہیں کہ وہ گھر پر اپنے بلڈ شوگر چیک کر رہے ہیں، اور وہ 300 کی دہائی میں ہیں۔ وہ نوٹ کرتے ہیں کہ ان کی خوراک میں زیادہ تبدیلی نہیں آئی ہے۔ وہ پروسسڈ فوڈ نہیں کھاتے، اور نہ ہی وہ اپنی چائے میں چینی ڈالتے ہیں۔ مریض کا خیال ہے کہ ان کی خوراک میں چینی پھلوں سے آتی ہے۔ وہ بخار، ٹھنڈ لگنا، یا جسم درد سے انکار کرتے ہیں۔ وہ اپنے دائیں گھٹنے میں جوڑوں کے درد کی تصدیق کرتے ہیں؛ تاہم، وہ نوٹ کرتے ہیں کہ انہوں نے سوال پوچھنے پر ہی جوڑوں کا درد دیکھا۔ وہ بیان کرتے ہیں کہ انہیں دو دنوں تک متلی تھی لیکن اس کی وجہ یہ تھی کہ وہ کار کے پیچھے بیٹھے تھے۔ وہ پیشاب کے ساتھ جلنے سے انکار کرتے ہیں۔
+مریض کو congestive heart failure کی تاریخ ہے۔ وہ حالیہ وزن میں اضافہ یا پانی کے جمع ہونے سے انکار کرتے ہیں۔ انہیں ہموار لیٹنے میں کوئی مسئلہ نہیں ہے۔
+مریض کو دائیں rotator cuff کے مسائل کی تاریخ ہے جو وہ نوٹ کرتے ہیں کہ بہتر ہو رہے ہیں۔
+وہ نوٹ کرتے ہیں کہ ان کا reflux بہتر ہو رہا ہے۔ مریض بتاتے ہیں کہ اب وہ رات کو reflux کی وجہ سے نہیں اٹھتے۔
+سسٹمز کا جائزہ (Review of Systems)
+• Constitutional: بخار، ٹھنڈ لگنا یا غیر ارادی وزن میں تبدیلی کے لیے منفی۔
+• Musculoskeletal: دائیں گھٹنے کے درد کے لیے مثبت۔
+جسمانی امتحان (Physical Examination)
+گردن (Neck)
+• جنرل امتحان: گردن لچکدار ہے، ہلکی thyromegaly نوٹ کی گئی۔
+سانس (Respiratory)
+• پھیپھڑوں کا Auscultation: دونوں طرف صاف۔
+قلبی عروقی (Cardiovascular)
+• دل کا Auscultation: باقاعدہ شرح اور لکڑی۔
+گیسٹرواینٹسٹینل (Gastrointestinal)
+• پیٹ کا امتحان: نرم۔
+مسکلو سکیلیٹل (Musculoskeletal)
+• امتحان: دائیں گھٹنے میں کچھ erythema اور کیڑے کا کاٹنا مع منسلک fluctuance ہے۔ دائیں نچلے عضو میں ہلکی edema۔
+نتائج (Results)
+Lyme titer: بلند۔
+Rapid strep test: مثبت۔
+تشخیص اور منصوبہ (Assessment and Plan)
+مریض 58 سالہ مرد ہیں جو بلڈ شوگر کے زیادہ ہونے کے لیے جائزے کے لیے پیش ہوئے۔
+ہائیپرگلیسمیا (Hyperglycemia)
+• طبی منطق: یہ ممکنہ طور پر سوزشی ردعمل سے متعلق ہے کیونکہ مریض کے Lyme titer بلند تھے اور rapid strep test مثبت تھا۔
+• اضافی ٹیسٹنگ: ہم Lyme disease کے لیے western blot PCR کا آرڈر کریں گے۔
+• طبی علاج: ہم انہیں 10 دنوں تک روزانہ 3 بار 500 mg amoxicillin کے ساتھ علاج کریں گے۔
+مریض کی رضامندی: مریض تجویز کردہ طبی علاج کے منصوبے کو سمجھتا ہے اور اس سے اتفاق کرتا ہے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>g_aci_058</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>ACI029</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[doctor] alright scott so so i understand that you you had some right knee injury can you tell me a little bit about what happened
+  [patient] yeah i was trying to go out and play some pickup soccer games over the weekend and went to go plank kick the ball and and just felt a pop in my right knee
+  [doctor] okay and and how long ago did that happen
+  [patient] about three days ago
+  [doctor] three days okay and when did you notice any swelling anything like that
+  [patient] it it's swollen some some of that swelling has gone down
+  [doctor] okay
+  [patient] but it it mainly just it it feels like that i just i ca n't my knee is just not as functionally it's not moving as well as what it used to be it seems to be a little limited
+  [doctor] okay alright and then so how's the pain with your knee on a scale of one to ten one being the least pain ten being the worst pain how's how's it been ranging
+  [patient] it's somewhere between six and seven right now it's about four or five with some of the swelling going down
+  [doctor] okay alright and did you take anything at all to relieve the pain
+  [patient] anti-inflammatories
+  [doctor] okay alrighty and did that help
+  [patient] yeah the ibuprofen helped a little bit but i'm on it pretty on a pretty regular basis right now
+  [doctor] gotcha okay now tell me are you able to bend or straighten your leg ever since then
+  [patient] i can bend it but it hurts towards the end of the motion and i can straighten it but it does n't it feels like i have to help get it straightened
+  [doctor] okay alright and then how about you able to bear any weight on it or walk on it at all
+  [patient] i can still bear weight on it but it feels just really loose it it does n't feel normal
+  [doctor] gotcha okay alright well let's go ahead and take a look at your knee here real quick before i take a look at your knee here i'm gon na do a physical exam and in terms of your gait here i did notice that you do have a marked limp on your looks like it's your right leg upon ambulation so let me go ahead and take a look at that right knee real quick i do appreciate some significant effusion in the right knee just a slight bit of ecchymosis let me just feel around here scott how does that feel does that hurt when i kinda press on that there
+  [patient] a little bit of pain there not not really bad it's it feels like it's just more on the inside of my knee
+  [doctor] yep okay so you definitely feeling some a little bit of pain to palpation at the medial joint line now i'm gon na have you lie on your back and also i'm gon na do some maneuvering here of your leg i'm gon na do a real quick test on you here okay alright how does that feel
+  [patient] just feels just feels loose it hurts when you pull it at the very end
+  [doctor] okay sorry about that alright so you're definitely having some difficulty with some passive range of motion here and you're lacking a few degrees of terminal extension to about a hundred and fifteen degrees as well as lacking about maybe twenty to thirty degrees of terminal flexion on the secondary secondary to the pain here and you do have a positive lachman exam so one more thing i wan na take a look at real quick i'm gon na take a look at your toes here real quick very good so neurovascularly your bilateral lower extremities are intact and it looks like you have a muscle strength of a five out of five so scott you know based on my examination here your right knee injury is really suggestive of anterior cruciate ligament tear and you've heard of it probably even heard as acl tear sometimes especially when a lot of people do sports and they injure their knee that that can happen so my plan for you though is i wan na i wan na go ahead and order an mri because i wan na evaluate the integrity of that acl now you may need surgery but we'll we'll first take a look at that mri result and reevaluate and reevaluate that first but in the meantime i wan na go ahead and order some anti-inflammatory medication meloxicam 15 milligrams a day it's gon na help reduce that swelling and the pain and then i want you to go ahead and ice the knee if you need to if you're still seeing some swelling and some pain you can go ahead and use ice as well but i definitely would like for you to moderate your activities so i would like for you to wear a knee immobilizer and then also use crutches when you walk around just to help you a little bit so not to put too much stress and strain on that knee does that sound like a plan
+  [patient] it it does now well i need to limit my work activities i i typically sit behind a desk but it's not been very comfortable sitting here lately
+  [doctor] yeah definitely so yeah so you you can limit the activities for sure in terms of your work activities i know if you sit too long sometimes it can be painful because you do need to move that leg a little bit so it does n't lock up so i i would like for you to you know do do some slight activities not enough to stress your legs but definitely move move them a little bit every now and then so it does n't lock up on you okay
+  [patient] okay
+  [doctor] alright i do want you to i know you are i know you actually jog often so i want you to just slow that down for a bit no jogging for a while until we get you know results of your mri till we figure out what we what we are gon na be doing okay
+  [patient] okay
+  [doctor] alright and how's your dog you has it been jogging with you before this incident
+  [patient] how's just how's my dog or how is my job
+  [doctor] your your dog
+  [patient] my my my dog is okay
+  [doctor] good
+  [patient] is doing really well and and he enjoys still playing around outside but looks like wo n't be able to do that for a little bit
+  [doctor] very good alright well i'm gon na go ahead and have the nurse take you to the scheduler to get your mri and i'll get back with you as soon as we get the results of that
+  [patient] okay sounds good thank you
+  [doctor] thank you</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+  Right knee injury.
+  HISTORY OF PRESENT ILLNESS
+  Scott Miller is a pleasant 36-year-old male who presents to the clinic today for the evaluation of a right knee injury. The injury occurred 3 days ago, when he was playing pickup soccer games and felt a pop in his right knee. He reports swelling at the time of the injury, which has improved. The patient states that his knee is not as functional or moving as well as it used to be. He rates his pain level as a 6 to 7 out of 10 currently and a 4 to 5 out of 10 when the swelling decreases. The patient has been taking ibuprofen on a regular basis, which provides some relief. He states that he is able to bend his knee with pain towards the end of this motion; however, when he goes to straighten his knee, he feels like he has to help it straight. The patient adds that he is able to bear weight on his right knee, however it feels loose and does not feel normal.
+  SOCIAL HISTORY
+  The patient works at a desk.
+  REVIEW OF SYSTEMS
+  Musculoskeletal: Reports right knee pain.
+  PHYSICAL EXAM
+  GAIT: Marked limp in the right leg upon ambulation.
+  MSK: Examination of the right knee: Significant effusion. Slight ecchymosis. Pain with palpation at the medial joint line. Difficulty with passive ROM. Lacking a few degrees of terminal extension to 115 degrees. Lacking 20-30 degrees of terminal flexion secondary to pain. Positive Lachman's test. Muscle strength is 5/5. Neurovascular intact distally.
+  ASSESSMENT
+  Right knee pain, possible anterior cruciate ligament tear.
+  PLAN
+  After reviewing the patient's examination findings today, I have had a lengthy discussion with the patient in regards to his current symptoms. I have recommended that we obtain an MRI of the right knee to evaluate the integrity of the ACL. I have prescribed the patient meloxicam 15 mg a day to reduce swelling and pain. We discussed that the patient should utilize ice and activity modification to reduce swelling and pain. I recommended that he wears a knee immobilizer and use crutches when he is ambulating. He will avoid jogging until we have the results of his MRI.
+  INSTRUCTIONS
+  The patient will follow up with me once the MRI results are available for review and further discussion.</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>test2_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ٹھیک ہے اسکاٹ تو تو مجھے سمجھ آیا ہے کہ آپ کو دائیں گھٹنے میں کچھ چوٹ آئی ہے کیا آپ مجھے بتائیں کہ کیا ہوا
+  [مریض] جی میں سکر پر جا کر فٹ بال کھیلنے کی کوشش کر رہا تھا اور گیند کو کک مارنے گیا تو میرے دائیں گھٹنے میں ایک پاپ کی آواز آئی
+  [ڈاکٹر] ٹھیک ہے اور یہ کب ہوا
+  [مریض] تقریباً تین دن پہلے
+  [ڈاکٹر] تین دن ٹھیک ہے اور کب آپ نے کوئی سوجن دیکھی یا اس جیسی کوئی چیز دیکھی
+  [مریض] یہ کچھ سوج گئی ہے کچھ سوجن کم ہو گئی ہے
+  [ڈاکٹر] ٹھیک ہے
+  [مریض] لیکن یہ زیادہ تر یہ ایسا لگتا ہے کہ میں صرف میں نہیں کر سکتا میرا گھٹنا اتنا فعال نہیں ہے جتنا پہلے ہوتا تھا یہ تھوڑا محدود لگتا ہے
+  [ڈاکٹر] ٹھیک ہے ٹھیک ہے اور پھر تو آپ کے گھٹنے میں درد کتنا ہے ایک سے دس کے پیمانے پر ایک کا مطلب کم سے کم درد اور دس کا مطلب سب سے زیادہ درد درد کتنا رہا ہے
+  [مریض] یہ ابھی چھ اور سات کے درمیان ہے یہ تقریباً چار یا پانچ ہے جب کچھ سوجن کم ہو رہی ہے
+  [ڈاکٹر] ٹھیک ہے ٹھیک ہے اور کیا آپ نے درد سے راحت کے لیے کوئی چیز لی
+  [مریض] سوزش-روधी دوائیں
+  [ڈاکٹر] ٹھیک ہے ٹھیک ہے اور کیا اس سے مدد ملی
+  [مریض] جی آئبوپروفین نے تھوڑی مدد کی لیکن میں ابھی اسے باقاعدگی سے استعمال کر رہا ہوں
+  [ڈاکٹر] سمجھ گیا ٹھیک ہے اب بتائیں کیا آپ اس کے بعد سے اپنا پیر موڑ یا سیدھا کر سکتے ہیں
+  [مریض] میں اسے موڑ سکتا ہوں لیکن حرکت کے آخر میں درد ہوتا ہے اور میں اسے سیدھا کر سکتا ہوں لیکن ایسا لگتا ہے کہ مجھے اسے سیدھا کرنے میں مدد کرنی پڑتی ہے
+  [ڈاکٹر] ٹھیک ہے ٹھیک ہے اور آپ اس پر کوئی وزن ڈال سکتے ہیں یا اس پر چل سکتے ہیں
+  [مریض] میں ابھی بھی اس پر وزن ڈال سکتا ہوں لیکن یہ بہت ڈھیلا لگتا ہے یہ عام نہیں لگتا
+  [ڈاکٹر] سمجھ گیا ٹھیک ہے ٹھیک ہے تو چلیں آپ کے گھٹنے کو جلدی سے دیکھ لیتے ہیں آپ کے گھٹنے کو دیکھنے سے پہلے میں ایک جسمانی امتحان کروں گا اور آپ کے چلنے کے حوالے سے میں نے دیکھا ہے کہ آپ لنگڑا رہے ہیں ایسا لگتا ہے کہ یہ آپ کا دایاں پاؤں ہے چلتے وقت تو مجھے وہ دایاں گھٹنا جلدی سے دیکھنے دیجیے مجھے دائیں گھٹنے میں کافی پانی جمع ہوا ہوا نظر آرہا ہے تھوڑی سی خوں بھی جمی ہوئی ہے مجھے یہاں تھوڑا محسوس کرنے دیجیے اسکاٹ یہ محسوس کیسا لگتا ہے کیا جب میں یہاں دباؤ تو درد ہوتا ہے
+  [مریض] وہاں تھوڑا سا درد ہے زیادہ نہیں یہ میرے گھٹنے کے اندرونی حصے میں زیادہ لگتا ہے
+  [ڈاکٹر] جی ہاں ٹھیک ہے تو آپ یقینی طور پر اندرونی جوائنٹ لائن پر چھونے پر تھوڑا درد محسوس کر رہے ہیں اب میں چاہتا ہوں کہ آپ اپنی پشت کے بل لیٹ جائیں اور میں آپ کے پیر کی کچھ حرکتیں بھی کروں گا میں آپ پر ایک تیز ٹیسٹ کروں گا ٹھیک ہے ٹھیک ہے یہ کیسا لگتا ہے
+  [مریض] بس بس ڈھیلا لگتا ہے جب آپ اسے آخر میں کھینچتے ہیں تو درد ہوتا ہے
+  [ڈاکٹر] ٹھیک ہے معذرت چاہتا ہوں ٹھیک ہے تو آپ یقینی طور پر کچھ غیر فعال رینج آف موشن میں مشکل محسوس کر رہے ہیں اور آپ تقریباً ایک سو پندرہ ڈگری تک ٹرمینل ایکسٹینشن کی کچھ ڈگریاں اور درد کی وجہ سے تقریباً بیس سے تیس ڈگری ٹرمینل فلیکشن کی کمی بھی محسوس کر رہے ہیں اور آپ کا مثبت لچمین امتحان ہے تو ایک اور چیز جو میں جلدی سے دیکھنا چاہتا ہوں وہ یہ ہے کہ میں آپ کے انگلیوں کو جلدی سے دیکھوں گا بہت اچھا تو اعصابی اور عروقی طور پر آپ کے دونوں نچلے اعضاء درست ہیں اور ایسا لگتا ہے کہ آپ کی پٹھوں کی طاقت پانچ میں سے پانچ ہے اسکاٹ تو میرے امتحان کے مطابق آپ کی دائیں گھٹنے کی چوٹ واقعی اینٹیریئر کروسیٹ لیمانٹ کے پھٹنے کا اشارہ کرتی ہے اور آپ نے اس بارے میں سنا ہوگا اور شاید اسے اے سی ایل ٹیئر بھی سنا ہوگا خاص طور پر جب بہت سے لوگ کھیل کھیلتے ہیں اور انہیں گھٹنے میں چوٹ لگتی ہے تو ایسا ہو سکتا ہے تو آپ کے لیے میری منصوبہ بندی یہ ہے کہ میں چاہتا ہوں کہ میں ایک ایم آر آئی کا آرڈر دوں کیونکہ میں اس اے سی ایل کی سالمیت کا جائزہ لینا چاہتا ہوں اب آپ کو سرجری کی ضرورت پڑ سکتی ہے لیکن ہم پہلے اس ایم آر آئی کے نتائج کو دیکھیں گے اور پھر دوبارہ جائزہ لیں گے لیکن اس دوران میں چاہتا ہوں کہ میں کچھ سوزش-روधी دوائیں میلوکسیکم 15 ملی گرام روزانہ کا آرڈر دوں یہ سوجن اور درد کو کم کرنے میں مدد کرے گا اور پھر میں چاہتا ہوں کہ اگر آپ کو ابھی بھی کچھ سوجن اور درد نظر آتا ہے تو آپ گھٹنے پر برف لگائیں لیکن میں یقینی طور پر چاہتا ہوں کہ آپ اپنی سرگرمیوں کو کم کریں تو میں چاہتا ہوں کہ آپ گھٹنے کو ثابت رکھنے والا برائس ویئر کریں اور چلتے وقت کرچز کا استعمال کریں تاکہ آپ گھٹنے پر زیادہ دباؤ اور تناؤ نہ ڈالیں کیا یہ منصوبہ لگتا ہے
+  [مریض] یہ لگتا ہے اب مجھے اپنی کام کی سرگرمیوں کو محدود کرنے کی ضرورت ہے میں عام طور پر ایک ڈیسک کے پیچھے بیٹھتا ہوں لیکن حال ہی میں بیٹھنا بہت آرام دہ نہیں رہا ہے
+  [ڈاکٹر] جی ہاں یقینا تو جی ہاں تو آپ کام کی سرگرمیوں کو محدود کر سکتے ہیں میں جانتا ہوں کہ اگر آپ بہت دیر تک بیٹھتے ہیں تو یہ تکلیف دہ ہو سکتا ہے کیونکہ آپ کو اپنے پیر کو تھوڑا ہلانا پڑتا ہے تاکہ وہ لاک نہ ہو جائے تو میں چاہتا ہوں کہ آپ تھوڑی سرگرمی کریں نہ کہ آپ کے پیروں پر زیادہ دباؤ پڑے لیکن یقینی طور پر انہیں ہر اب و اماں ہلائیں تاکہ وہ آپ کے لیے لاک نہ ہوں ٹھیک ہے
+  [مریض] ٹھیک ہے
+  [ڈاکٹر] ٹھیک ہے میں چاہتا ہوں کہ میں جانتا ہوں کہ آپ اکثر جاک کرتے ہیں تو میں چاہتا ہوں کہ آپ اسے تھوڑی دیر کے لیے سست کریں کچھ عرصے تک کوئی جاک نہ کریں جب تک ہمیں آپ کے ایم آر آئی کے نتائج نہیں مل جاتے اور ہم یہ معلوم نہیں کر لیتے کہ ہم کیا کرنے والے ہیں ٹھیک ہے
+  [مریض] ٹھیک ہے
+  [ڈاکٹر] ٹھیک ہے اور آپ کا کتا کیسا ہے کیا وہ اس واقعے سے پہلے آپ کے ساتھ جاک کر رہا تھا
+  [مریض] کیسے میرا کتا یا میری نوکری
+  [ڈاکٹر] آپ کا کتا
+  [مریض] میرا میرا کتا ٹھیک ہے
+  [ڈاکٹر] اچھا
+  [مریض] وہ بہت اچھا کر رہا ہے اور وہ اب بھی باہر کھیلنے کا لطف اٹھاتا ہے لیکن ایسا لگتا ہے کہ وہ کچھ عرصے تک ایسا نہیں کر سکے گا
+  [ڈاکٹر] بہت اچھا ٹھیک ہے تو میں نرس سے کہوں گا کہ آپ کو شیڈیولر کے پاس لے جائے تاکہ آپ اپنا ایم آر آئی کروا سکیں اور جیسے ہی ہمیں اس کے نتائج ملیں گے میں آپ سے رابطہ کروں گا
+  [مریض] ٹھیک ہے بہت شکریہ
+  [ڈاکٹر] شکریہ</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ (Chief Complaint)
+ دائیں گھٹنے کی چوٹ۔
+ موجودہ بیماری کی تاریخ (History of Present Illness)
+ اسکاٹ ملر، 36 سالہ مرد ہیں جو آج دائیں گھٹنے کی چوٹ کے جائزے کے لیے کلینک میں آئے ہیں۔ چوٹ 3 دن پہلے ہوئی، جب وہ پِک اَپ فٹ بال کھیل رہے تھے اور ان کے دائیں گھٹنے میں 'پاپ' کی آواز آئی۔ وہ چوٹ کے وقت سوجن کی شکایت کرتے ہیں، جو اب بہتر ہو گئی ہے۔ مریض کا بیان ہے کہ ان کا گھٹنا پہلے جیسا فعال نہیں ہے اور نہ ہی درست طریقے سے حرکت کرتا ہے۔ وہ اس وقت اپنے درد کی سطح کو 10 میں سے 6 تا 7 اور سوجن کم ہونے پر 10 میں سے 4 تا 5 بتاتے ہیں۔ مریض باقاعدگی سے آئیبوپروفین لے رہے ہیں، جس سے کچھ راحت ملتی ہے۔ وہ کہتے ہیں کہ وہ درد کے ساتھ گھٹنے کو موڑ سکتے ہیں، لیکن جب وہ گھٹنے کو سیدھا کرتے ہیں تو انہیں اسے سیدھا کرنے میں مدد محسوس ہوتی ہے۔ مریض نے مزید بتایا کہ وہ اپنے دائیں گھٹنے پر وزن اٹھا سکتے ہیں، تاہم اسے ڈھیلا محسوس ہوتا ہے اور یہ معمول کے مطابق نہیں لگتا۔
+ سوشل ہسٹری (Social History)
+ مریض ڈیسک پر کام کرتے ہیں۔
+ سسٹمز کا جائزہ (Review of Systems)
+ عضلاتی و ہڈیوں کا نظام (Musculoskeletal): دائیں گھٹنے میں درد کی شکایت۔
+ جسمانی معائنہ (Physical Exam)
+ چلنے کا انداز (Gait): دائیں ٹانگ پر چلتے وقت واضح لنگڑا پن۔
+ عضلاتی و ہڈیوں کا نظام (MSK): دائیں گھٹنے کا معائنہ: کافی مقدار میں effusion (سوجن کا پانی جمع ہونا)۔ ہلکی ecchymosis (کالی پڑنا)۔ medial joint line پر دبانے پر درد۔ passive ROM (حجیت کے ذریعے حرکت کی حد) میں مشکل۔ terminal extension (مکمل سیدھا ہونا) میں چند ڈگریز کی کمی، 115 ڈگریز تک۔ درد کی وجہ سے terminal flexion (مکمل موڑ) میں 20-30 ڈگریز کی کمی۔ Lachman's test مثبت۔ عضلاتی طاقت 5/5 ہے۔ اعصاب اور خون کی نالیاں distal (دور کے حصے) میں درست ہیں۔
+ Assessment (تشخیص)
+ دائیں گھٹنے میں درد، ممکنہ anterior cruciate ligament (ACL) کا پھٹنا۔
+ Plan (منصوبہ)
+ مریض کے آج کے جسمانی معائنے کے نتائج کا جائزہ لینے کے بعد، میں نے اس کے موجودہ علامات کے حوالے سے مریض کے ساتھ طویل گفتگو کی ہے۔ میں نے سفارش کی ہے کہ ہم ACL کی سالمیت کا جائزہ لینے کے لیے دائیں گھٹنے کا MRI کرائیں۔ میں نے مریض کو سوجن اور درد کو کم کرنے کے لیے میلوکسیکم 15 mg روزانہ تجویز کی ہے۔ ہم نے اس بات پر تبادلہ خیال کیا کہ مریض کو سوجن اور درد کو کم کرنے کے لیے برف اور سرگرمی میں تبدیلی کا استعمال کرنا چاہیے۔ میں نے تجویز دی کہ وہ گھٹنے کو immobilize (متحرک نہ کرنے) کرنے والا برے (knee immobilizer) پہنیں اور چلتے وقت کرچز (crutches) استعمال کریں۔ وہ MRI کے نتائج آنے تک جَگنگ (jogging) سے گریز کریں گے۔
+ ہدایات (Instructions)
+ مریض MRI کے نتائج دستیاب ہونے پر جائزے اور مزید بحث کے لیے مجھ سے دوبارہ رابطہ کریں گے۔</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>g_aci_059</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ACI051</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>[doctor] hi richard how are you the medical assistant told me that you have a tick bite is that what happened
+[patient] i really do n't know where i got it but i i had i do get out in the woods and i do spend a lot of time out in the yard but yeah i've got a tick bite around my knee and and it's been it's been over a week and and just it just burns and just quite annoying
+[doctor] okay and have you had any fever or chills
+[patient] i have not at this point it just feels warm on that spot
+[doctor] okay alright and have you noticed any other joint pain like in your elbows or shoulders or anything like that that since this started
+[patient] nothing other than my typical arthritic pain
+[doctor] okay alright now you say that you like to go outside and and you're working in the yard now i i heard that you were a a hunter when was the last time you went hunting has hunting season started yet i do n't even know
+[patient] well i i did go hunting not long ago couple of weeks ago
+[doctor] okay did you did you
+[patient] windle season is open well it it's actually on a on a a got the right word for it but it it's where they train dogs and things like that
+[doctor] okay
+[patient] type thing
+[doctor] okay did you i did did did were you able to shoot anything did you bring anything home
+[patient] well actually i yeah i shut several i had some grandchildren with me so i let them have what they wanted
+[doctor] nice nice you know i i did hear i do n't know much about hunting but i did hear a hunting software joke the other day do you want to hear it
+[patient] sure
+[doctor] so what software do hunters use for designing and hunting their pray
+[patient] man i have no idea
+[doctor] the adobee illustrator get it
+[patient] do n't be
+[doctor] anyway i die grass let's just get back to our visit here so about your line or about your tick bite so do you notice that it's hard for you to move your knee at all
+[patient] not at this time no
+[doctor] no and do you have any problems walking
+[patient] no
+[doctor] no okay and have you ever had a tick bite before
+[patient] i have when i was younger i used to get a lot of them because i spent a lot of time out of the woods never get into anesthesia takes you can get several bites out of that but this was just one
+[doctor] okay alright and have you ever been diagnosed with what we call lyme disease before
+[patient] i have not
+[doctor] you have not
+[patient] i would n't know so i would n't know what symptoms are
+[doctor] okay
+[patient] what you just asked me i guess maybe
+[doctor] yeah so some of those symptoms like any flu like symptoms have you had like any body aches or chills or anything like that
+[patient] no just really just kind of a a headache just generally do n't feel well
+[doctor] generally do n't feel well okay and has that been since the tick bite
+[patient] it has
+[doctor] it has okay alright and any other symptoms like a cough or shortness of breath or dizziness or anything like that
+[patient] no
+[doctor] okay now since you are here let me just ask you a little bit about your high blood pressure did you buy the blood pressure cuff i asked you to have you been checking your blood pressure at home
+[patient] periodically yes
+[doctor] okay and do you think that they are running okay
+[patient] yeah blood pressure seems to be doing okay the lisinopril works well
+[doctor] good i was just gon na ask you if you were taking your lisinopril so that's good okay and any side effects from the lisinopril since we started it i think we started it about a year ago two years ago
+[patient] no no no side effects that i'm aware of
+[doctor] no side effects okay and then in terms of your diabetes are you watching your sugar intake
+[patient] yeah i usually watch it the form of high what i'm eating but
+[doctor] i am a big pie fan as well i know what's your favorite type of pie
+[patient] well you know it's favorite boy i just like pie you know apples cherry chocolate you know bicon
+[doctor] yeah
+[patient] i try to try to avoid the bicon because i think it's just all sugar but i do like it
+[doctor] okay
+[patient] less
+[doctor] i like it too alright are you taking the metformin twice a day
+[patient] not everyday but most of the time
+[doctor] okay alright and are you checking your blood sugars pretty regularly
+[patient] i try to
+[doctor] okay and do you do you know on average how they're running are they running below like one fifty or
+[patient] yeah it's definitely running below that
+[doctor] okay your blood sugars are running below
+[patient] it's it's probably with with with the metformin it seems to be you know one twenty
+[doctor] good
+[patient] pretty regular
+[doctor] good your blood sugars are running in the one twenties that's really good okay alright well i wan na just go ahead and do a quick physical exam okay so i'm looking here at your vital signs and your vital signs look really good i do think you're doing a good job with taking your lisinopril your blood pressure's about one twenty two over seventy right now which is right where we want it your heart rate is nice and slow at sixty seven again which is right where we want it and i do n't appreciate any fever today you you have a normal temperature at ninety eight . four which is really good so i'm just gon na be going ahead and calling out some physical exam findings and i'm gon na let you know what that means when i'm done okay so on your heart exam your heart is in a nice regular rate and rhythm i do n't appreciate any murmur rub or gallop on your lung exam your lungs are nice and clear to auscultation bilaterally on your right knee exam i do appreciate some erythema and edema as well as an area of fluctuance over your right patella now does it hurt when i press
+[patient] it's a little bit sore
+[doctor] okay there is pain to palpation of the right anterior knee and i'm just gon na bend your knee up and down does that hurt at all
+[patient] no no it's just more of the typical grinding that i would feel
+[doctor] okay there is full range of motion of the right knee and on skin examination there is evidence of a bull's-eye rash over the right knee okay so what does that mean richard so that means that you know you do have some area of some inflammation over the over the right knee where you where you have that tick bite and you do have what we call that bull's eye rash which is what we get concerned about with with lyme disease so let's just talk a little bit about you know my assessment and my plan for you okay so for this first problem of your of your tick bite my concern is that you might have lyme disease based on the presentation of your right knee so i'm gon na go ahead and start you on doxycycline one hundred milligrams twice a day
+[patient] we're gon na continue that for about three weeks i'm also gon na go ahead and send a lyme titer as well as a western blot to see if you do in fact have lyme lyme disease and we'll have to go ahead and just see how you do with this we you know i'd like to avoid intravenous antibiotics which i think we can avoid but i wanted to see how you do so
+[doctor] do you have any questions about that
+[patient] yeah i did n't know what those last two things or just
+[doctor] yeah so so we are gon na start you on some antibiotics to help help you with this
+[patient] you know possible lyme disease and i'm gon na just order some blood tests just to see exactly what's going on and then you know sometimes people need intravenous antibiotics because lyme disease can cause problems on other organs like your heart that type of thing
+[doctor] if not treated appropriately and sometimes we need to give antibiotics through the iv which i'd like to avoid i think that we got this early enough that we can just treat you with some oral antibiotics okay for your second problem of your hypertension you know i think you're doing a really good job let's go ahead and continue you on the lisinopril twenty milligrams once a day and i wan na just go ahead and order a lipid panel just to make sure that everything is okay with your cholesterol how does that sound
+[patient] that's fine
+[doctor] great and then for your third problem of your diabetes i wan na just go ahead and order a hemoglobin a1c and continue you on the metformin one thousand milligrams twice a day it sounds like you're doing a good job since your blood sugars are running in the one twenties i do n't think we need to make any adjustments but we'll see what the hemoglobin a1c shows that gives us a an idea of what your blood sugars are doing on a long-term basis how does that sound
+[patient] okay at what point time do you start kinda checking kidney function i've been told that metformin can possibly cause some kidney issues
+[doctor] so it can you know your kidney function we've you know i think you've been really lucky it's been normal i checked it about two months ago and it looks pretty good it looks pretty normal but since we're doing blood work on you i can go ahead and order a a basic metabolic panel just to make sure that your kidney function is stable
+[patient] okay that'd be good
+[doctor] okay anything else
+[patient] not that i can think of at this time as soon as i leave
+[doctor] well you know where to find me okay
+[patient] alright
+[doctor] take care bye</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>CHIEF COMPLAINT
+Tick bite.
+MEDICAL HISTORY
+Patient reports a history of arthritis, hypertension, and diabetes type 2.
+SOCIAL HISTORY
+Patient reports he enjoys spending time outside in the woods and working in the yard. He went hunting with his grandchildren a couple of weeks ago.
+MEDICATIONS
+Patient reports taking lisinopril 20 mg once a day and metformin 1000 mg twice daily most of the time.
+REVIEW OF SYSTEMS
+Constitutional: Reports general ill feelings. Denies any fever, chills, flu like symptoms, body aches, or trouble waking.
+Respiratory: Denies cough or shortness of breath.
+Musculoskeletal: Denies joint pain or problems with ambulation.
+Skin: Reports warmth on the right knee.
+Neurological: Reports headache. Denies dizziness.
+VITALS
+Blood Pressure: 122/70 mmHg.
+Heart Rate: 67 beats per minute.
+Body Temperature: 98.4 degrees F.
+PHYSICAL EXAM
+Neck
+- General Examination: Neck is supple without thyromegaly or lymphadenopathy.
+Respiratory
+- Auscultation of Lungs: Clear bilaterally.
+Cardiovascular
+- Auscultation of Heart: Regular rate and rhythm. No murmurs, gallops or rubs.
+Musculoskeletal
+- Examination of the right knee: Erythema and edema as well as an area of fluctuance noted over the right patella. There is pain to palpation of the right anterior knee. Full range of motion.
+Integumentary
+- Examination: There is evidence of a bullâ€™s eye rash over the right knee.
+RESULTS
+Patient's previous kidney function is within normal limits.
+ASSESSMENT AND PLAN
+1. Tick bite.
+- Medical Reasoning: My concern is that he might have Lyme disease based on the presentation of his right knee.
+- Patient Education and Counseling: The patient and I discussed blood testing to determine if he does in fact have Lyme disease. I explained that Lyme disease can cause problems with other organs if not treated appropriately. We discussed that sometimes antibiotics need to be administered intravenously if oral antibiotics are not given early enough. We will see how he does with a course of oral antibiotics as I would like to avoid intravenous antibiotics.
+- Medical Treatment: Prescription for doxycycline 100 mg twice a day for 3 weeks provided. Lyme titer and Western blot will be obtained to determine if he has Lyme disease.
+2. Hypertension.
+- Medical Reasoning: This is well-controlled at this time.
+- Patient Education and Counseling: The patient and I discussed that he is doing really well monitoring his blood pressure at home.
+- Medical Treatment: Continue lisinopril 20 mg once a day. Lipid panel ordered to assess his cholesterol levels.
+3. Diabetes type 2.
+- Medical Reasoning: He is doing a good job managing his diabetes since his blood sugars are running in the 120s. I do not think we need to make any adjustments, but we will see what the hemoglobin A1c shows as that gives us an idea of what his blood sugars are doing on a long-term basis.
+- Patient Education and Counseling: We discussed that metformin can affect kidney function; however, his kidney function was last checked 2 months ago, and it has remained within normal limits.
+- Medical Treatment: Continue metformin 1000 mg twice a day. Hemoglobin A1c ordered. Basic metabolic panel ordered to assess kidney function. 
+Patient Agreements: The patient understands and agrees with the recommended medical treatment plan.</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>valid_aci_asrcorr</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] ہی رچرڈ، آپ کیسے ہیں؟ میڈیکل اسسٹنٹ نے مجھے بتایا کہ آپ کو ٹِک کا کاٹ (tick bite) لگا ہے، کیا ایسا ہی ہوا؟
+[مریض] مجھے واقعی معلوم نہیں کہ مجھے یہ کہاں سے لگا، لیکن میں جنگلات میں جاتا ہوں اور گھر کے صحن میں بھی بہت وقت گزارتا ہوں، لیکن ہاں، میرے گھٹنے کے قریب مجھے ٹِک کا کاٹ لگا ہے اور یہ ایک ہفتے سے زیادہ ہو گیا ہے اور بس جلن ہوتی ہے اور کافی پریشان کن ہے۔
+[ڈاکٹر] ٹھیک ہے اور کیا آپ کو بخار یا ٹھنڈ لگنے جیسی علامات ہوئی ہیں؟
+[مریض] ابھی تک نہیں، صرف اس جگہ پر گرمی محسوس ہوتی ہے۔
+[کہاں] ٹھیک ہے، ٹھیک ہے اور کیا آپ نے اس کے شروع ہونے کے بعد سے کہنیوں یا کندھوں یا کسی اور جگہ پر جوڑوں میں درد محسوس کیا ہے؟
+[مریض] صرف میرا عام آرتھرائٹک درد ہے۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے، اب آپ کہتے ہیں کہ آپ باہر جاتے ہیں اور گھر کے صحن میں کام کرتے ہیں، مجھے بتایا گیا ہے کہ آپ ایک شکاری (hunter) ہیں، آپ آخری بار کب شکار پر گئے تھے؟ کیا شکار کا موسم شروع ہو چکا ہے؟ مجھے تو پتہ بھی نہیں ہے۔
+[مریض] اچھا، میں حال ہی میں شکار پر گیا تھا، چند ہفتے پہلے۔
+[ڈاکٹر] ٹھیک ہے، کیا آپ نے...
+[مریض] ونڈل سیزن کھلا ہے۔ اچھا، یہ دراصل ایک ایسی جگہ ہے جہاں وہ کتے ٹرین کرتے ہیں اور ایسی چیزیں کرتے ہیں۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] قسم کی چیز۔
+[ڈاکٹر] ٹھیک ہے، کیا آپ نے... کیا آپ نے کچھ شوٹ کیا؟ کیا آپ کچھ گھر لائے؟
+[مریض] اچھا، میں نے واقعی ہاں، میں نے کئی چیزیں شوٹ کیں، میرے ساتھ کچھ پوتے پوتیوں کو بھی لے گیا تھا، چنانچہ میں نے انہیں وہی لینے دیا۔
+[ڈاکٹر] بہت اچھا، بہت اچھا۔ آپ جانتے ہیں، میں نے حال ہی میں شکار کے بارے میں ایک سافٹ ویئر کا مذاق سنا ہے، کیا آپ اسے سننا چاہیں گے؟
+[مریض] ضرور۔
+[ڈاکٹر] تو شکاری اپنے شکار کو ڈیزائن کرنے اور پکڑنے کے لیے کون سا سافٹ ویئر استعمال کرتے ہیں؟
+[مریض] یار، مجھے کوئی اندازہ نہیں ہے۔
+[ڈاکٹر] ایڈوبی السٹریٹر (Adobe Illustrator)، سمجھ آئے؟
+[مریض] سمجھ نہیں آیا۔
+[ڈاکٹر] ویسے بھی، آئیے اپنے دورے پر واپس آئیں۔ تو آپ کے گھٹنے کے بارے میں، کیا آپ کو گھٹنے کو حرکت دینے میں کوئی مشکل ہو رہی ہے؟
+[مریض] اس وقت نہیں، نہیں۔
+[ڈاکٹر] نہیں اور کیا آپ کو چلنے میں کوئی مشکل ہے؟
+[مریض] نہیں۔
+[ڈاکٹر] نہیں۔ ٹھیک ہے اور کیا آپ کو پہلے کبھی ٹِک کا کاٹ لگا ہے؟
+[مریض] ہاں، جب میں چھوٹا تھا، مجھے بہت زیادہ کاٹ لگتے تھے کیونکہ میں جنگلات میں بہت وقت گزارتا تھا۔ کبھی کبھی ایک کاٹ سے کئی ٹِک نکل آتے ہیں، لیکن یہ صرف ایک تھا۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے اور کیا آپ کو پہلے کبھی لائیم بیماری (Lyme disease) کا تشخیص ہوا ہے؟
+[مریض] نہیں ہوا۔
+[ڈاکٹر] آپ کو نہیں ہوا۔
+[مریض] مجھے نہیں معلوم، چنانچہ مجھے اس کے علامات نہیں معلوم۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] وہ جو آپ نے پوچھا، شاید وہی ہوں۔
+[ڈاکٹر] ہاں، تو ان علامات میں سے کچھ، جیسے فلو جیسی علامات، کیا آپ کو جسم میں درد یا ٹھنڈ لگنے جیسی کوئی چیز ہوئی ہے؟
+[مریض] نہیں۔ صرف تھوڑی سی سردرد، عام طور پر ٹھیک محسوس نہیں کرتا۔
+[ڈاکٹر] عام طور پر ٹھیک محسوس نہیں کرتا۔ ٹھیک ہے اور کیا یہ ٹِک کے کاٹنے کے بعد سے ہے؟
+[مریض] ہاں۔
+[ڈاکٹر] ہاں۔ ٹھیک ہے، ٹھیک ہے اور کیا آپ کو کھانسی، سانس کی قلت، چکر آنے یا اس جیسی کوئی اور علامات ہیں؟
+[مریض] نہیں۔
+[ڈاکٹر] ٹھیک ہے، اب چونکہ آپ یہاں ہیں، تو مجھے آپ کے ہائی بلڈ پریشر کے بارے میں بھی تھوڑا پوچھنے دیجیے، کیا آپ نے بلڈ پریشر کاف (blood pressure cuff) خریدا؟ کیا آپ گھر پر اپنا بلڈ پریشر چیک کر رہے ہیں؟
+[مریض] کبھی کبھار، ہاں۔
+[ڈاکٹر] ٹھیک ہے اور کیا آپ کو لگتا ہے کہ یہ ٹھیک چل رہا ہے؟
+[مریض] ہاں، بلڈ پریشر ٹھیک لگتا ہے، لِزینوپرل (lisinopril) اچھی طرح کام کرتا ہے۔
+[ڈاکٹر] بہت اچھا۔ میں بس پوچھنے والا تھا کہ کیا آپ اپنا لِزینوپرل لے رہے ہیں، تو یہ بہت اچھا ہے۔ ٹھیک ہے اور کیا آپ کو لِزینوپرل سے کوئی سائڈ ایفیکٹس (side effects) ہوئے ہیں؟ میں سمجھتا ہوں کہ ہم نے اسے ایک سال پہلے یا دو سال پہلے شروع کیا تھا۔
+[مریض] نہیں۔ کوئی سائڈ ایفیکٹس نہیں جن کا مجھے علم ہو۔
+[ڈاکٹر] کوئی سائڈ ایفیکٹس نہیں، ٹھیک ہے۔ اور پھر آپ کے ذیابطیس (diabetes) کے حوالے سے، کیا آپ اپنی چینی کی مقدار پر نظر رکھتے ہیں؟
+[مریض] ہاں، میں عام طور پر دیکھتا ہوں، میں جو کھا رہا ہوں اس کی قسم پر نظر رکھتا ہوں، لیکن...
+[ڈاکٹر] میں بھی پائی (pie) کا بہت بڑا مداح ہوں۔ آپ کی پسندیدہ قسم کون سی ہے؟
+[مریض] اچھا، آپ جانتے ہیں، پسندیدہ پائی، مجھے بس پائی پسند ہے، آپ جانتے ہیں، ایپل، چیری، چاکلیٹ، آپ جانتے ہیں، بائکن (pecan)।
+[ڈاکٹر] ہاں۔
+[مریض] میں بائکن سے بچنے کی کوشش کرتا ہوں کیونکہ مجھے لگتا ہے کہ یہ صرف چینی ہوتی ہے، لیکن مجھے وہ بھی پسند ہے۔
+[ڈاکٹر] ٹھیک ہے۔
+[مریض] کم۔
+[ڈاکٹر] مجھے بھی پسند ہے۔ ٹھیک ہے، کیا آپ میٹفورمن (metformin) دن میں دو بار لے رہے ہیں؟
+[مریض] ہر روز نہیں، لیکن زیادہ تر وقت۔
+[ڈاکٹر] ٹھیک ہے، ٹھیک ہے۔ اور کیا آپ باقاعدگی سے اپنے بلڈ شوگر چیک کر رہے ہیں؟
+[مریض] میں کوشش کرتا ہوں۔
+[ڈاکٹر] ٹھیک ہے اور کیا آپ جانتے ہیں کہ اوسطاً وہ کتنے ہیں؟ کیا وہ ایک پچاس (150) سے نیچے چل رہے ہیں؟
+[مریض] ہاں، یہ یقینی طور پر اس سے نیچے چل رہے ہیں۔
+[ڈاکٹر] ٹھیک ہے، آپ کے بلڈ شوگر ایک پچاس سے نیچے چل رہے ہیں۔
+[مریض] یہ... یہ شاید میٹفورمن کے ساتھ، یہ معلوم ہوتا ہے، ایک بیس (120) ہے۔
+[ڈاکٹر] بہت اچھا۔
+[مریض] کافی باقاعدگی سے۔
+[ڈاکٹر] بہت اچھا، آپ کے بلڈ شوگر ایک بیس (120) کی حد میں چل رہے ہیں، یہ بہت اچھا ہے۔ ٹھیک ہے، اچھا، میں اب ایک تیز جسمانی معائنہ (physical exam) کرنا چاہتا ہوں، ٹھیک ہے؟ تو میں یہاں آپ کے وائٹل سائنز (vital signs) دیکھ رہا ہوں اور آپ کے وائٹل سائنز بہت اچھے لگ رہے ہیں۔ مجھے لگتا ہے کہ آپ اپنا لِزینوپرل لینے میں اچھا کام کر رہے ہیں، آپ کا بلڈ پریشر تقریباً ایک سو بییس (122) اوور ستر (70) ہے، جو بالکل وہی ہے جہاں ہم چاہتے ہیں۔ آپ کی ہارٹ ریٹ (heart rate) چھیاسٹھ (67) پر اچھی طرح سست ہے، جو بالکل وہی ہے جہاں ہم چاہتے ہیں۔ اور مجھے آج بخار نہیں لگتا، آپ کا درجہ حرارت معمول پر ہے، اٹھانوے (98.4) ڈگری، جو بہت اچھا ہے۔ میں اب کچھ جسمانی معائنے کے نتائج بتانے جا رہا ہوں اور جب میں ختم کر لوں گا تو آپ کو بتاؤں گا کہ اس کا کیا مطلب ہے۔ تو آپ کے ہارٹ کے معائنے پر، آپ کا دل ایک اچھی باقاعدگی اور تال پر ہے۔ مجھے کوئی مرمر (murmur)، رَب (rub) یا گیلوپ (gallop) نہیں لگتا۔ آپ کے پھیپھڑوں کے معائنے پر، آپ کے پھیپھڑے دونوں اطراف سننے میں اچھے اور صاف ہیں۔ آپ کے دائیں گھٹنے کے معائنے پر، مجھے کچھ لالی (erythema) اور سوجن (edema) کے ساتھ ساتھ آپ کے دائیں پٹیلا (patella) پر ایک جگہ پھوڑے (fluctuance) کا علاقہ نظر آتا ہے۔ کیا جب میں دباؤں تو درد ہوتا ہے؟
+[مریض] یہ تھوڑا دردناک ہے۔
+[ڈاکٹر] ٹھیک ہے، دائیں گھٹنے کے اگلے حصے پر دباؤ ڈالنے پر درد ہے۔ میں اب آپ کے گھٹنے کو اوپر نیچے موڑنے جا رہا ہوں، کیا اس سے کوئی درد ہوتا ہے؟
+[مریض] نہیں۔ نہیں، یہ صرف وہی عام گھسنے جیسا ہے جو مجھے محسوس ہوتا ہے۔
+[ڈاکٹر] ٹھیک ہے، دائیں گھٹنے کی پوری رینج آف موشن (range of motion) ہے۔ اور جلد کے معائنے پر، دائیں گھٹنے پر ایک بلز آئی ریش (bull's-eye rash) کا ثبوت ہے۔ ٹھیک ہے، اس کا کیا مطلب ہے، رچرڈ؟ تو اس کا مطلب ہے کہ آپ کے دائیں گھٹنے پر کچھ سوزش (inflammation) کا علاقہ ہے جہاں آپ کو وہ ٹِک کا کاٹ لگا ہے اور آپ کو وہ بلز آئی ریش ہے، جو وہ چیز ہے جس کے بارے میں ہمیں لائیم بیماری کے ساتھ تشویش ہوتی ہے۔ تو آئیے آپ کی اس پہلی پریشانی، یعنی آپ کے ٹِک کے کاٹنے کے بارے میں تھوڑا بات کریں، میرا خیال ہے کہ آپ کو لائیم بیماری ہو سکتی ہے، آپ کے دائیں گھٹنے کی پریزنٹیشن کی بنیاد پر۔ میں آپ کو ڈاکسی سائکلین (doxycycline) ایک سو ملی گرام دن میں دو بار شروع کرنے جا رہا ہوں۔
+[مریض] ہم اسے تقریباً تین ہفتوں تک جاری رکھیں گے۔ میں ایک لائیم ٹائٹر (Lyme titer) اور ایک ویسٹرن بلاٹ (Western blot) بھی بھیجنے جا رہا ہوں تاکہ یہ دیکھا جا سکے کہ آیا آپ کو واقعی لائیم بیماری ہے اور ہمیں یہ دیکھنا پڑے گا کہ آپ اس کے ساتھ کیسے کرتے ہیں، ہم جانتے ہیں کہ میں انٹراوینس (intravenous) اینٹی بائیوٹکس سے بچنا چاہوں گا، مجھے لگتا ہے کہ ہم اس سے بچ سکتے ہیں، لیکن میں دیکھنا چاہتا تھا کہ آپ کیسے کرتے ہیں، چنانچہ...
+[ڈاکٹر] کیا آپ کے کوئی سوالات ہیں؟
+[مریض] ہاں، میں نہیں جانتا تھا کہ وہ آخری دو چیزیں کیا تھیں۔
+[ڈاکٹر] ہاں، تو ہم آپ کو انٹی بائیوٹکس شروع کرنے جا رہے ہیں تاکہ اس میں آپ کی مدد کی جا سکے...
+[مریض] ممکنہ لائیم بیماری اور میں کچھ بلڈ ٹیسٹ آرڈر کرنے جا رہا ہوں تاکہ یہ دیکھا جا سکے کہ بالکل کیا ہو رہا ہے اور پھر، آپ جانتے ہیں، کبھی کبھی لوگوں کو انٹراوینس اینٹی بائیوٹکس کی ضرورت ہوتی ہے کیونکہ لائیم بیماری دل جیسی دیگر اعضاء میں مسائل پیدا کر سکتی ہے...
+[ڈاکٹر] اگر مناسب طریقے سے علاج نہ کیا جائے۔ اور کبھی کبھی ہمیں IV کے ذریعے اینٹی بائیوٹکس دینے کی ضرورت ہوتی ہے، جسے میں بچانا چاہوں گا۔ مجھے لگتا ہے کہ ہم اسے اتنا جلد پکڑ چکے ہیں کہ ہم صرف آپ کا علاج کچھ زبانی (oral) اینٹی بائیوٹکس سے کر سکتے ہیں۔ ٹھیک ہے، آپ کی دوسری پریشانی، یعنی آپ کا ہائی بلڈ پریشر، میں سمجھتا ہوں کہ آپ بہت اچھا کام کر رہے ہیں، آئیے لِزینوپرل بیس ملی گرام دن میں ایک بار جاری رکھیں اور میں آپ کے کولیسٹرول کے ٹھیک ہونے کو یقینی بنانے کے لیے ایک لیپڈ پینل (lipid panel) آرڈر کرنا چاہتا ہوں۔ یہ کیسا لگتا ہے؟
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] بہت اچھا۔ اور پھر آپ کے ذیابطیس کی تیسری پریشانی کے لیے، میں ایک ہیموگلوبن A1C (hemoglobin A1c) آرڈر کرنا چاہتا ہوں اور میٹفورمن ایک ہزار ملی گرام دن میں دو بار جاری رکھنا چاہتا ہوں۔ ایسا لگتا ہے کہ آپ اچھا کام کر رہے ہیں کیونکہ آپ کے بلڈ شوگر ایک بیس (120) کی حد میں چل رہے ہیں، مجھے نہیں لگتا کہ ہمیں کوئی تبدیلی کرنے کی ضرورت ہے، لیکن ہم دیکھیں گے کہ ہیموگلوبن A1C کیا دکھاتا ہے، یہ ہمیں ایک اندازہ دیتا ہے کہ آپ کے بلڈ شوگر طویل مدتی طور پر کیسے چل رہے ہیں۔ یہ کیسا لگتا ہے؟
+[مریض] ٹھیک ہے۔ آپ کس وقت کلیہ (kidney) کے فنکشن کی جانچ شروع کرتے ہیں؟ مجھے بتایا گیا ہے کہ میٹفورمن ممکنہ طور پر کچھ کلیوی مسائل پیدا کر سکتا ہے۔
+[ڈاکٹر] چنانچہ یہ کر سکتا ہے۔ آپ کا کلیوی فنکشن، میں سمجھتا ہوں کہ آپ بہت خوش قسمت رہے ہیں، یہ نارمل رہا ہے، میں نے اسے تقریباً دو ماہ پہلے چیک کیا تھا اور یہ بہت اچھا لگتا ہے، یہ بہت نارمل لگتا ہے، لیکن چونکہ ہم آپ پر بلڈ ورک کر رہے ہیں، میں ایک بیسک میٹابولک پینل (basic metabolic panel) آرڈر کر سکتا ہوں تاکہ یہ یقینی بنایا جا سکے کہ آپ کا کلیوی فنکشن مستحکم ہے۔
+[مریض] ٹھیک ہے، یہ اچھا ہوگا۔
+[ڈاکٹر] ٹھیک ہے۔ کیا کچھ اور ہے؟
+[مریض] اس وقت میرے ذہن میں کچھ نہیں ہے۔ جیسے ہی میں چلا جاؤں گا۔
+[ڈاکٹر] اچھا، تو آپ جانتے ہیں کہ مجھے کہاں ڈھونڈنا ہے۔
+[مریض] ٹھیک ہے۔
+[ڈاکٹر] اپنا خیال رکھنا، الوداع۔</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>چیف کمپلائنٹ
+ٹک کا کاٹنا۔
+طبی تاریخ
+مریض آرتھرائٹس، ہائی پرٹینشن اور ڈائبیٹیس ٹائپ 2 کی تاریخ کی رپورٹ کرتا ہے۔
+سوشل ہسٹری
+مریض رپورٹ کرتا ہے کہ اسے جنگلات میں باہر وقت گزارنا اور گھر کے صحن میں کام کرنا پسند ہے۔ وہ دو ہفتے پہلے اپنے پوتے نواسے کے ساتھ شکار پر گیا تھا۔
+دوائیں
+مریض رپورٹ کرتا ہے کہ وہ لیسینوپرل 20 ملی گرام روزانہ ایک بار اور میٹ فارمن 1000 ملی گرام روزانہ دو بار اکثر اوقات لیتے ہیں۔
+سسٹم کا جائزہ
+غدودی (Constitutional): عام طور پر بیماری کی علامات کی رپورٹ کرتا ہے۔ بخار، ٹھنڈ لگنا، فلو جیسی علامات، جسم درد، یا جاگنے میں مشکل سے انکار کرتا ہے۔
+سانس کی (Respiratory): کھانسی یا سانس کی قلت سے انکار کرتا ہے۔
+اعضائے حرکت و جوڑوں (Musculoskeletal): جوڑوں کے درد یا چلنے پھرنے میں مسائل سے انکار کرتا ہے۔
+جلد (Skin): دائیں گھٹنے پر گرمی کی رپورٹ کرتا ہے۔
+اعصابی (Neurological): سر درد کی رپورٹ کرتا ہے۔ چکر آنے سے انکار کرتا ہے۔
+وائٹلز
+بلڈ پریشر: 122/70 mmHg۔
+ہارٹ ریٹ: 67 بیٹس فی منٹ۔
+جسم کا درجہ حرارت: 98.4 ڈگری F۔
+جسمانی امتحان
+گردن
+- عمومی امتحان: گردن لچکدار ہے بغیر تھائرو میگالی یا لیمف اڈینوپیتھی کے۔
+سانس کی
+- پھیپھڑوں کا اسکلٹیشن: دونوں اطراف صاف۔
+قلبی نظام
+- دل کی اسکلٹیشن: باقاعدہ شرح اور تال۔ کوئی مرمر، گیلوپس یا رگڑ نہیں۔
+اعضائے حرکت و جوڑوں
+- دائیں گھٹنے کا امتحان: ایرتھیما اور ایڈیمہ کے ساتھ ساتھ دائیں پٹیلا پر فلکچونس کا ایک علاقہ نوٹ کیا گیا۔ دائیں سامنے کے گھٹنے کے چھونے پر درد ہے۔ پوری رینج آف موشن۔
+جلد
+- امتحان: دائیں گھٹنے پر ایک بلز آئی راش کا ثبوت ہے۔
+نتائج
+مریض کا پچھلا گردے کا فنکشن معمول کی حدود کے اندر ہے۔
+تشخیص اور منصوبہ
+1. ٹک کا کاٹنا۔
+- طبی منطق: میرا خیال ہے کہ اس کی دائیں گھٹنے کی پریزنٹیشن کی بنیاد پر اسے لائم بیماری ہو سکتی ہے۔
+- مریض کی تعلیم اور مشاورت: مریض اور میں نے لائم بیماری کا پتہ لگانے کے لیے خون کی جانچ کے بارے میں بات کی۔ میں نے وضاحت کی کہ لائم بیماری اگر مناسب طریقے سے علاج نہ کیا جائے تو دوسرے اعضاء میں مسائل پیدا کر سکتی ہے۔ ہم نے اس پر بحث کی کہ اگر زبانی اینٹی بائیوٹکس جلد نہ دی جائیں تو بعض اوقات اینٹی بائیوٹکس رگ میں داخل کرنی پڑتی ہیں۔ ہم زبانی اینٹی بائیوٹکس کے ایک کورس کے ساتھ دیکھیں گے کہ وہ کیسا کرتا ہے کیونکہ میں رگ میں داخل اینٹی بائیوٹکس سے بچنا چاہوں گا۔
+- طبی علاج: ڈوکسی سائکلین 100 ملی گرام روزانہ دو بار 3 ہفتوں کے لیے تجویز فراہم کی گئی۔ یہ طے کرنے کے لیے کہ آیا اسے لائم بیماری ہے، لائم ٹائٹر اور ویسٹرن بلاٹ حاصل کیے جائیں گے۔
+2. ہائی پرٹینشن۔
+- طبی منطق: یہ اس وقت اچھی طرح سے کنٹرول میں ہے۔
+- مریض کی تعلیم اور مشاورت: مریض اور میں نے اس پر بحث کی کہ وہ گھر پر اپنے بلڈ پریشر کی نگرانی میں بہت اچھا کام کر رہا ہے۔
+- طبی علاج: لیسینوپرل 20 ملی گرام روزانہ ایک بار جاری رکھیں۔ اس کے کولیسٹرول کے سطح کا اندازہ لگانے کے لیے لیپڈ پینل کا آرڈر دیا۔
+3. ڈائبیٹیس ٹائپ 2۔
+- طبی منطق: وہ اپنے بلڈ شوگر 120s میں چل رہے ہیں کیونکہ وہ اپنے ڈائبیٹیس کو اچھی طرح سے منظم کر رہا ہے۔ مجھے نہیں لگتا کہ ہمیں کوئی ایڈجسٹمنٹ کرنے کی ضرورت ہے، لیکن ہم دیکھیں گے کہ ہیموگلوبن A1c کیا دکھاتا ہے کیونکہ یہ ہمیں اس بات کا اندازہ دیتا ہے کہ اس کے بلڈ شوگر طویل مدتی بنیادوں پر کیا کر رہے ہیں۔
+- مریض کی تعلیم اور مشاورت: ہم نے اس پر</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>g_aci_060</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>virtscribe</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VS006</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[doctor] next patient is christine hernandez . date of birth is january 13 , 1982 . hey miss christine , how are you doing today ? [patient] i'm good , thanks , how are you ? [doctor] i'm pretty good . so it looks like you've completed the covid vaccine , that's great . [patient] yes , i did . [doctor] anything new since your last visit ? [patient] no , i did all the tests that you had recommended me to take . i have n't been able to take the thyroid medicine . the one that you prescribed as i'm still taking my old one , the price is a little high on the new one . [doctor] okay , so did , did you try the coupon that i gave you ? [patient] i did not try the coupon . there was a charge of $ 75 . [doctor] okay , well , next time that , that coupon should help , but it should only be about three dollars . [patient] okay . i do n't have it . do you happen to have another one you can give me ? [doctor] yep , right here . [patient] wonderful . thank you so much and and then the gel they are charging me $ 100 for it , so i do n't know if this is because it's a , it's walmart or if i should try somewhere else or maybe you know how or where i could get it cheaper . [doctor] yeah , let's try something else . sometimes it can be cheaper if we just prescribe you the individual ingredients of a medication rather than the , the combined medication itself . [patient] that would be great . [doctor] so that's clindamycin gel and benzoyl peroxide maybe by doing them separately , they could be a lot cheaper so that we can do , the unithroid with the discount code should only be about nine dollars for 90 days . [patient] okay , that would be great , yeah , they were charging me $ 75 and i just could n't pay that . [doctor] maybe we try a different pharmacy as well . [patient] okay . so do you think that my weight gain could have been the birth control that i was taking before that caused it ? [doctor] maybe . i do n't really see an endocrine cause for it at least , so i would need to see the , the hyper and dragonism or high testosterone or a high dhea to cause acne or hair growth or any of that stuff , but the numbers are n't showing up out of range . [patient] okay . [doctor] i really do n't see any endocrine cause for it , like i said , your growth hormone was fine , but we definitely want to and need to treat it i do n't know if we talked about maybe a little weight loss study . [patient] you mentioned the weight loss study and you mentioned that i have some meal plans that you had given me , i still have those two . [doctor] have you tried to make any changes in the diet since the last time we spoke ? [patient] i've been trying to get better . i will start back at the gym in july because of my contract , i had to put a hold on it until then . [doctor] okay . [patient] so i do want to start doing that . i will be a little freeer since i'll be on vacation after july 8 . [doctor] okay , good . [patient] and then my cousin was telling me to ask you about cla because it's supposed to help your metabolism , is that okay to take ? [doctor] i'm not sure , what is the cla ? [patient] i'm not sure what it is either . [doctor] okay , well , i'm unfamiliar with it , so . [patient] okay . i also have a coworker who has a thyroid issue too and she suggested to try chromium for weight loss . [doctor] so that likely will not help too much . you could try it either if you really want to but then they will not accept you into the weight loss study if you try those two . [patient] okay . [doctor] chromium is just a supplement and it wo n't help that much . [patient] it wo n't , okay , thank you . [doctor] it wo n't hurt like i should n't say that it wo n't hurt , but it also wo n't help that much , so it's up to you . [patient] okay and so my cousin also suggested amino acids and that i might find them in certain foods i guess for my workout . [doctor] yeah , amino acids are fine , they wo n't , wo n't really help with weight loss either , but it might help you replenish and just kind of feel hydrated . [patient] okay , are they proteins , my cousin said she had lost some weight and has been working out every day but she does n't work , so i do n't know . [doctor] yes , i mean acids are what make up the protein , which is in any food you eat with any protein , so meat , dairy , nuts , any of that sort of thing . [patient] okay , thank you , got it . [doctor] alright are you allergic to any medications ? [patient] no , not that i know of . [doctor] okay . is your skin pretty sensitive ? [patient] yes . [doctor] alright . [patient] yeah , on my sides , i will start getting rashes with different products . [doctor] and have you ever tried clindamycin topical as an antibiotic for your acne ? [patient] no , i've never tried anything for it . [doctor] okay . we may give you some of that . [patient] okay and i also want to mention that my feet do swell up a lot . [doctor] okay . i'm , i'm gon na take a look at that for just a moment . any constipation ? [patient] yes , i also do have that problem . [doctor] alright . miralax will definitely help with that . [patient] okay , yes , my doctor did also recommend that . [doctor] great . alright , let's do an exam real quick . please have a seat on this table and i'm gon na listen to your lungs and heart . [patient] okay . [doctor] alright . deep breath , alright again . [patient] okay . [doctor] alright sounds good . [patient] great . [doctor] let me take a look at your feet and ankles . [patient] okay . [doctor] alright , they look okay right now . certainly let your doctor know about this if it gets any worse or reoccurs . [patient] okay , i'll do that . [doctor] now let's go over your lab work . so when you took that pill , the dexamethasone test , you passed , which means you do n't have cushing syndrome on that test at least . the salivary cortisol though unless you did one wrong , two of them were completely normal , one was abnormal , so we might need to repeat that in the future . [patient] okay , that's okay . [doctor] alright , so your cholesterol was quite high , the total cholesterol was 222 , good cholesterol was about 44 , the bad was 153 and it should be less than 100 . the non-hdl was about 178 and it should be less than 130 . the good cholesterol should be over 50 and it was 44 . so your screening for diabetes is was fine . you do have a vitamin d deficiency and i do n't know if we started the vitamin d yet or not . [patient] yes , we did . i , i do need to take one today though . [doctor] okay . so i also checked a lot of other pituitary hormones , iron levels , everything else seemed to be pretty good and in decent range . [patient] okay , that sounds great . so i wanted to also show you my liver enzymes because i have n't come back since then , but i was also happy because one of them was back to normal . [doctor] okay , great . let's see them . [patient] okay , so the one that's 30 that was almost 200 , not so long ago . [doctor] yeah , your alt was about 128 . [patient] okay and , and back in october it was 254 . [doctor] yeah , this is much better . [patient] okay , great , and then it dropped in january and then it dropped a little more in march since i stopped taking the medicine in december . [doctor] okay , that's good . so i'm proud of you with the course of your labs so before i forget , i'm gon na just put your labs into the computer today and i wo n't be checking your vitamin d level for some time . [patient] okay . so with the thyroid and the low vitamin d , does that always happen together ? [doctor] i do have a lot of people that have thyroid thyroid issues and they have vitamin d deficiency . [patient] okay . [doctor] this is what i'm , i'm going to do , i'm going to put , print out your prescriptions so you can shop around at the pharmacies and see if you can find better prices . [patient] okay , that way i can go ask them and try cvs . [doctor] yeah , that sounds like a plan . [patient] okay , good . so the weight loss study that you mentioned , when does that start or how does that work ? [doctor] so we are about to start as we just got approval last week and we are just waiting on our paperwork , so we can get started . [patient] okay and what's involved with that ? [doctor] so it'll involve you receiving a medication , which has been used for diabetes treatment , and it works mostly in the gut on satiety or satiety hormones . the most common side effects are gon na be nausea , vomiting , diarrhea , and constipation , there are six arms to the study , one is the placebo , the other ones are various , various dosages of the medication , excuse me , you would receive an injection once a week also keep in mind that most of the weight loss medications are not covered by insurance . [patient] okay . [doctor] so it's a way of getting them but the odds of getting one of the arms with the medication that are in your favor right might be only 1 out of 5 of our 100 patients that we have on the list for the study that will receive the placebo . [patient] okay . [doctor] does that make sense ? [patient] yes , it does . [doctor] so we do expect pretty big weight loss because of what we learn in the diabetes study , so it's a year long process and it's an injection once a week . you come in weekly for the first four or 5 weeks , i believe and then after that it's once a month . you do get a stype in for participating in the study and parking is validated and whatever else that you need for the study . [patient] okay , do you know how much the skypond is ? [doctor] i will have to double check for you and you do n't have to be my patient , you just have to meet the criteria so the criteria is a bmi greater than 30 if you do n't have any other medical condition or a bmi greater than 27 if you do have other medical condition like your cholesterol bmi greater than 27 would qualify you . [patient] i have a friend who might be interested and she does have diabetes . [doctor] if she has the diabetes , then she wo n't qualify . [patient] okay . you ca n't if you , if you have diabetes , got it . [doctor] correct . yeah , the only thing that they can not have really is diabetes , severe psychiatric disease or schizophrenia , bipolar , things like that . [patient] okay . [doctor] but if they have hypertension , high cholesterol , things like that , they can definitely sign up . [patient] and they can , okay , thank you for explaining that . [doctor] of course , so do you want me to try to get you into that study or would you just like to try me to prescribe you something , it's kinda up to you . [patient] i think i'll just wait for a little bit now . [doctor] alright . sounds good . i'll give you the information for the research . it's just in my office . it is a different phone number though so then if you're interested , just call us within a month because i do n't know how long the , the wait will be . [patient] okay , we will do . [doctor] perfect . so let me go grab your discount card for the unithroid . when you go in to activate it , the instructions are on this card and then you use your insurance . then show them this and ask how much it will cost . if it's too expensive , just let me know . [patient] i will , thank you so much for your help on that . [doctor] you're welcome . then what i did is i gave you a topical antibiotic plus i gave you the benzyl peroxide so the peroxide may bleach your sheets . but you want to make sure to take it and apply it at night so you do n't have a reaction from the sun during the day . [patient] okay , i can do that . [doctor] but you do also want to make sure that you do n't mess up your sheets . [patient] okay , sounds good . [doctor] so that's that and then let's see how you do on the other medications . i think this will , this will get better . in the meantime , a low carb diet , avoid alcohol and fatty foods and low cholesterol foods . [patient] okay . [doctor] and again once you finish your dose of vitamin d for the vitamin d deficiency , you're gon na start with the 2000 international units daily so that you're able to maintain those levels , sound good ? [patient] yes , that sounds great . [doctor] i really think your liver enzymes are gon na get better once you lose the weight though . [patient] okay , that would be great . [doctor] since we stopped your birth control , we can try one called fexie , which is kind of like a spermaside basically . [patient] okay . [doctor] and you just apply it before intercourse . [patient] okay . [doctor] if you need some just let me know . [patient] okay , i will , i will let you know . [doctor] okay , perfect . so stay put for me now . i'm gon na go see if they have a discount samples and bring you that prescription and then i'm going to order the labs for next time . [patient] okay , great . thank you so much . [doctor] you're welcome . so under the plan under abnormal liver enzymes , they have improved since discontinuation of her birth control . under abnormal weight gain , her dexamethasone suppression test was normal , 2 out of 3 solid chorisol tests were normal , not consistent with cushing's and therefore , ruling out cushing's . under her hirsutism , her androgen levels were normal . for the acne vulgaris , the epiduo was not covered , so we will try benzoyl peroxide with clindamycin and remove the previous information on the hypothyroidism . we will print out her prescriptions unithyroid should be better priced with the discount card and we will repeat levels of everything before next visit . thanks .</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHIEF COMPLAINT
+Hypothyroidism.
+Abnormal liver enzymes.
+Abnormal weight gain.
+Acne vulgaris.
+HISTORY OF PRESENT ILLNESS
+Christine Hernandez is a 39-year-old female who presents today for evaluation and management of abnormal liver enzymes and hypothyroidism.
+When the patient was last seen, her thyroid medicine was changed to Unithroid, but due to the cost of $75, she has not yet started the new medicine and continues taking her previous thyroid medicine. She denies utilizing the coupon that was previously recommended for the Unithroid. Similarly, the patient was prescribed Epiduo for her acne vulgaris, which she did not fill due to the cost of $100. She tried filling both prescriptions at Walmart.
+Mrs. Hernandez still presents with abnormal weight gain. She questioned if her oral contraceptive Microgestin, which was discontinued, could have been the cause. Additional symptoms included acne, hirsutism. She is attempting to modify her intake and plans to resume her gym membership in July as she will be on vacation. She inquired about the impact on weight loss of chromium, CLA, and amino acids.
+The patient confirmed that she is taking her high dose Vitamin D as prescribed. She does suffer from constipation and she treats with MiraLAX.
+She denies previous treatment for her acne vulgaris. She denies ever using clindamycin topical antibiotic. She reports having sensitive skin, developing rashes with various skin products.
+PAST HISTORY
+Medical
+Hypothyroidism.
+Acne Vulgaris.
+Vitamin D deficiency.
+Abnormal weight gain.
+Hirsutism.
+Constipation.
+CURRENT MEDICATIONS
+Benzoyl Peroxide.
+Clindamycin Gel applied topically.
+Vitamin D 2000 IU daily.
+Unithroid.
+MiraLAX.
+ALLERGIES
+No known allergies.
+RESULTS
+Dexamethasone Suppression Test: Normal.
+Salivary Cortisol Tests: 2 out of 3 were normal. Not consistent with Cushingâ€™s Syndrome.
+Hepatic Function Panel: ALT 128.
+Lipid Panel: Total cholesterol 222 mg/dL, HDL 44 mg/dL, LDL 153 mg/dL, non-HDL 178 mg/dL.
+FAI: Normal.
+ASSESSMENT
+â€¢ Hypothyroidism.
+â€¢ Abnormal liver enzymes.
+â€¢ Abnormal weight gain.
+â€¢ Acne vulgaris
+â€¢ Vitamin D deficiency.
+â€¢ Hirsutism
+PLAN
+Hypothyroidism
+The patient will again attempt to initiate Unithroid. I have printed out the prescription and a discount card, which should result in a reduced price. She will contact my office if she encounters additional issues.
+Abnormal liver enzymes
+We have seen improvement since the discontinuation of Microgestin. I recommended the spermicide Phexxi for alternative birth control. The patient will also continue working on weight loss, which should additionally improve her liver enzymes.
+Abnormal weight gain
+Cushingâ€™s Syndrome has been ruled out. I reviewed the weight loss study with the patient, she will call within a month if she is interested in participating. I advised her to follow a low carbohydrate, low cholesterol, abstain from alcohol, and reduce fatty foods diet.
+Acne vulgaris
+Epiduo was not covered and too expensive. The patient will try benzoyl peroxide and Clindamycin separately to see if the price improves.
+Vitamin D deficiency
+The patient will complete the high dose vitamin D and then should start vitamin D 2000 IU per day to maintain her levels.
+Hirsutism
+Her androgen levels were normal.
+INSTRUCTIONS
+She will repeat all labs prior to her next visit.
+</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>train_virtscribe_asr</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[ڈاکٹر] اگلا مریض کرسٹین ہرننڈیز ہے۔ تاریخ پیدائش 13 جنوری 1982 ہے۔ ہی مس کرسٹین، آج آپ کیسی ہیں؟ [مریض] میں ٹھیک ہوں، شکریہ، آپ کیسے ہیں؟ [ڈاکٹر] میں کافی ٹھیک ہوں۔ تو ایسا لگتا ہے کہ آپ نے کووڈ ویکسین مکمل کر لی ہے، یہ بہت اچھا ہے۔ [مریض] جی ہاں، میں نے کی۔ [ڈاکٹر] آپ کی آخری ملاقات کے بعد کچھ نیا؟ [مریض] نہیں، میں نے وہ تمام ٹیسٹ کرائے ہیں جن کی آپ نے مجھے سفارش کی تھی۔ میں تھائیرائیڈ کی دوائی نہیں لے پائی۔ وہ جو آپ نے تجویز کی تھی، کیونکہ میں ابھی بھی اپنی پرانی دوائی لے رہی ہوں، نئی والی کی قیمت تھوڑی زیادہ ہے۔ [ڈاکٹر] ٹھیک ہے، تو کیا، کیا آپ نے وہ کُپن استعمال کرنے کی کوشش کی جو میں نے آپ کو دیا تھا؟ [مریض] میں نے کُپن استعمال نہیں کیا۔ اس پر $75 کا چارج تھا۔ [ڈاکٹر] ٹھیک ہے، اچھی بات ہے، اگلے بار وہ کُپن مددگار ہونا چاہیے، لیکن یہ صرف تین ڈالر کے قریب ہونا چاہیے۔ [مریض] ٹھیک ہے۔ میرے پاس وہ نہیں ہے۔ کیا آپ کے پاس کوئی اور ہے جسے آپ مجھے دے سکیں؟ [ڈاکٹر] جی ہاں، یہ رہا۔ [مریض] زبردست۔ بہت بہت شکریہ اور پھر وہ جیل، اس کی قیمت $100 وصول کر رہے ہیں، تو مجھے نہیں معلوم کہ کیا یہ اس لیے ہے کہ یہ والمارٹ ہے یا مجھے کہیں اور کوشش کرنی چاہیے یا شاید آپ جانتے ہوں کہ میں اسے سستا کہاں سے حاصل کر سکتی ہوں۔ [ڈاکٹر] ہاں، آئیے کچھ اور کوشش کریں۔ کبھی کبھی اگر ہم آپ کو دوا کے الگ الگ اجزاء تجویز کریں تو یہ سستا ہو سکتا ہے بجائے اس کے کہ ہم خود دوا کا مرکب تجویز کریں۔ [مریض] یہ بہت اچھا ہوگا۔ [ڈاکٹر] تو یہ کلنڈامائسن جیل اور بینزویل پیراؤکسائیڈ ہو سکتی ہے، شاید انہیں الگ الگ لینے سے یہ بہت سستا ہو جائے تاکہ ہم یونیتھائیراڈ کو ڈسکاؤنٹ کوڈ کے ساتھ صرف نو ڈالر میں 90 دنوں کے لیے حاصل کر سکیں۔ [مریض] ٹھیک ہے، یہ بہت اچھا ہوگا، ہاں، وہ $75 وصول کر رہے تھے اور میں وہ ادا نہیں کر سکتی تھی۔ [ڈاکٹر] شاید ہم ایک مختلف فارمیسی بھی آزمائیں۔ [مریض] ٹھیک ہے۔ تو کیا آپ کو لگتا ہے کہ میرے وزن میں اضافہ اس برتھ کنٹرول کی وجہ سے ہوا تھا جو میں پہلے لے رہی تھی؟ [ڈاکٹر] شاید۔ مجھے اس کے لیے کوئی اینڈوکرائن وجہ نظر نہیں آرہی ہے، کم سے کم، تو مجھے ہائپر اینڈروجنزم یا زیادہ ٹیسٹوسٹیرون یا زیادہ ڈی ایچ اے دیکھنے کی ضرورت ہوگی جو مہاسوں یا بالوں کے بڑھنے یا اس جیسی کسی چیز کا باعث بنے، لیکن نمبرز رینج سے باہر نہیں دکھا رہے ہیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] مجھے واقعی کوئی اینڈوکرائن وجہ نظر نہیں آرہی ہے، جیسا کہ میں نے کہا، آپ کا گروتھ ہارمون ٹھیک تھا، لیکن ہم یقینی طور پر اسے علاج کرنا چاہتے ہیں اور ہمیں کرنا ہوگا۔ مجھے نہیں معلوم کہ کیا ہم نے شاید تھوڑے وزن کم کرنے کے اسٹڈی کے بارے میں بات کی تھی۔ [مریض] آپ نے وزن کم کرنے کے اسٹڈی کا ذکر کیا تھا اور آپ نے ذکر کیا تھا کہ میرے پاس کچھ کھانے کے منصوبے تھے جو آپ نے مجھے دیے تھے، میرے پاس وہ ابھی بھی دو ہیں۔ [ڈاکٹر] کیا آپ نے آخری بار جب ہم بات کی تھی، اس کے بعد سے کھانے میں کوئی تبدیلی کرنے کی کوشش کی ہے؟ [مریض] میں بہتر ہونے کی کوشش کر رہی ہوں۔ میں جولائی میں واپس جم شروع کروں گی کیونکہ میرے معاہدے کی وجہ سے، مجھے اسے اس وقت تک روکنا پڑا تھا۔ [ڈاکٹر] ٹھیک ہے۔ [مریض] تو میں وہ کرنا چاہتی ہوں۔ میں تھوڑی زیادہ آزاد ہوں گی کیونکہ میں 8 جولائی کے بعد چھٹی پر ہوں گی۔ [ڈاکٹر] ٹھیک ہے، اچھا ہے۔ [مریض] اور پھر میرے کزن نے مجھے CLA کے بارے میں آپ سے پوچھنے کے لیے کہا کیونکہ کہا جاتا ہے کہ یہ آپ کے میٹابولزم میں مدد کرتا ہے، کیا یہ لینا ٹھیک ہے؟ [ڈاکٹر] مجھے یقین نہیں ہے، CLA کیا ہے؟ [مریض] مجھے بھی یقین نہیں ہے کہ یہ کیا ہے۔ [ڈاکٹر] ٹھیک ہے، اچھی بات ہے، میں اس سے واقف نہیں ہوں۔ [مریض] ٹھیک ہے۔ میں نے یہ بھی سنا ہے کہ میرے ایک ساتھی کا بھی تھائیرائیڈ کا مسئلہ ہے اور انہوں نے وزن کم کرنے کے لیے کرومیم لینے کا مشورہ دیا۔ [ڈاکٹر] تو یہ شاید زیادہ مدد نہیں کرے گا۔ آپ اسے لے سکتے ہیں اگر آپ واقعتاً چاہتی ہیں لیکن پھر وہ آپ کو وزن کم کرنے کے اسٹڈی میں قبول نہیں کریں گے اگر آپ یہ دو چیزیں استعمال کرتی ہیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] کرومیم صرف ایک سپلیمنٹ ہے اور یہ زیادہ مدد نہیں کرے گا۔ [مریض] یہ نہیں کرے گا، ٹھیک ہے، شکریہ۔ [ڈاکٹر] یہ نقصان نہیں پہنچائے گا، مجھے نہیں کہنا چاہیے کہ یہ نقصان نہیں پہنچائے گا، لیکن یہ زیادہ مدد بھی نہیں کرے گا، تو یہ آپ پر منحصر ہے۔ [مریض] ٹھیک ہے اور تو میرے کزن نے امینو ایسڈز کا بھی ذکر کیا اور مجھے لگتا ہے کہ میں انہیں اپنے ورک آؤٹ کے لیے کچھ کھانے میں پا سکتی ہوں گے۔ [ڈاکٹر] ہاں، امینو ایسڈز ٹھیک ہیں، وہ وزن کم کرنے میں بھی مدد نہیں کریں گے، لیکن یہ آپ کو دوبارہ بھرنے اور ہائیڈریٹڈ محسوس کرنے میں مدد کر سکتے ہیں۔ [مریض] ٹھیک ہے، کیا وہ پروٹین ہیں، میرے کزن نے کہا کہ اس نے کچھ وزن کم کیا ہے اور وہ ہر روز ورزش کر رہی ہے لیکن وہ کام نہیں کرتی، تو مجھے نہیں معلوم۔ [ڈاکٹر] ہاں، امینو ایسڈز وہی ہیں جو پروٹین بناتے ہیں، جو آپ جو بھی پروٹین والا کھانا کھاتے ہیں اس میں موجود ہوتا ہے، لہذا گوشت، ڈیری، گری دار میوے، اس جیسی کوئی بھی چیز۔ [مریض] ٹھیک ہے، شکریہ، سمجھ گئی۔ [ڈاکٹر] ٹھیک ہے، کیا آپ کسی دوا سے الرجک ہیں؟ [مریض] نہیں، جہاں تک مجھے معلوم ہے۔ [ڈاکٹر] ٹھیک ہے۔ کیا آپ کی جلد بہت حساس ہے؟ [مریض] ہاں۔ [ڈاکٹر] ٹھیک ہے۔ [مریض] ہاں، میرے کناروں پر، میں مختلف مصنوعات سے جلن شروع کر دیتی ہوں۔ [ڈاکٹر] اور کیا آپ نے کبھی اپنے مہاسوں کے لیے اینٹی بائیوٹک کے طور پر کلنڈامائسن ٹاپیکل استعمال کیا ہے؟ [مریض] نہیں، میں نے کبھی اس کے لیے کچھ بھی استعمال نہیں کیا۔ [ڈاکٹر] ٹھیک ہے۔ ہم آپ کو اس کا کچھ دے سکتے ہیں۔ [مریض] ٹھیک ہے اور میں یہ بھی ذکر کرنا چاہتی ہوں کہ میرے پاؤں بہت سوج جاتے ہیں۔ [ڈاکٹر] ٹھیک ہے۔ میں، میں اسے ایک لمحے کے لیے دیکھوں گا۔ کیا کوئی قبض ہے؟ [مریض] ہاں، مجھے وہ مسئلہ بھی ہے۔ [ڈاکٹر] ٹھیک ہے۔ میرالیکس اس میں یقینی طور پر مدد کرے گا۔ [مریض] ٹھیک ہے، ہاں، میرے ڈاکٹر نے بھی یہ تجویز کی تھی۔ [ڈاکٹر] بہت اچھا۔ ٹھیک ہے، آئیے ایک تیز معائنہ کریں۔ براہ کرم اس میز پر بیٹھ جائیں اور میں آپ کے پھیپھڑوں اور دل کو سنوں گا۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے۔ گہری سانس لیں، ٹھیک ہے، پھر سے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے، اچھا لگتا ہے۔ [مریض] بہت اچھا۔ [ڈاکٹر] مجھے آپ کے پاؤں اور ٹخنوں کو دیکھنے دیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے، وہ ابھی ٹھیک لگ رہے ہیں۔ یقیناً اپنے ڈاکٹر کو اس بارے میں بتائیں اگر یہ مزید خراب ہوتا ہے یا دوبارہ ہوتا ہے۔ [مریض] ٹھیک ہے، میں وہ کروں گی۔ [ڈاکٹر] اب آئیے آپ کے لیب کام پر نظر ڈالیں۔ تو جب آپ نے وہ گولی لی تھی، ڈیکسامیتھاسون ٹیسٹ، تو آپ پاس ہوگئیں، جس کا مطلب ہے کہ کم سے کم اس ٹیسٹ پر آپ کو کشنگ سنڈروم نہیں ہے۔ تاہم، لعابی کورٹیسول، جب تک کہ آپ نے کوئی غلط نہ کی ہو، دو بالکل نارمل تھے، ایک غیر معمولی تھا، لہذا ہمیں مستقبل میں اسے دہرانے کی ضرورت ہو سکتی ہے۔ [مریض] ٹھیک ہے، ٹھیک ہے۔ [ڈاکٹر] ٹھیک ہے، تو آپ کا کولیسٹرول کافی زیادہ تھا، کل کولیسٹرول 222 تھا، اچھا کولیسٹرول تقریباً 44 تھا، برا 153 تھا اور یہ 100 سے کم ہونا چاہیے۔ نان-ایچ ڈی ایل تقریباً 178 تھا اور یہ 130 سے کم ہونا چاہیے۔ اچھا کولیسٹرول 50 سے زیادہ ہونا چاہیے اور یہ 44 تھا۔ تو ذیابیطس کے لیے آپ کی سکریننگ ٹھیک تھی۔ آپ کو وٹامن ڈی کی کمی ہے اور مجھے نہیں معلوم کہ کیا ہم نے ابھی تک وٹامن ڈی شروع کیا ہے یا نہیں۔ [مریض] جی ہاں، ہم نے کیا۔ مجھے آج ایک لینا ہے۔ [ڈاکٹر] ٹھیک ہے۔ تو میں نے بہت سے دوسرے پیٹویٹری ہارمونز، آئرن کی سطحیں بھی چیک کیں، باقی سب کچھ کافی اچھا اور مناسب حد میں تھا۔ [مریض] ٹھیک ہے، یہ بہت اچھا لگتا ہے۔ تو میں یہ بھی دکھانا چاہتی تھی کہ میرے لیور اینزائمز کیونکہ میں اس کے بعد واپس نہیں آئی تھی، لیکن میں خوش تھی کیونکہ ان میں سے ایک واپس نارمل ہو گیا تھا۔ [ڈاکٹر] ٹھیک ہے۔ بہت اچھا۔ آئیے انہیں دیکھیں۔ [مریض] ٹھیک ہے، تو وہ جو 30 ہے وہ کچھ عرصہ پہلے تقریباً 200 تھا۔ [ڈاکٹر] ہاں، آپ کا اے ایل ٹی تقریباً 128 تھا۔ [مریض] ٹھیک ہے اور اکتوبر میں یہ 254 تھا۔ [ڈاکٹر] ہاں، یہ بہت بہتر ہے۔ [مریض] ٹھیک ہے، بہت اچھا، اور پھر یہ جنوری میں گرا اور مارچ میں تھوڑا اور گرا کیونکہ میں نے دسمبر میں دوائی لینا بند کر دی تھی۔ [ڈاکٹر] ٹھیک ہے، یہ اچھا ہے۔ تو میں آپ کے لیب کے نتائج پر فخر کرتی ہوں، اس سے پہلے کہ میں بھول جاؤں، میں آج آپ کے لیب کو کمپیوٹر میں ڈال دوں گی اور میں کچھ عرصے تک آپ کا وٹامن ڈی لیول چیک نہیں کروں گی۔ [مریض] ٹھیک ہے۔ تو کیا تھائیرائیڈ اور کم وٹامن ڈی ہمیشہ ایک ساتھ ہوتے ہیں؟ [ڈاکٹر] میرے پاس بہت سے لوگ ہیں جن کو تھائیرائیڈ کے مسائل ہیں اور ان کو وٹامن ڈی کی کمی ہے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] یہ وہی ہے جو میں کرنے جا رہی ہوں، میں آپ کے نسخے پرنٹ کروں گی تاکہ آپ فارمیسیوں میں گھوم پھر کر بہتر قیمتیں تلاش کر سکیں۔ [مریض] ٹھیک ہے، اس طرح میں جا کر ان سے پوچھ سکتی ہوں اور CVS کو آزمائیں۔ [ڈاکٹر] ہاں، یہ ایک منصوبہ لگتا ہے۔ [مریض] ٹھیک ہے، اچھا ہے۔ تو وزن کم کرنے کے اسٹڈی کے بارے میں جو آپ نے ذکر کیا تھا، وہ کب شروع ہوتی ہے یا یہ کیسے کام کرتی ہے؟ [ڈاکٹر] تو ہم ابھی شروع کرنے والے ہیں کیونکہ ہمیں گزشتہ ہفتے منظوری ملی ہے اور ہم صرف اپنے کاغذات کا انتظار کر رہے ہیں، تاکہ ہم شروع کر سکیں۔ [مریض] ٹھیک ہے اور اس میں کیا شامل ہے؟ [ڈاکٹر] تو اس میں آپ کو ایک دوا ملے گی، جسے ذیابیطس کے علاج کے لیے استعمال کیا گیا ہے، اور یہ زیادہ تر آنت میں سیر یا سیر ہارمونز پر کام کرتی ہے۔ سب سے عام ضمنی اثرات متلی، الٹی، اسہال اور قبض ہوں گے۔ اسٹڈی میں چھ حصے ہیں، ایک پلیسبو ہے، دوسرے مختلف، مختلف دوائیوں کی خوراکیں ہیں، معاف کیجیے گا، آپ کو ہفتے میں ایک بار انجیکشن ملے گا، یہ بھی ذہن میں رکھیں کہ زیادہ تر وزن کم کرنے کی دوائیں انشورنس کے ذریعے کور نہیں ہوتی ہیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] تو یہ انہیں حاصل کرنے کا ایک طریقہ ہے لیکن آپ کے حق میں دوا والے حصے میں آنے کے امکانات صرف 1 سے 5 ہو سکتے ہیں، ہمارے 100 مریضوں میں سے جو اسٹڈی کی فہرست میں ہیں وہ پلیسبو حاصل کریں گے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] کیا یہ سمجھ میں آیا؟ [مریض] جی ہاں، یہ سمجھ میں آیا۔ [ڈاکٹر] تو ہم ذیابیطس اسٹڈی میں جو سیکھے ہیں اس کی وجہ سے ہم کافی بڑا وزن کم کرنے کی توقع کرتے ہیں، تو یہ ایک سال کا عمل ہے اور یہ ہفتے میں ایک بار انجیکشن ہے۔ آپ پہلے چار یا 5 ہفتوں تک ہفتہ وار آتے ہیں، مجھے لگتا ہے اور اس کے بعد یہ مہینے میں ایک بار ہے۔ آپ اسٹڈی میں حصہ لینے کے لیے ایک سٹائپنڈ حاصل کرتے ہیں اور پارکنگ کی تصدیق ہوتی ہے اور جو کچھ بھی آپ کو اسٹڈی کے لیے درکار ہے۔ [مریض] ٹھیک ہے، کیا آپ جانتے ہیں کہ سٹائپنڈ کتنا ہے؟ [ڈاکٹر] مجھے آپ کے لیے اسے دوبارہ چیک کرنا ہوگا اور آپ کو میرا مریض ہونے کی ضرورت نہیں ہے، آپ کو صرف معیار پورا کرنا ہوگا، معیار 30 سے زیادہ بی ایم آئی ہے اگر آپ کو کوئی دوسری طبی حالت نہیں ہے یا 27 سے زیادہ بی ایم آئی اگر آپ کو کوئی دوسری طبی حالت ہے جیسے آپ کا کولیسٹرول، 27 سے زیادہ بی ایم آئی آپ کو اہل بنائے گا۔ [مریض] میرے پاس ایک دوست ہے جو شاید اس میں دلچسپی لے اور اس کو ذیابیطس ہے۔ [ڈاکٹر] اگر اس کو ذیابیطس ہے، تو وہ اہل نہیں ہوگی۔ [مریض] ٹھیک ہے۔ آپ نہیں کر سکتے اگر، اگر آپ کو ذیابیطس ہے، ٹھیک ہے۔ [ڈاکٹر] صحیح۔ ہاں، واحد چیز جو ان کے پاس نہیں ہو سکتی ہے وہ ذیابیطس، شدید ذہنی بیماری یا سکیزوفرینیا، بائپولر، جیسی چیزیں ہیں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] لیکن اگر ان کو ہائی بلڈ پریشر، زیادہ کولیسٹرول، جیسی چیزیں ہیں، تو وہ یقینی طور پر سائن اپ کر سکتے ہیں۔ [مریض] اور وہ کر سکتے ہیں، ٹھیک ہے، اس کی وضاحت کرنے کا شکریہ۔ [ڈاکٹر] بالکل، تو کیا آپ چاہتی ہیں کہ میں آپ کو اس اسٹڈی میں شامل کرنے کی کوشش کروں یا آپ صرف مجھے کچھ تجویز کرنے کی کوشش کرنا چاہتی ہیں، یہ آپ پر منحصر ہے۔ [مریض] میں سوچتی ہوں کہ میں ابھی تھوڑی دیر انتظار کروں گی۔ [ڈاکٹر] ٹھیک ہے۔ اچھی بات ہے۔ میں آپ کو ریسرچ کے لیے معلومات دوں گی۔ یہ میرے دفتر میں ہے۔ یہ ایک مختلف فون نمبر ہے تاہم تاکہ اگر آپ دلچسپی رکھتی ہیں تو ہمیں ایک ماہ کے اندر کال کریں کیونکہ مجھے نہیں معلوم کہ انتظار کتنی دیر تک ہوگا۔ [مریض] ٹھیک ہے، ہم کریں گے۔ [ڈاکٹر] بہترین۔ تو مجھے آپ کے لیے یونیتھائیراڈ کے لیے ڈسکاؤنٹ کارڈ حاصل کرنے دیں۔ جب آپ اسے فعال کرنے جائیں تو، ہدایات اس کارڈ پر ہیں اور پھر آپ اپنا انشورنس استعمال کریں۔ پھر انہیں یہ دکھائیں اور پوچھیں کہ یہ کتنا پڑے گا۔ اگر یہ بہت مہنگا ہے، تو مجھے بتائیں۔ [مریض] میں بتاؤں گی، اس میں میری مدد کرنے کا بہت شکریہ۔ [ڈاکٹر] خوش آمدید۔ پھر میں نے جو کیا ہے وہ میں نے آپ کو ایک ٹاپیکل اینٹی بائیوٹک دیا ہے اور میں نے آپ کو بینزائل پیراؤکسائیڈ بھی دیا ہے، پیراؤکسائیڈ آپ کی چادروں کو بلیچ کر سکتا ہے۔ لیکن آپ کو یہ یقینی بنانا ہوگا کہ آپ اسے رات کو لگائیں تاکہ دن کے دوران سورج کی روشنی سے کوئی ردعمل نہ ہو۔ [مریض] ٹھیک ہے، میں وہ کر سکتی ہوں۔ [ڈاکٹر] لیکن آپ کو یہ بھی یقینی بنانا ہوگا کہ آپ اپنی چادریں خراب نہ کریں۔ [مریض] ٹھیک ہے، اچھا لگتا ہے۔ [ڈاکٹر] تو یہ وہ ہے اور پھر آئیے دیکھتے ہیں کہ آپ دوسری دوائیوں پر کیسا کام کرتی ہیں۔ مجھے لگتا ہے کہ یہ، یہ بہتر ہو جائے گا۔ اس درمیان، کم کاربوہائیڈریٹ ڈائیٹ، الکحل اور چربی والے کھانے اور کم کولیسٹرول والے کھانے سے پرہیز کریں۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] اور پھر، ایک بار جب آپ وٹامن ڈی کی کمی کے لیے وٹامن ڈی کی اپنی خوراک ختم کر لیں گے، تو آپ روزانہ 2000 بین الاقوامی یونٹس سے شروع کریں گے تاکہ آپ ان سطحوں کو برقرار رکھ سکیں، ٹھیک ہے؟ [مریض] جی ہاں، یہ بہت اچھا لگتا ہے۔ [ڈاکٹر] مجھے واقعی لگتا ہے کہ آپ کے لیور اینزائمز بہتر ہو جائیں گے جب آپ وزن کم کریں گی۔ [مریض] ٹھیک ہے، یہ بہت اچھا ہوگا۔ [ڈاکٹر] چونکہ ہم نے آپ کا برتھ کنٹرول بند کر دیا ہے، ہم فیکسی نام کی ایک چیز آزما سکتے ہیں، جو بنیادی طور پر ایک سپرمائسڈ کی طرح ہے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] اور آپ صرف جماع سے پہلے اسے لگائیں گے۔ [مریض] ٹھیک ہے۔ [ڈاکٹر] اگر آپ کو کچھ کی ضرورت ہو تو مجھے بتائیں۔ [مریض] ٹھیک ہے، میں بتاؤں گی، میں بتاؤں گی۔ [ڈاکٹر] ٹھیک ہے، بہترین۔ تو اب میرے لیے بیٹھے رہیں۔ میں دیکھوں گی کہ کیا ان کے پاس ڈسکاؤنٹ کے نمونے ہیں اور آپ کو وہ نسخہ لائیں اور پھر میں اگلے دور کے لیے لیب کا آرڈر د</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>چیف کمپلینٹ (Chief Complaint)
+ہائپوتھائیرائیڈزم (Hypothyroidism).
+غیر معمولی لور اینزائمز (Abnormal liver enzymes).
+غیر معمولی وزن میں اضافہ (Abnormal weight gain).
+یکنم ولگارس (Acne vulgaris).
+تاریخِ حال (History of Present Illness)
+کرسٹین ہرننڈیز 39 سالہ خاتون ہیں جو غیر معمولی لور اینزائمز اور ہائپوتھائیرائیڈزم کے ارزیابی اور علاج کے لیے آج پیش ہوئی ہیں۔
+جب مریضہ کو آخری بار دیکھا گیا تھا، تو ان کی تھائیرائیڈ کی دوائی کو یونیتھائیراڈ (Unithroid) میں تبدیل کر دیا گیا تھا، لیکن $75 کی لاگت کی وجہ سے، انہوں نے ابھی تک نئی دوائی شروع نہیں کی ہے اور اپنی پرانی تھائیرائیڈ کی دوائی لینا جاری رکھے ہوئے ہیں۔ انہوں نے پہلے تجویز کردہ یونیتھائیراڈ کے لیے کوپن استعمال کرنے سے انکار کر دیا۔ اسی طرح، مریضہ کو اپنے یکنم ولگارس کے لیے ایپڈو (Epiduo) تجویز کی گئی تھی، جسے انہوں نے $100 کی لاگت کی وجہ سے فل نہیں کی۔ انہوں نے وال مارٹ (Walmart) میں دونوں نسخے بھرنے کی کوشش کی۔
+محترمہ ہرننڈیز اب بھی غیر معمولی وزن میں اضافہ کی شکایت کر رہی ہیں۔ انہوں نے پوچھا کہ کیا ان کی زبانی کانٹراسیپٹائیو (oral contraceptive) مائکروجسٹن (Microgestin)، جو بند کر دی گئی تھی، اس کا سبب ہو سکتی ہے۔ اضافی علامات میں یکنم اور ہرسوٹزم (hirsutism) شامل تھے۔ وہ اپنی غذا میں تبدیلی کرنے کی کوشش کر رہی ہیں اور جولائی میں اپنی جم ممبرشپ دوبارہ شروع کرنے کا ارادہ رکھتی ہیں کیونکہ وہ چھٹیاں منائیں گی۔ انہوں نے وزن کم کرنے پر کرومیم (chromium)، CLA، اور امینو ایسڈز (amino acids) کے اثرات کے بارے میں پوچھا۔
+مریضہ نے تصدیق کی کہ وہ اپنی ہائی ڈوز وٹامن ڈی (Vitamin D) تجویز کے مطابق لے رہی ہیں۔ انہیں قبض (constipation) کی شکایت ہے اور وہ اس کا علاج میرا لییکس (MiraLAX) سے کرتی ہیں۔
+وہ اپنے یکنم ولگارس کے لیے پہلے کبھی علاج سے انکار کرتی ہیں۔ وہ کبھی کلنڈامائسن ٹاپیکل اینٹی بائیوٹک (clindamycin topical antibiotic) استعمال کرنے سے انکار کرتی ہیں۔ وہ رپورٹ کرتی ہیں کہ ان کی جلد حساس ہے، اور مختلف سکن پروڈکٹس (skin products) سے الرجی ہوجاتی ہے۔
+پچھلی تاریخ (Past History)
+طبی
+ہائپوتھائیرائیڈزم (Hypothyroidism).
+یکنم ولگارس (Acne Vulgaris).
+وٹامن ڈی کی کمی (Vitamin D deficiency).
+غیر معمولی وزن میں اضافہ (Abnormal weight gain).
+ہرسوٹزم (Hirsutism).
+قبض (Constipation).
+موجودہ دوائیں (Current Medications)
+بینزویل پیراکسائیڈ (Benzoyl Peroxide).
+کلنڈامائسن جیل (Clindamycin Gel) جو ٹاپیکل (topically) لگائی جاتی ہے۔
+وٹامن ڈی 2000 IU روزانہ (daily).
+یونیتھائیراڈ (Unithroid).
+میرا لییکس (MiraLAX).
+الرجی (Allergies)
+کوئی معلوم الرجی نہیں (No known allergies).
+نتائج (Results)
+ڈیکسامیتھاسون سپریشن ٹیسٹ (Dexamethasone Suppression Test): نارمل (Normal).
+سالیواری کورٹیسول ٹیسٹس (Salivary Cortisol Tests): 3 میں سے 2 نارمل تھے۔ کوشنگز سنڈروم (Cushing’s Syndrome) کے ساتھ مطابقت نہیں رکھتا۔
+ہیپاٹک فنکشن پینل (Hepatic Function Panel): ALT 128.
+لیپڈ پینل (Lipid Panel): ٹوٹل کولیسٹرول (Total cholesterol) 222 mg/dL، HDL 44 mg/dL، LDL 153 mg/dL، نان-HDL 178 mg/dL.
+FAI: نارمل (Normal).
+مُلَحَظَہ (Assessment)
+• ہائپوتھائیرائیڈزم (Hypothyroidism).
+• غیر معمولی لور اینزائمز (Abnormal liver enzymes).
+• غیر معمولی وزن میں اضافہ (Abnormal weight gain).
+• یکنم ولگارس (Acne vulgaris)
+• وٹامن ڈی کی کمی (</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_raw/medgemma.xlsx
+++ b/data_raw/medgemma.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>c_aci_001</t>
+          <t>g_aci_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c_aci_002</t>
+          <t>g_aci_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>c_aci_003</t>
+          <t>g_aci_003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>c_aci_004</t>
+          <t>g_aci_004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>c_aci_005</t>
+          <t>g_aci_005</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>c_aci_006</t>
+          <t>g_aci_006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>c_aci_007</t>
+          <t>g_aci_007</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c_aci_008</t>
+          <t>g_aci_008</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>c_aci_009</t>
+          <t>g_aci_009</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>c_aci_010</t>
+          <t>g_aci_010</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>c_aci_011</t>
+          <t>g_aci_011</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>c_aci_012</t>
+          <t>g_aci_012</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>c_aci_013</t>
+          <t>g_aci_013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>c_aci_014</t>
+          <t>g_aci_014</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>c_aci_015</t>
+          <t>g_aci_015</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>c_aci_016</t>
+          <t>g_aci_016</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>c_aci_017</t>
+          <t>g_aci_017</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>c_aci_018</t>
+          <t>g_aci_018</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>c_aci_019</t>
+          <t>g_aci_019</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>c_aci_020</t>
+          <t>g_aci_020</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>c_aci_021</t>
+          <t>g_aci_021</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>c_aci_022</t>
+          <t>g_aci_022</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>c_aci_023</t>
+          <t>g_aci_023</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>c_aci_024</t>
+          <t>g_aci_024</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>c_aci_025</t>
+          <t>g_aci_025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5643,7 +5643,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>c_aci_026</t>
+          <t>g_aci_026</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5835,7 +5835,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>c_aci_027</t>
+          <t>g_aci_027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>c_aci_028</t>
+          <t>g_aci_028</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6320,7 +6320,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>c_aci_029</t>
+          <t>g_aci_029</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>c_aci_030</t>
+          <t>g_aci_030</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6694,7 +6694,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>c_aci_031</t>
+          <t>g_aci_031</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>c_aci_032</t>
+          <t>g_aci_032</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>c_aci_033</t>
+          <t>g_aci_033</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7264,7 +7264,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>c_aci_034</t>
+          <t>g_aci_034</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>c_aci_035</t>
+          <t>g_aci_035</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>c_aci_036</t>
+          <t>g_aci_036</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>c_aci_037</t>
+          <t>g_aci_037</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -8032,7 +8032,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>c_aci_038</t>
+          <t>g_aci_038</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>c_aci_039</t>
+          <t>g_aci_039</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>c_aci_040</t>
+          <t>g_aci_040</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>c_aci_041</t>
+          <t>g_aci_041</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>c_aci_042</t>
+          <t>g_aci_042</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8927,7 +8927,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>c_aci_043</t>
+          <t>g_aci_043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>c_aci_044</t>
+          <t>g_aci_044</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9388,7 +9388,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>c_aci_045</t>
+          <t>g_aci_045</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>c_aci_046</t>
+          <t>g_aci_046</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9935,7 +9935,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>c_aci_047</t>
+          <t>g_aci_047</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10119,7 +10119,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>c_aci_048</t>
+          <t>g_aci_048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10277,7 +10277,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>c_aci_049</t>
+          <t>g_aci_049</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10423,7 +10423,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>c_aci_050</t>
+          <t>g_aci_050</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>c_aci_051</t>
+          <t>g_aci_051</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>c_aci_052</t>
+          <t>g_aci_052</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>c_aci_053</t>
+          <t>g_aci_053</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11249,7 +11249,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>c_aci_054</t>
+          <t>g_aci_054</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11462,7 +11462,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>c_aci_055</t>
+          <t>g_aci_055</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>c_aci_056</t>
+          <t>g_aci_056</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11962,7 +11962,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>c_aci_057</t>
+          <t>g_aci_057</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>c_aci_058</t>
+          <t>g_aci_058</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12488,7 +12488,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>c_aci_059</t>
+          <t>g_aci_059</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>c_aci_060</t>
+          <t>g_aci_060</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
